--- a/Data/Symbols/wip_command.xlsx
+++ b/Data/Symbols/wip_command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/Develop/OSS/KSPCompiler/Data/Symbols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BA303-69AA-6E44-83CB-DD7D9D480296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2DCAE9-B402-D243-B87C-315E659E0EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67200" yWindow="-25400" windowWidth="67200" windowHeight="37300" xr2:uid="{ECCE2DBE-05D5-9D4A-9DC9-05F8F762E943}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="1035">
   <si>
     <t>Name</t>
   </si>
@@ -533,9 +533,6 @@
     <t>get_key_color</t>
   </si>
   <si>
-    <t>note-nr</t>
-  </si>
-  <si>
     <t>get_key_name</t>
   </si>
   <si>
@@ -722,9 +719,6 @@
     <t>load_ir_sample</t>
   </si>
   <si>
-    <t>file-path</t>
-  </si>
-  <si>
     <t>load_ir_sample_m</t>
   </si>
   <si>
@@ -1490,30 +1484,6 @@
     <t>Retrieve various parameters of the specified gui control</t>
   </si>
   <si>
-    <t>Returns the path specified with the built-in path variable</t>
-  </si>
-  <si>
-    <t>Returns the color constant of the specified note number</t>
-  </si>
-  <si>
-    <t>Returns the name of the specified key</t>
-  </si>
-  <si>
-    <t>Returns the pressed state of the specified note number (i.e. key) on the&lt;br&gt;  KONTAKT keyboard, can be either 1 (key pressed) or 0 (key released)</t>
-  </si>
-  <si>
-    <t>Returns the key type constant of the specified key.</t>
-  </si>
-  <si>
-    <t>Returns the highest note of the specified key range</t>
-  </si>
-  <si>
-    <t>Returns the lowest note of the specified key range</t>
-  </si>
-  <si>
-    <t>Returns the name of the specified key range</t>
-  </si>
-  <si>
     <t>Returns the string value of the menu's entry.</t>
   </si>
   <si>
@@ -1523,9 +1493,6 @@
     <t>Returns 1 if the menu entry is visible, otherwise 0.</t>
   </si>
   <si>
-    <t>Returns the purge state of the specified group. 0=purged, 1=not purged</t>
-  </si>
-  <si>
     <t>Returns the length of the specified zone's sample in microseconds</t>
   </si>
   <si>
@@ -1544,15 +1511,6 @@
     <t>Ignore a controller event in a controller callback</t>
   </si>
   <si>
-    <t>Loads an array from an external file (.nka file)</t>
-  </si>
-  <si>
-    <t>Loads an array from an external file (.nka file) using the file's&lt;br&gt;  absolute path</t>
-  </si>
-  <si>
-    <t>Loads an impulse response sample into KONTAKT's convolution effect</t>
-  </si>
-  <si>
     <t>Activates the performance view for the respective script</t>
   </si>
   <si>
@@ -1625,12 +1583,6 @@
     <t>Returns the number of slices of the specified zone</t>
   </si>
   <si>
-    <t>Purges (i.e. unloads from RAM) the samples of the specified group</t>
-  </si>
-  <si>
-    <t>Assigns a text string to the specified range of keys</t>
-  </si>
-  <si>
     <t>Resets the KSP timer ($KSP_TIMER) to zero</t>
   </si>
   <si>
@@ -1640,15 +1592,6 @@
     <t>Round (round to nearest) round(2.3) = 2.0 round(2.8) = 3.0</t>
   </si>
   <si>
-    <t>Saves an array to an external file (i.e. an .nka file)</t>
-  </si>
-  <si>
-    <t>Saves an array to an external file (i.e. an .nka file), using the&lt;br&gt;  specified absolute path</t>
-  </si>
-  <si>
-    <t>Saves a MIDI file with a range specified by the mf_set_export_area()&lt;br&gt;  command.</t>
-  </si>
-  <si>
     <t>Assigns a text string to be displayed when hovering the ui control. The&lt;br&gt;  text will appear in KONTAKT's info pane.</t>
   </si>
   <si>
@@ -1659,24 +1602,6 @@
   </si>
   <si>
     <t>Change various parameters of an element within an array-based UI widget,&lt;br&gt;  e.g. ui_xy cursors.</t>
-  </si>
-  <si>
-    <t>Sets the color of the specified key (i.e. MIDI note) on the KONTAKT&lt;br&gt;  keyboard. use $KEY_COLOR_****</t>
-  </si>
-  <si>
-    <t>Assigns a text string to the specified key</t>
-  </si>
-  <si>
-    <t>Sets the trigger state of the specified key on KONTAKT's keyboard either&lt;br&gt;  to pressed/on (1) or released/off (0)</t>
-  </si>
-  <si>
-    <t>Sets the pressed state support mode for KONTAKT'S keyboard. The available&lt;br&gt;  modes are:&lt;br&gt;    0: KONTAKT handles all pressed states, set_key_pressed() commands are&lt;br&gt;  ignored (default mode)&lt;br&gt;    1: KONTAKT's keyboard is only affected by set_key_pressed() commands</t>
-  </si>
-  <si>
-    <t>Assigns a key type to the specified key.&lt;br&gt;    The following key types are available:&lt;br&gt;    $NI_KEY_TYPE_DEFAULT (i.e. normal mapped notes that produce sound)&lt;br&gt;    $NI_KEY_TYPE_CONTROL (i.e. key switches or other notes that do not produce&lt;br&gt;  sound)&lt;br&gt;    $NI_KEY_TYPE_NONE (resets the key to its normal KONTAKT behaviour)</t>
-  </si>
-  <si>
-    <t>Assigns a text string to the specified range of keys.</t>
   </si>
   <si>
     <t>Assign a default value to a knob to which the knob is reset when&lt;br&gt;  Cmd-clicking (mac) or Ctrl-clicking (PC) the knob.</t>
@@ -3376,6 +3301,272 @@
 - `0ff0000h {red}`
     - The `0` at the start lets Kontakt know the value is a number.
     - The `h` at the end indicates that it is a hexadecimal value. You can also use uppercase `H`.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns the purge state of the specified group.
+- 0: The group is purged.
+- 1: The group is not purged, i.e. the samples are loaded.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The index number of the group that should be checked.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Purges (i.e. unloads from RAM) the samples of the specified group.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The index number of the group which contains the samples to be purged.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- If set to 0, the samples of the specified group are unloaded.
+- If set to 1, the samples are reloaded.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note-number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns the color constant of the specified note number.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns the name of the specified note number.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns the pressed state of the specified note number, i.e. key, on the Kontakt keyboard. It can be either 1 (key pressed) or 0 (key released).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns the key type constant of the specified note number.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns the lowest note of the specified key range.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns the highest note of the specified key range.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns the name of the specified key range.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sets the color of the specified key, i.e. MIDI note, on the Kontakt virtual keyboard.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDI note number of the key (0 ... 127).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>One of available key color constant to specify the color used. The following constants are available:
+- $KEY_COLOR_RED
+- $KEY_COLOR_ORANGE
+- $KEY_COLOR_LIGHT_ORANGE
+- $KEY_COLOR_WARM_YELLOW
+- $KEY_COLOR_YELLOW
+- $KEY_COLOR_LIME
+- $KEY_COLOR_GREEN
+- $KEY_COLOR_MINT
+- $KEY_COLOR_CYAN
+- $KEY_COLOR_TURQUOISE
+- $KEY_COLOR_BLUE
+- $KEY_COLOR_PLUM
+- $KEY_COLOR_VIOLET
+- $KEY_COLOR_PURPLE
+- $KEY_COLOR_MAGENTA
+- $KEY_COLOR_FUCHSIA
+- $KEY_COLOR_DEFAULT Sets the key to Kontakt's standard color for mapped notes
+- $KEY_COLOR_INACTIVE Resets the key to standard black and white
+- $KEY_COLOR_NONE Resets the key to its normal Kontakt color, e.g. red for internal keyswitches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assigns a text string to the specified note number.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text string to assign.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- 0: Key is released
+- 1: Key is pressed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sets the trigger state of the specified key on Kontakt's keyboard.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sets the pressed state support mode for Kontakt's keyboard.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- 0: Kontakt handles all pressed states. set_key_pressed() commands are ignored (this is the default).
+- 1: Kontakt's keyboard is only affected by set_key_pressed() commands.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assigns a key type to the specified key.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The following key types are available:
+- $NI_KEY_TYPE_DEFAULT Normally mapped keys that produce sound.
+- $NI_KEY_TYPE_CONTROL Keyswitches or other keysthat do not produce sound.
+- $NI_KEY_TYPE_NONE Resets the key to its standard Kontakt behaviour.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assigns a text string to the specified range of keys.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>First key of the key range (0 ... 127).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Last key of the key range (0 ... 127).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text string specifying the name of the key range.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Removes the range of keys to which the specified note number belongs.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns the path specified with the built-in path variable.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The following path variables are available:
+- $GET_FOLDER_LIBRARY_DIR
+- If used with a patch which belongs to a Kontakt Player encoded library: library folder.
+If used with an unencoded patch: the User Content folder, which is found as follows:
+- macOS: `/Users/&lt;UserName&gt;/Documents/Native Instruments/User Content/`
+- Windows: `C:\Users\&lt;UserName&gt;\Documents\Native Instruments\User Content\`
+$GET_FOLDER_FACTORY_DIR
+- The factory data folder of Kontakt, mainly used for loading factory IR samples.
+- Note: This is not the Kontakt Factory Library folder!
+$GET_FOLDER_PATCH_DIR
+- The folder in which the patch is saved.
+- If the patch was not saved before, an empty string is returned.
+$GET_FOLDER_RC_DIR
+- The folder in which the Resource Container is saved. This path is generally recommended to be used when referencing other files in the library structure (for example, NKA or MIDI files), since the path to Resource Container is the same for Kontakt Player encoded library and unencoded patches.
+If no Resource Container is set for the insturment, an empty string is returned.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loads an array from an external .nka file.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The name of the array variable. This name must be present as the first line of the .nka file.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>##### 0
+A dialog window pops up, allowing you to select an .nka file to load. This mode can only be used in on persistence_changed, on ui_control and on pgs_changed callbacks (asynchronously).
+##### 1
+The array is directly loaded from the Data folder.
+- For user instruments, the Data folder is located beside the resource container.
+- For Kontakt Player encoded library instruments, the Data folder is located here:
+    - macOS: `/Users/&lt;UserName&gt;/Library/Application Support/&lt;LibraryName&gt;/`
+    - Windows: `C:\Users\&lt;UserName&gt;\AppData\Local\&lt;LibraryName&gt;\`
+This mode can be used synchronously in `on init`, and asynchronously in `on persistence_changed`, `on ui_control` and `on pgs_changed` callbacks.
+##### 2
+The array is directly loaded from the data folder inside the resource container.
+This mode can be used synchronously in `on init`, and asynchronously in `on persistence_changed`, `on ui_control` and `on pgs_changed` callbacks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loads an array from an external .nka file, using an absolute path to the file.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The name of the array variable, this must be present as the first line of the .nka file.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The absolute path of the .nka file.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loads an impulse response sample into Kontakt's convolution effect.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path-or-filename</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The absolute file path of the IR sample.
+- If no path is specified, the command will look for the specified sample within the ir_samples folder of the resource container.
+- If no resource container is available, the folder ir_samples within the Kontakt user folder will be checked.
+- The Kontakt user folder is located here:
+    - macOS: `/Users/&lt;username&gt;/Documents/Native Instruments/Kontakt 8/`
+    - Windows: `C:\Users\&lt;username&gt;\Documents\Native Instruments\Kontakt 8\`</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The slot index of the convolution effect (zero-based).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specifies whether the convolution effect is used as an:
+- $NI_SEND_BUS: Send effect
+- $NI_INSERT_BUS: Insert effect
+- $NI_MAIN_BUS: Main effect
+For buses, this parameter specifies the actual bus:
+- $NI_BUS_OFFSET + [0 ... 15]: One of the 16 buses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saves an array to an external .nka file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The name of the array variable to be saved.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>##### 0
+A dialog window pops up, allowing you to save the .nka file. This mode can only be used in on persistence_changed, on ui_control and on pgs_changed callbacks.
+##### 1
+The array is directly saved in the Data folder.
+- For user instruments, the Data folder is located beside the resource container.
+- For Kontakt Player encoded library instruments, the Data folder is located here:
+    - macOS: /Users/&lt;UserName&gt;/Library/Application Support/&lt;LibraryName&gt;/
+    - Windows: C:\Users\&lt;UserName&gt;\AppData\Local\&lt;LibraryName&gt;\
+This mode can be used synchronously in `on init`, and asynchronously in `on persistence_changed`, `on ui_control` and `on pgs_changed` callbacks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saves an array to an external .nka file with the specified absolute path.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The absolute path of the .nka file to be saved.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saves a MIDI file with the range specified by the mf_set_export_area() command.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The absolute path of the MIDI file to be saved.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3822,10 +4013,10 @@
   <dimension ref="A1:U263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C201" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C178" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="A212" sqref="A212"/>
+      <selection pane="bottomRight" activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3853,7 +4044,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3918,7 +4109,7 @@
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
@@ -3942,7 +4133,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -3959,7 +4150,7 @@
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
@@ -3971,7 +4162,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -3983,7 +4174,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -4000,7 +4191,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>29</v>
@@ -4012,7 +4203,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>30</v>
@@ -4047,7 +4238,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -4059,7 +4250,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>30</v>
@@ -4088,48 +4279,48 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:21" s="4" customFormat="1">
+      <c r="A6" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="42">
       <c r="A7" s="4" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>41</v>
@@ -4141,7 +4332,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>42</v>
@@ -4172,7 +4363,7 @@
     </row>
     <row r="8" spans="1:21" s="4" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>45</v>
@@ -4194,7 +4385,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -4211,7 +4402,7 @@
     </row>
     <row r="9" spans="1:21" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>46</v>
@@ -4223,7 +4414,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
@@ -4235,7 +4426,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4252,7 +4443,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="3" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>47</v>
@@ -4305,7 +4496,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="3" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>53</v>
@@ -4317,7 +4508,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>30</v>
@@ -4352,7 +4543,7 @@
     </row>
     <row r="12" spans="1:21" s="4" customFormat="1" ht="147">
       <c r="A12" s="4" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>57</v>
@@ -4364,19 +4555,19 @@
         <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>958</v>
+        <v>933</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4393,7 +4584,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="3" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>59</v>
@@ -4405,7 +4596,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>58</v>
@@ -4432,7 +4623,7 @@
     </row>
     <row r="14" spans="1:21" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>61</v>
@@ -4444,7 +4635,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
@@ -4456,7 +4647,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4473,7 +4664,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="3" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>62</v>
@@ -4512,7 +4703,7 @@
     </row>
     <row r="16" spans="1:21" s="4" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>65</v>
@@ -4524,7 +4715,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>27</v>
@@ -4536,7 +4727,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -4553,7 +4744,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="3" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>66</v>
@@ -4565,7 +4756,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>30</v>
@@ -4596,7 +4787,7 @@
     </row>
     <row r="18" spans="1:21" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>69</v>
@@ -4608,13 +4799,13 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>36</v>
@@ -4639,7 +4830,7 @@
     </row>
     <row r="19" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A19" s="4" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>72</v>
@@ -4651,19 +4842,19 @@
         <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>961</v>
+        <v>936</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>73</v>
@@ -4672,7 +4863,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>962</v>
+        <v>937</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>74</v>
@@ -4681,7 +4872,7 @@
         <v>36</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>963</v>
+        <v>938</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -4692,7 +4883,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>75</v>
@@ -4733,7 +4924,7 @@
     </row>
     <row r="21" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A21" s="4" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>76</v>
@@ -4745,19 +4936,19 @@
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>964</v>
+        <v>939</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>77</v>
@@ -4766,7 +4957,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>965</v>
+        <v>940</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>74</v>
@@ -4775,7 +4966,7 @@
         <v>36</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>966</v>
+        <v>941</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -4786,7 +4977,7 @@
     </row>
     <row r="22" spans="1:21" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>78</v>
@@ -4798,13 +4989,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>36</v>
@@ -4829,7 +5020,7 @@
     </row>
     <row r="23" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A23" s="4" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>80</v>
@@ -4841,19 +5032,19 @@
         <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>968</v>
+        <v>943</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>81</v>
@@ -4862,7 +5053,7 @@
         <v>36</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>969</v>
+        <v>944</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>74</v>
@@ -4871,7 +5062,7 @@
         <v>36</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>970</v>
+        <v>945</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -4882,7 +5073,7 @@
     </row>
     <row r="24" spans="1:21" s="4" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>82</v>
@@ -4894,7 +5085,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>856</v>
+        <v>831</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>27</v>
@@ -4906,7 +5097,7 @@
         <v>28</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4923,7 +5114,7 @@
     </row>
     <row r="25" spans="1:21" s="4" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>83</v>
@@ -4935,7 +5126,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>857</v>
+        <v>832</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>30</v>
@@ -4947,7 +5138,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4964,7 +5155,7 @@
     </row>
     <row r="26" spans="1:21" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>84</v>
@@ -4976,19 +5167,19 @@
         <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>85</v>
@@ -4997,7 +5188,7 @@
         <v>36</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -5011,7 +5202,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="3" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>86</v>
@@ -5054,7 +5245,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="3" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>89</v>
@@ -5097,7 +5288,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="3" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>92</v>
@@ -5140,7 +5331,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="3" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>95</v>
@@ -5183,7 +5374,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="3" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>98</v>
@@ -5226,7 +5417,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="3" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>101</v>
@@ -5269,7 +5460,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="3" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>104</v>
@@ -5312,7 +5503,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="3" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>107</v>
@@ -5355,7 +5546,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="3" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>110</v>
@@ -5398,7 +5589,7 @@
     </row>
     <row r="36" spans="1:21" s="4" customFormat="1" ht="63">
       <c r="A36" s="4" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>113</v>
@@ -5410,19 +5601,19 @@
         <v>21</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>895</v>
+        <v>870</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5437,48 +5628,48 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:21" s="4" customFormat="1">
+      <c r="A37" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="C37" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
+      <c r="H37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="3" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>116</v>
@@ -5490,7 +5681,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>30</v>
@@ -5517,7 +5708,7 @@
     </row>
     <row r="39" spans="1:21" s="4" customFormat="1" ht="168">
       <c r="A39" s="4" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>117</v>
@@ -5529,19 +5720,19 @@
         <v>21</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5558,7 +5749,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="3" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>118</v>
@@ -5570,7 +5761,7 @@
         <v>21</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>30</v>
@@ -5593,7 +5784,7 @@
     </row>
     <row r="41" spans="1:21" s="4" customFormat="1">
       <c r="A41" s="4" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>119</v>
@@ -5605,7 +5796,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>27</v>
@@ -5617,7 +5808,7 @@
         <v>28</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5634,10 +5825,10 @@
     </row>
     <row r="42" spans="1:21" s="4" customFormat="1">
       <c r="A42" s="4" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="C42" s="5" t="b">
         <v>1</v>
@@ -5646,7 +5837,7 @@
         <v>21</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>27</v>
@@ -5658,7 +5849,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -5675,7 +5866,7 @@
     </row>
     <row r="43" spans="1:21" s="4" customFormat="1">
       <c r="A43" s="4" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>120</v>
@@ -5687,19 +5878,19 @@
         <v>21</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>976</v>
+        <v>951</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>977</v>
+        <v>952</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>121</v>
@@ -5708,7 +5899,7 @@
         <v>36</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>978</v>
+        <v>953</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -5722,7 +5913,7 @@
     </row>
     <row r="44" spans="1:21" s="4" customFormat="1" ht="147">
       <c r="A44" s="4" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>122</v>
@@ -5734,19 +5925,19 @@
         <v>21</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>979</v>
+        <v>954</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>980</v>
+        <v>955</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>121</v>
@@ -5755,7 +5946,7 @@
         <v>36</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>981</v>
+        <v>956</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>123</v>
@@ -5764,7 +5955,7 @@
         <v>36</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>982</v>
+        <v>957</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -5775,7 +5966,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="3" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>124</v>
@@ -5787,7 +5978,7 @@
         <v>21</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>58</v>
@@ -5814,7 +6005,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="3" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>126</v>
@@ -5826,7 +6017,7 @@
         <v>21</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>58</v>
@@ -5857,7 +6048,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="3" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>128</v>
@@ -5869,7 +6060,7 @@
         <v>21</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>58</v>
@@ -5904,7 +6095,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="3" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>131</v>
@@ -5916,7 +6107,7 @@
         <v>21</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>58</v>
@@ -5943,7 +6134,7 @@
     </row>
     <row r="49" spans="1:21" s="4" customFormat="1">
       <c r="A49" s="4" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>133</v>
@@ -5955,7 +6146,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>27</v>
@@ -5967,7 +6158,7 @@
         <v>28</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -5984,7 +6175,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="3" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>134</v>
@@ -5996,7 +6187,7 @@
         <v>21</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>34</v>
@@ -6027,7 +6218,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="3" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>136</v>
@@ -6039,7 +6230,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>30</v>
@@ -6070,7 +6261,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="3" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>138</v>
@@ -6082,7 +6273,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>58</v>
@@ -6113,7 +6304,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="3" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>140</v>
@@ -6160,7 +6351,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="3" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>143</v>
@@ -6207,7 +6398,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="3" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>144</v>
@@ -6250,7 +6441,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="3" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>145</v>
@@ -6297,7 +6488,7 @@
     </row>
     <row r="57" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A57" s="4" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>146</v>
@@ -6309,7 +6500,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>946</v>
+        <v>921</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>58</v>
@@ -6321,7 +6512,7 @@
         <v>36</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>928</v>
+        <v>903</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>49</v>
@@ -6330,7 +6521,7 @@
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>941</v>
+        <v>916</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>50</v>
@@ -6339,7 +6530,7 @@
         <v>36</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>929</v>
+        <v>904</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>147</v>
@@ -6348,7 +6539,7 @@
         <v>36</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>993</v>
+        <v>968</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
@@ -6356,7 +6547,7 @@
     </row>
     <row r="58" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A58" s="4" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>148</v>
@@ -6368,19 +6559,19 @@
         <v>21</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>947</v>
+        <v>922</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>935</v>
+        <v>910</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>928</v>
+        <v>903</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>49</v>
@@ -6389,7 +6580,7 @@
         <v>36</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>941</v>
+        <v>916</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>50</v>
@@ -6398,7 +6589,7 @@
         <v>36</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>929</v>
+        <v>904</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>147</v>
@@ -6407,7 +6598,7 @@
         <v>36</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>994</v>
+        <v>969</v>
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
@@ -6415,10 +6606,10 @@
     </row>
     <row r="59" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A59" s="4" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>931</v>
+        <v>906</v>
       </c>
       <c r="C59" s="5" t="b">
         <v>1</v>
@@ -6427,60 +6618,60 @@
         <v>21</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>933</v>
+        <v>908</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>934</v>
+        <v>909</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>935</v>
+        <v>910</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>928</v>
+        <v>903</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>936</v>
+        <v>911</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>940</v>
+        <v>915</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>937</v>
+        <v>912</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>941</v>
+        <v>916</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>938</v>
+        <v>913</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>929</v>
+        <v>904</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>939</v>
+        <v>914</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>942</v>
+        <v>917</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="3" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>149</v>
@@ -6531,7 +6722,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="3" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>151</v>
@@ -6582,7 +6773,7 @@
     </row>
     <row r="62" spans="1:21" s="4" customFormat="1">
       <c r="A62" s="4" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>152</v>
@@ -6594,7 +6785,7 @@
         <v>21</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>983</v>
+        <v>958</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>30</v>
@@ -6606,7 +6797,7 @@
         <v>44</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -6623,7 +6814,7 @@
     </row>
     <row r="63" spans="1:21" s="4" customFormat="1" ht="357">
       <c r="A63" s="4" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>154</v>
@@ -6635,28 +6826,28 @@
         <v>21</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>985</v>
+        <v>960</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>986</v>
+        <v>961</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -6670,7 +6861,7 @@
     </row>
     <row r="64" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A64" s="4" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>155</v>
@@ -6682,19 +6873,19 @@
         <v>21</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>68</v>
@@ -6703,7 +6894,7 @@
         <v>36</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>989</v>
+        <v>964</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -6717,7 +6908,7 @@
     </row>
     <row r="65" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A65" s="4" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>156</v>
@@ -6729,19 +6920,19 @@
         <v>21</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>68</v>
@@ -6750,7 +6941,7 @@
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>40</v>
@@ -6759,7 +6950,7 @@
         <v>36</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
@@ -6768,48 +6959,50 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
     </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B66" s="6" t="s">
+    <row r="66" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A66" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F66" s="6" t="s">
+      <c r="C66" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
+      <c r="H66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="3" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>159</v>
@@ -6846,333 +7039,333 @@
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
     </row>
-    <row r="68" spans="1:21">
-      <c r="A68" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B68" s="6" t="s">
+    <row r="68" spans="1:21" s="4" customFormat="1">
+      <c r="A68" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F68" s="6" t="s">
+      <c r="C68" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" s="4" customFormat="1">
+      <c r="A69" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="F69" s="6" t="s">
+      <c r="C69" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" s="4" customFormat="1">
+      <c r="A70" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="1:21" s="4" customFormat="1">
+      <c r="A71" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C70" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="F70" s="6" t="s">
+      <c r="C71" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:21" s="4" customFormat="1">
+      <c r="A72" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="1:21" s="4" customFormat="1">
+      <c r="A73" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="1:21" s="4" customFormat="1" ht="21">
+      <c r="A74" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+    </row>
+    <row r="75" spans="1:21" s="4" customFormat="1">
+      <c r="A75" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-    </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-    </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-    </row>
-    <row r="74" spans="1:21">
-      <c r="A74" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-    </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
+      <c r="G75" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="3" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="C76" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>58</v>
@@ -7185,7 +7378,7 @@
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>36</v>
@@ -7207,19 +7400,19 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="C77" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>58</v>
@@ -7250,10 +7443,10 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="3" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C78" s="6" t="b">
         <v>1</v>
@@ -7262,20 +7455,20 @@
         <v>21</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>36</v>
@@ -7293,10 +7486,10 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="3" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C79" s="6" t="b">
         <v>1</v>
@@ -7305,20 +7498,20 @@
         <v>21</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>36</v>
@@ -7336,10 +7529,10 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="3" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C80" s="6" t="b">
         <v>1</v>
@@ -7348,20 +7541,20 @@
         <v>21</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>36</v>
@@ -7379,10 +7572,10 @@
     </row>
     <row r="81" spans="1:21" s="4" customFormat="1">
       <c r="A81" s="4" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" s="5" t="b">
         <v>1</v>
@@ -7391,7 +7584,7 @@
         <v>21</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>944</v>
+        <v>919</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>58</v>
@@ -7403,7 +7596,7 @@
         <v>36</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>924</v>
+        <v>899</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>127</v>
@@ -7412,7 +7605,7 @@
         <v>34</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -7426,19 +7619,19 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="3" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="C82" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>58</v>
@@ -7459,51 +7652,53 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
     </row>
-    <row r="83" spans="1:21">
-      <c r="A83" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C83" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="F83" s="6" t="s">
+    <row r="83" spans="1:21" s="4" customFormat="1" ht="84">
+      <c r="A83" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
+      <c r="H83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="3" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C84" s="6" t="b">
         <v>1</v>
@@ -7512,13 +7707,13 @@
         <v>21</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>36</v>
@@ -7539,19 +7734,19 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="3" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="C85" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>30</v>
@@ -7578,10 +7773,10 @@
     </row>
     <row r="86" spans="1:21" s="4" customFormat="1">
       <c r="A86" s="4" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C86" s="5" t="b">
         <v>1</v>
@@ -7590,7 +7785,7 @@
         <v>21</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>58</v>
@@ -7602,7 +7797,7 @@
         <v>36</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>924</v>
+        <v>899</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>129</v>
@@ -7611,7 +7806,7 @@
         <v>36</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>926</v>
+        <v>901</v>
       </c>
       <c r="M86" s="5" t="s">
         <v>130</v>
@@ -7620,7 +7815,7 @@
         <v>34</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>927</v>
+        <v>902</v>
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
@@ -7631,10 +7826,10 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="3" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C87" s="6" t="b">
         <v>1</v>
@@ -7643,7 +7838,7 @@
         <v>21</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>58</v>
@@ -7652,7 +7847,7 @@
         <v>31</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -7670,10 +7865,10 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="3" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C88" s="6" t="b">
         <v>1</v>
@@ -7682,7 +7877,7 @@
         <v>21</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>58</v>
@@ -7695,14 +7890,14 @@
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N88" s="6" t="s">
         <v>36</v>
@@ -7717,10 +7912,10 @@
     </row>
     <row r="89" spans="1:21" s="4" customFormat="1" ht="126">
       <c r="A89" s="4" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C89" s="5" t="b">
         <v>1</v>
@@ -7729,19 +7924,19 @@
         <v>21</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -7758,25 +7953,25 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="3" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C90" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>36</v>
@@ -7797,19 +7992,19 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="3" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="C91" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>58</v>
@@ -7840,19 +8035,19 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="3" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C92" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>58</v>
@@ -7877,51 +8072,51 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
     </row>
-    <row r="93" spans="1:21">
-      <c r="A93" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="F93" s="6" t="s">
+    <row r="93" spans="1:21" s="4" customFormat="1">
+      <c r="A93" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H93" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
+      <c r="H93" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="3" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C94" s="6" t="b">
         <v>1</v>
@@ -7930,7 +8125,7 @@
         <v>21</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>30</v>
@@ -7939,11 +8134,11 @@
         <v>31</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>36</v>
@@ -7961,10 +8156,10 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="3" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C95" s="6" t="b">
         <v>1</v>
@@ -7973,7 +8168,7 @@
         <v>21</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>30</v>
@@ -7996,10 +8191,10 @@
     </row>
     <row r="96" spans="1:21" s="4" customFormat="1">
       <c r="A96" s="4" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C96" s="5" t="b">
         <v>1</v>
@@ -8008,13 +8203,13 @@
         <v>21</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>996</v>
+        <v>971</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>36</v>
@@ -8035,19 +8230,19 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="3" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="C97" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>30</v>
@@ -8070,19 +8265,19 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="3" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C98" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>42</v>
@@ -8095,14 +8290,14 @@
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N98" s="6" t="s">
         <v>36</v>
@@ -8117,10 +8312,10 @@
     </row>
     <row r="99" spans="1:21" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C99" s="5" t="b">
         <v>1</v>
@@ -8129,7 +8324,7 @@
         <v>21</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>862</v>
+        <v>837</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>30</v>
@@ -8141,7 +8336,7 @@
         <v>36</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -8158,31 +8353,31 @@
     </row>
     <row r="100" spans="1:21" s="4" customFormat="1">
       <c r="A100" s="4" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="C100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -8199,10 +8394,10 @@
     </row>
     <row r="101" spans="1:21" s="4" customFormat="1">
       <c r="A101" s="4" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C101" s="5" t="b">
         <v>1</v>
@@ -8211,19 +8406,19 @@
         <v>21</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>863</v>
+        <v>838</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -8240,19 +8435,19 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="3" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C102" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>58</v>
@@ -8277,145 +8472,159 @@
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
     </row>
-    <row r="103" spans="1:21">
-      <c r="A103" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="B103" s="6" t="s">
+    <row r="103" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A103" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H103" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C103" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F103" s="6" t="s">
+      <c r="I103" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" s="4" customFormat="1" ht="63">
+      <c r="A104" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="G104" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H103" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
-      <c r="U103" s="6"/>
-    </row>
-    <row r="104" spans="1:21">
-      <c r="A104" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="H104" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J104" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C104" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="F104" s="6" t="s">
+      <c r="K104" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6" t="s">
+      <c r="L104" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A105" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K104" s="6" t="s">
+      <c r="C105" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="6"/>
-    </row>
-    <row r="105" spans="1:21">
-      <c r="A105" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H105" s="6" t="s">
+      <c r="G105" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H105" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6" t="s">
+      <c r="I105" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J105" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K105" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6" t="s">
+      <c r="K105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M105" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N105" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="6"/>
-      <c r="U105" s="6"/>
+      <c r="N105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="3" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C106" s="6" t="b">
         <v>1</v>
@@ -8433,7 +8642,7 @@
         <v>64</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -8451,10 +8660,10 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="3" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C107" s="6" t="b">
         <v>1</v>
@@ -8463,13 +8672,13 @@
         <v>21</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>34</v>
@@ -8490,10 +8699,10 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="3" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C108" s="6" t="b">
         <v>1</v>
@@ -8533,10 +8742,10 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="3" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C109" s="6" t="b">
         <v>1</v>
@@ -8545,13 +8754,13 @@
         <v>21</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>34</v>
@@ -8572,10 +8781,10 @@
     </row>
     <row r="110" spans="1:21" s="4" customFormat="1">
       <c r="A110" s="4" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C110" s="5" t="b">
         <v>1</v>
@@ -8584,7 +8793,7 @@
         <v>21</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>864</v>
+        <v>839</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>27</v>
@@ -8596,7 +8805,7 @@
         <v>28</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -8613,10 +8822,10 @@
     </row>
     <row r="111" spans="1:21" s="4" customFormat="1">
       <c r="A111" s="4" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="C111" s="5" t="b">
         <v>1</v>
@@ -8625,7 +8834,7 @@
         <v>21</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>865</v>
+        <v>840</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>27</v>
@@ -8637,7 +8846,7 @@
         <v>28</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -8654,10 +8863,10 @@
     </row>
     <row r="112" spans="1:21" s="4" customFormat="1">
       <c r="A112" s="4" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="C112" s="5" t="b">
         <v>1</v>
@@ -8666,7 +8875,7 @@
         <v>21</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>866</v>
+        <v>841</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>27</v>
@@ -8678,7 +8887,7 @@
         <v>28</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -8695,10 +8904,10 @@
     </row>
     <row r="113" spans="1:21" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C113" s="5" t="b">
         <v>1</v>
@@ -8707,7 +8916,7 @@
         <v>21</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>867</v>
+        <v>842</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>58</v>
@@ -8719,7 +8928,7 @@
         <v>36</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -8736,10 +8945,10 @@
     </row>
     <row r="114" spans="1:21" s="4" customFormat="1">
       <c r="A114" s="4" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C114" s="5" t="b">
         <v>1</v>
@@ -8748,7 +8957,7 @@
         <v>21</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>868</v>
+        <v>843</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>30</v>
@@ -8757,10 +8966,10 @@
         <v>31</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>896</v>
+        <v>871</v>
       </c>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -8777,10 +8986,10 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="3" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C115" s="6" t="b">
         <v>1</v>
@@ -8789,7 +8998,7 @@
         <v>21</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>30</v>
@@ -8812,10 +9021,10 @@
     </row>
     <row r="116" spans="1:21" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C116" s="5" t="b">
         <v>1</v>
@@ -8824,7 +9033,7 @@
         <v>21</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>869</v>
+        <v>844</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>30</v>
@@ -8833,10 +9042,10 @@
         <v>31</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>896</v>
+        <v>871</v>
       </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -8853,10 +9062,10 @@
     </row>
     <row r="117" spans="1:21" s="4" customFormat="1">
       <c r="A117" s="4" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C117" s="5" t="b">
         <v>1</v>
@@ -8865,19 +9074,19 @@
         <v>21</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>870</v>
+        <v>845</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -8894,10 +9103,10 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" s="3" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C118" s="6" t="b">
         <v>1</v>
@@ -8906,13 +9115,13 @@
         <v>21</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>36</v>
@@ -8933,10 +9142,10 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" s="3" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C119" s="6" t="b">
         <v>1</v>
@@ -8945,7 +9154,7 @@
         <v>21</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>58</v>
@@ -8968,10 +9177,10 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" s="3" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C120" s="6" t="b">
         <v>1</v>
@@ -9003,10 +9212,10 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" s="3" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C121" s="6" t="b">
         <v>1</v>
@@ -9038,10 +9247,10 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" s="3" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C122" s="6" t="b">
         <v>1</v>
@@ -9073,10 +9282,10 @@
     </row>
     <row r="123" spans="1:21">
       <c r="A123" s="3" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C123" s="6" t="b">
         <v>1</v>
@@ -9108,10 +9317,10 @@
     </row>
     <row r="124" spans="1:21">
       <c r="A124" s="3" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C124" s="6" t="b">
         <v>1</v>
@@ -9120,13 +9329,13 @@
         <v>21</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>36</v>
@@ -9151,10 +9360,10 @@
     </row>
     <row r="125" spans="1:21">
       <c r="A125" s="3" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C125" s="6" t="b">
         <v>1</v>
@@ -9163,13 +9372,13 @@
         <v>21</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>36</v>
@@ -9190,10 +9399,10 @@
     </row>
     <row r="126" spans="1:21">
       <c r="A126" s="3" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C126" s="6" t="b">
         <v>1</v>
@@ -9202,7 +9411,7 @@
         <v>21</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>58</v>
@@ -9225,10 +9434,10 @@
     </row>
     <row r="127" spans="1:21">
       <c r="A127" s="3" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C127" s="6" t="b">
         <v>1</v>
@@ -9237,13 +9446,13 @@
         <v>21</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>36</v>
@@ -9264,10 +9473,10 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="3" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C128" s="6" t="b">
         <v>1</v>
@@ -9276,7 +9485,7 @@
         <v>21</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>34</v>
@@ -9299,10 +9508,10 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" s="3" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C129" s="6" t="b">
         <v>1</v>
@@ -9311,20 +9520,20 @@
         <v>21</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>36</v>
@@ -9342,10 +9551,10 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="3" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C130" s="6" t="b">
         <v>1</v>
@@ -9354,13 +9563,13 @@
         <v>21</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>36</v>
@@ -9381,10 +9590,10 @@
     </row>
     <row r="131" spans="1:21">
       <c r="A131" s="3" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C131" s="6" t="b">
         <v>1</v>
@@ -9393,20 +9602,20 @@
         <v>21</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K131" s="6" t="s">
         <v>36</v>
@@ -9424,10 +9633,10 @@
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="3" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C132" s="6" t="b">
         <v>1</v>
@@ -9459,10 +9668,10 @@
     </row>
     <row r="133" spans="1:21">
       <c r="A133" s="3" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C133" s="6" t="b">
         <v>1</v>
@@ -9471,7 +9680,7 @@
         <v>21</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>58</v>
@@ -9494,10 +9703,10 @@
     </row>
     <row r="134" spans="1:21">
       <c r="A134" s="3" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C134" s="6" t="b">
         <v>1</v>
@@ -9529,10 +9738,10 @@
     </row>
     <row r="135" spans="1:21">
       <c r="A135" s="3" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C135" s="6" t="b">
         <v>1</v>
@@ -9541,13 +9750,13 @@
         <v>21</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>36</v>
@@ -9568,10 +9777,10 @@
     </row>
     <row r="136" spans="1:21">
       <c r="A136" s="3" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C136" s="6" t="b">
         <v>1</v>
@@ -9580,20 +9789,20 @@
         <v>21</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K136" s="6" t="s">
         <v>36</v>
@@ -9611,10 +9820,10 @@
     </row>
     <row r="137" spans="1:21">
       <c r="A137" s="3" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C137" s="6" t="b">
         <v>1</v>
@@ -9646,10 +9855,10 @@
     </row>
     <row r="138" spans="1:21">
       <c r="A138" s="3" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C138" s="6" t="b">
         <v>1</v>
@@ -9658,7 +9867,7 @@
         <v>21</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>58</v>
@@ -9671,28 +9880,28 @@
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K138" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L138" s="6"/>
       <c r="M138" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N138" s="6" t="s">
         <v>36</v>
       </c>
       <c r="O138" s="6"/>
       <c r="P138" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q138" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R138" s="6"/>
       <c r="S138" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="T138" s="6" t="s">
         <v>36</v>
@@ -9701,10 +9910,10 @@
     </row>
     <row r="139" spans="1:21">
       <c r="A139" s="3" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C139" s="6" t="b">
         <v>1</v>
@@ -9713,34 +9922,34 @@
         <v>21</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K139" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L139" s="6"/>
       <c r="M139" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N139" s="6" t="s">
         <v>36</v>
       </c>
       <c r="O139" s="6"/>
       <c r="P139" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q139" s="6" t="s">
         <v>36</v>
@@ -9752,10 +9961,10 @@
     </row>
     <row r="140" spans="1:21">
       <c r="A140" s="3" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C140" s="6" t="b">
         <v>1</v>
@@ -9764,13 +9973,13 @@
         <v>21</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>36</v>
@@ -9791,10 +10000,10 @@
     </row>
     <row r="141" spans="1:21">
       <c r="A141" s="3" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C141" s="6" t="b">
         <v>1</v>
@@ -9803,7 +10012,7 @@
         <v>21</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>30</v>
@@ -9826,10 +10035,10 @@
     </row>
     <row r="142" spans="1:21">
       <c r="A142" s="3" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C142" s="6" t="b">
         <v>1</v>
@@ -9838,13 +10047,13 @@
         <v>21</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>36</v>
@@ -9865,10 +10074,10 @@
     </row>
     <row r="143" spans="1:21">
       <c r="A143" s="3" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C143" s="6" t="b">
         <v>1</v>
@@ -9877,7 +10086,7 @@
         <v>21</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>30</v>
@@ -9904,10 +10113,10 @@
     </row>
     <row r="144" spans="1:21">
       <c r="A144" s="3" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C144" s="6" t="b">
         <v>1</v>
@@ -9916,7 +10125,7 @@
         <v>21</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>30</v>
@@ -9943,10 +10152,10 @@
     </row>
     <row r="145" spans="1:21">
       <c r="A145" s="3" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C145" s="6" t="b">
         <v>1</v>
@@ -9982,10 +10191,10 @@
     </row>
     <row r="146" spans="1:21">
       <c r="A146" s="3" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C146" s="6" t="b">
         <v>1</v>
@@ -9994,7 +10203,7 @@
         <v>21</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>30</v>
@@ -10021,10 +10230,10 @@
     </row>
     <row r="147" spans="1:21">
       <c r="A147" s="3" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C147" s="6" t="b">
         <v>1</v>
@@ -10033,13 +10242,13 @@
         <v>21</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>36</v>
@@ -10068,10 +10277,10 @@
     </row>
     <row r="148" spans="1:21">
       <c r="A148" s="3" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C148" s="6" t="b">
         <v>1</v>
@@ -10080,41 +10289,41 @@
         <v>21</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K148" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L148" s="6"/>
       <c r="M148" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N148" s="6" t="s">
         <v>36</v>
       </c>
       <c r="O148" s="6"/>
       <c r="P148" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q148" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R148" s="6"/>
       <c r="S148" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T148" s="6" t="s">
         <v>36</v>
@@ -10123,10 +10332,10 @@
     </row>
     <row r="149" spans="1:21">
       <c r="A149" s="3" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C149" s="6" t="b">
         <v>1</v>
@@ -10135,27 +10344,27 @@
         <v>21</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K149" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L149" s="6"/>
       <c r="M149" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N149" s="6" t="s">
         <v>36</v>
@@ -10170,10 +10379,10 @@
     </row>
     <row r="150" spans="1:21">
       <c r="A150" s="3" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C150" s="6" t="b">
         <v>1</v>
@@ -10182,13 +10391,13 @@
         <v>21</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>36</v>
@@ -10209,10 +10418,10 @@
     </row>
     <row r="151" spans="1:21">
       <c r="A151" s="3" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C151" s="6" t="b">
         <v>1</v>
@@ -10221,7 +10430,7 @@
         <v>21</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>30</v>
@@ -10248,10 +10457,10 @@
     </row>
     <row r="152" spans="1:21">
       <c r="A152" s="3" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C152" s="6" t="b">
         <v>1</v>
@@ -10260,7 +10469,7 @@
         <v>21</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>30</v>
@@ -10269,18 +10478,18 @@
         <v>31</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L152" s="6"/>
       <c r="M152" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N152" s="6" t="s">
         <v>36</v>
@@ -10295,10 +10504,10 @@
     </row>
     <row r="153" spans="1:21">
       <c r="A153" s="3" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C153" s="6" t="b">
         <v>1</v>
@@ -10307,7 +10516,7 @@
         <v>21</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>30</v>
@@ -10316,18 +10525,18 @@
         <v>31</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K153" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L153" s="6"/>
       <c r="M153" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N153" s="6" t="s">
         <v>36</v>
@@ -10342,10 +10551,10 @@
     </row>
     <row r="154" spans="1:21">
       <c r="A154" s="3" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C154" s="6" t="b">
         <v>1</v>
@@ -10354,13 +10563,13 @@
         <v>21</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>36</v>
@@ -10381,10 +10590,10 @@
     </row>
     <row r="155" spans="1:21" s="4" customFormat="1">
       <c r="A155" s="4" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C155" s="5" t="b">
         <v>1</v>
@@ -10393,7 +10602,7 @@
         <v>21</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>871</v>
+        <v>846</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>58</v>
@@ -10405,7 +10614,7 @@
         <v>36</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -10422,10 +10631,10 @@
     </row>
     <row r="156" spans="1:21" s="4" customFormat="1">
       <c r="A156" s="4" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C156" s="5" t="b">
         <v>1</v>
@@ -10434,19 +10643,19 @@
         <v>21</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -10463,10 +10672,10 @@
     </row>
     <row r="157" spans="1:21" s="4" customFormat="1">
       <c r="A157" s="4" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C157" s="5" t="b">
         <v>1</v>
@@ -10475,28 +10684,28 @@
         <v>21</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>905</v>
+        <v>880</v>
       </c>
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
@@ -10510,10 +10719,10 @@
     </row>
     <row r="158" spans="1:21" s="4" customFormat="1">
       <c r="A158" s="4" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C158" s="5" t="b">
         <v>1</v>
@@ -10522,7 +10731,7 @@
         <v>21</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>873</v>
+        <v>848</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>58</v>
@@ -10531,7 +10740,7 @@
         <v>43</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
@@ -10549,10 +10758,10 @@
     </row>
     <row r="159" spans="1:21">
       <c r="A159" s="3" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C159" s="6" t="b">
         <v>1</v>
@@ -10588,10 +10797,10 @@
     </row>
     <row r="160" spans="1:21">
       <c r="A160" s="3" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C160" s="6" t="b">
         <v>1</v>
@@ -10600,13 +10809,13 @@
         <v>21</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>36</v>
@@ -10627,10 +10836,10 @@
     </row>
     <row r="161" spans="1:21" s="4" customFormat="1">
       <c r="A161" s="4" t="s">
-        <v>951</v>
+        <v>926</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C161" s="5" t="b">
         <v>1</v>
@@ -10639,19 +10848,19 @@
         <v>21</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>949</v>
+        <v>924</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -10668,10 +10877,10 @@
     </row>
     <row r="162" spans="1:21">
       <c r="A162" s="3" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C162" s="6" t="b">
         <v>1</v>
@@ -10680,20 +10889,20 @@
         <v>21</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K162" s="6" t="s">
         <v>36</v>
@@ -10711,10 +10920,10 @@
     </row>
     <row r="163" spans="1:21">
       <c r="A163" s="3" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C163" s="6" t="b">
         <v>1</v>
@@ -10723,16 +10932,16 @@
         <v>21</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
@@ -10750,10 +10959,10 @@
     </row>
     <row r="164" spans="1:21">
       <c r="A164" s="3" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C164" s="6" t="b">
         <v>1</v>
@@ -10762,20 +10971,20 @@
         <v>21</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K164" s="6" t="s">
         <v>36</v>
@@ -10793,10 +11002,10 @@
     </row>
     <row r="165" spans="1:21">
       <c r="A165" s="3" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C165" s="6" t="b">
         <v>1</v>
@@ -10805,16 +11014,16 @@
         <v>21</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
@@ -10832,10 +11041,10 @@
     </row>
     <row r="166" spans="1:21">
       <c r="A166" s="3" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C166" s="6" t="b">
         <v>1</v>
@@ -10844,16 +11053,16 @@
         <v>21</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
@@ -10871,10 +11080,10 @@
     </row>
     <row r="167" spans="1:21">
       <c r="A167" s="3" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C167" s="6" t="b">
         <v>1</v>
@@ -10883,20 +11092,20 @@
         <v>21</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I167" s="6"/>
       <c r="J167" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K167" s="6" t="s">
         <v>36</v>
@@ -10918,10 +11127,10 @@
     </row>
     <row r="168" spans="1:21">
       <c r="A168" s="3" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C168" s="6" t="b">
         <v>1</v>
@@ -10930,20 +11139,20 @@
         <v>21</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K168" s="6" t="s">
         <v>23</v>
@@ -10961,10 +11170,10 @@
     </row>
     <row r="169" spans="1:21">
       <c r="A169" s="3" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C169" s="6" t="b">
         <v>1</v>
@@ -10973,16 +11182,16 @@
         <v>21</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
@@ -11000,10 +11209,10 @@
     </row>
     <row r="170" spans="1:21" s="4" customFormat="1" ht="378">
       <c r="A170" s="4" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C170" s="5" t="b">
         <v>1</v>
@@ -11012,7 +11221,7 @@
         <v>21</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>874</v>
+        <v>849</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>58</v>
@@ -11024,7 +11233,7 @@
         <v>36</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="J170" s="5" t="s">
         <v>79</v>
@@ -11033,25 +11242,25 @@
         <v>36</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
       <c r="M170" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O170" s="5" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="P170" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q170" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R170" s="8" t="s">
-        <v>920</v>
+        <v>895</v>
       </c>
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
@@ -11059,10 +11268,10 @@
     </row>
     <row r="171" spans="1:21" s="4" customFormat="1">
       <c r="A171" s="4" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C171" s="5" t="b">
         <v>1</v>
@@ -11071,10 +11280,10 @@
         <v>21</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>24</v>
@@ -11083,16 +11292,16 @@
         <v>28</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K171" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
@@ -11104,55 +11313,59 @@
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
     </row>
-    <row r="172" spans="1:21">
-      <c r="A172" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C172" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="F172" s="6" t="s">
+    <row r="172" spans="1:21" s="4" customFormat="1" ht="147">
+      <c r="A172" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C172" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G172" s="6" t="s">
+      <c r="G172" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H172" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K172" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L172" s="6"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="6"/>
-      <c r="O172" s="6"/>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
-      <c r="R172" s="6"/>
-      <c r="S172" s="6"/>
-      <c r="T172" s="6"/>
-      <c r="U172" s="6"/>
+      <c r="H172" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L172" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="5"/>
+      <c r="S172" s="5"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="5"/>
     </row>
     <row r="173" spans="1:21" s="4" customFormat="1">
       <c r="A173" s="4" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C173" s="5" t="b">
         <v>1</v>
@@ -11161,28 +11374,28 @@
         <v>21</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>877</v>
+        <v>852</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K173" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
@@ -11196,10 +11409,10 @@
     </row>
     <row r="174" spans="1:21" s="4" customFormat="1">
       <c r="A174" s="4" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C174" s="5" t="b">
         <v>1</v>
@@ -11208,7 +11421,7 @@
         <v>21</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>878</v>
+        <v>853</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>30</v>
@@ -11217,10 +11430,10 @@
         <v>31</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
@@ -11237,10 +11450,10 @@
     </row>
     <row r="175" spans="1:21" s="4" customFormat="1">
       <c r="A175" s="4" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C175" s="5" t="b">
         <v>1</v>
@@ -11249,19 +11462,19 @@
         <v>21</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -11278,10 +11491,10 @@
     </row>
     <row r="176" spans="1:21" s="4" customFormat="1">
       <c r="A176" s="4" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C176" s="5" t="b">
         <v>1</v>
@@ -11290,19 +11503,19 @@
         <v>21</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11319,10 +11532,10 @@
     </row>
     <row r="177" spans="1:21">
       <c r="A177" s="3" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C177" s="6" t="b">
         <v>1</v>
@@ -11340,7 +11553,7 @@
         <v>64</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
@@ -11358,10 +11571,10 @@
     </row>
     <row r="178" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A178" s="4" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C178" s="5" t="b">
         <v>1</v>
@@ -11370,37 +11583,37 @@
         <v>21</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K178" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N178" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
@@ -11409,51 +11622,51 @@
       <c r="T178" s="5"/>
       <c r="U178" s="5"/>
     </row>
-    <row r="179" spans="1:21">
-      <c r="A179" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C179" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="F179" s="6" t="s">
+    <row r="179" spans="1:21" s="4" customFormat="1">
+      <c r="A179" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C179" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F179" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G179" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
-      <c r="L179" s="6"/>
-      <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
-      <c r="O179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="6"/>
-      <c r="S179" s="6"/>
-      <c r="T179" s="6"/>
-      <c r="U179" s="6"/>
+      <c r="G179" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5"/>
     </row>
     <row r="180" spans="1:21">
       <c r="A180" s="3" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C180" s="6" t="b">
         <v>1</v>
@@ -11485,10 +11698,10 @@
     </row>
     <row r="181" spans="1:21">
       <c r="A181" s="3" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C181" s="6" t="b">
         <v>1</v>
@@ -11497,7 +11710,7 @@
         <v>21</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>30</v>
@@ -11520,10 +11733,10 @@
     </row>
     <row r="182" spans="1:21">
       <c r="A182" s="3" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C182" s="6" t="b">
         <v>1</v>
@@ -11532,13 +11745,13 @@
         <v>21</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>36</v>
@@ -11559,10 +11772,10 @@
     </row>
     <row r="183" spans="1:21">
       <c r="A183" s="3" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C183" s="6" t="b">
         <v>1</v>
@@ -11571,7 +11784,7 @@
         <v>21</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>27</v>
@@ -11596,137 +11809,147 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
     </row>
-    <row r="184" spans="1:21">
-      <c r="A184" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B184" s="6" t="s">
+    <row r="184" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A184" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C184" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L184" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="5"/>
+      <c r="S184" s="5"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="5"/>
+    </row>
+    <row r="185" spans="1:21" s="4" customFormat="1">
+      <c r="A185" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C185" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J185" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L185" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5"/>
+      <c r="S185" s="5"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="5"/>
+    </row>
+    <row r="186" spans="1:21" s="4" customFormat="1">
+      <c r="A186" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C184" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="F184" s="6" t="s">
+      <c r="C186" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F186" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G184" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H184" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K184" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L184" s="6"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="6"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="6"/>
-      <c r="S184" s="6"/>
-      <c r="T184" s="6"/>
-      <c r="U184" s="6"/>
-    </row>
-    <row r="185" spans="1:21">
-      <c r="A185" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C185" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H185" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="K185" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L185" s="6"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
-      <c r="O185" s="6"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="6"/>
-      <c r="R185" s="6"/>
-      <c r="S185" s="6"/>
-      <c r="T185" s="6"/>
-      <c r="U185" s="6"/>
-    </row>
-    <row r="186" spans="1:21">
-      <c r="A186" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C186" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H186" s="6" t="s">
+      <c r="G186" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H186" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="6"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="6"/>
-      <c r="R186" s="6"/>
-      <c r="S186" s="6"/>
-      <c r="T186" s="6"/>
-      <c r="U186" s="6"/>
+      <c r="I186" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+      <c r="O186" s="5"/>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
+      <c r="R186" s="5"/>
+      <c r="S186" s="5"/>
+      <c r="T186" s="5"/>
+      <c r="U186" s="5"/>
     </row>
     <row r="187" spans="1:21" s="4" customFormat="1">
       <c r="A187" s="4" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C187" s="5" t="b">
         <v>1</v>
@@ -11735,7 +11958,7 @@
         <v>21</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>58</v>
@@ -11747,7 +11970,7 @@
         <v>44</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="J187" s="5" t="s">
         <v>35</v>
@@ -11756,7 +11979,7 @@
         <v>36</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
@@ -11770,10 +11993,10 @@
     </row>
     <row r="188" spans="1:21" s="4" customFormat="1">
       <c r="A188" s="4" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C188" s="5" t="b">
         <v>1</v>
@@ -11782,7 +12005,7 @@
         <v>21</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>58</v>
@@ -11794,7 +12017,7 @@
         <v>44</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="J188" s="5" t="s">
         <v>35</v>
@@ -11803,25 +12026,25 @@
         <v>36</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="N188" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="O188" s="5" t="s">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="P188" s="5" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="Q188" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="R188" s="5" t="s">
-        <v>909</v>
+        <v>884</v>
       </c>
       <c r="S188" s="5"/>
       <c r="T188" s="5"/>
@@ -11829,10 +12052,10 @@
     </row>
     <row r="189" spans="1:21">
       <c r="A189" s="3" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C189" s="6" t="b">
         <v>1</v>
@@ -11841,7 +12064,7 @@
         <v>21</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>30</v>
@@ -11850,7 +12073,7 @@
         <v>31</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I189" s="6"/>
       <c r="J189" s="6" t="s">
@@ -11872,10 +12095,10 @@
     </row>
     <row r="190" spans="1:21">
       <c r="A190" s="3" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C190" s="6" t="b">
         <v>1</v>
@@ -11884,7 +12107,7 @@
         <v>21</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>30</v>
@@ -11919,10 +12142,10 @@
     </row>
     <row r="191" spans="1:21">
       <c r="A191" s="3" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C191" s="6" t="b">
         <v>1</v>
@@ -11931,7 +12154,7 @@
         <v>21</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>30</v>
@@ -11958,7 +12181,7 @@
       </c>
       <c r="O191" s="6"/>
       <c r="P191" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q191" s="6" t="s">
         <v>36</v>
@@ -11970,10 +12193,10 @@
     </row>
     <row r="192" spans="1:21">
       <c r="A192" s="3" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C192" s="6" t="b">
         <v>1</v>
@@ -11982,7 +12205,7 @@
         <v>21</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>30</v>
@@ -12009,7 +12232,7 @@
       </c>
       <c r="O192" s="6"/>
       <c r="P192" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q192" s="6" t="s">
         <v>36</v>
@@ -12021,10 +12244,10 @@
     </row>
     <row r="193" spans="1:21">
       <c r="A193" s="3" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C193" s="6" t="b">
         <v>1</v>
@@ -12033,7 +12256,7 @@
         <v>21</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>30</v>
@@ -12046,7 +12269,7 @@
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K193" s="6" t="s">
         <v>36</v>
@@ -12068,10 +12291,10 @@
     </row>
     <row r="194" spans="1:21">
       <c r="A194" s="3" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C194" s="6" t="b">
         <v>1</v>
@@ -12080,7 +12303,7 @@
         <v>21</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>30</v>
@@ -12107,7 +12330,7 @@
       </c>
       <c r="O194" s="6"/>
       <c r="P194" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q194" s="6" t="s">
         <v>36</v>
@@ -12119,10 +12342,10 @@
     </row>
     <row r="195" spans="1:21" s="4" customFormat="1" ht="210">
       <c r="A195" s="4" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C195" s="5" t="b">
         <v>1</v>
@@ -12131,19 +12354,19 @@
         <v>21</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="J195" s="5" t="s">
         <v>35</v>
@@ -12152,7 +12375,7 @@
         <v>36</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="M195" s="5"/>
       <c r="N195" s="5"/>
@@ -12166,10 +12389,10 @@
     </row>
     <row r="196" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A196" s="4" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C196" s="5" t="b">
         <v>1</v>
@@ -12178,7 +12401,7 @@
         <v>21</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>952</v>
+        <v>927</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>58</v>
@@ -12190,7 +12413,7 @@
         <v>36</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>928</v>
+        <v>903</v>
       </c>
       <c r="J196" s="5" t="s">
         <v>35</v>
@@ -12199,7 +12422,7 @@
         <v>36</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>940</v>
+        <v>915</v>
       </c>
       <c r="M196" s="5" t="s">
         <v>49</v>
@@ -12208,7 +12431,7 @@
         <v>36</v>
       </c>
       <c r="O196" s="8" t="s">
-        <v>941</v>
+        <v>916</v>
       </c>
       <c r="P196" s="5" t="s">
         <v>50</v>
@@ -12217,7 +12440,7 @@
         <v>36</v>
       </c>
       <c r="R196" s="8" t="s">
-        <v>929</v>
+        <v>904</v>
       </c>
       <c r="S196" s="5" t="s">
         <v>147</v>
@@ -12226,15 +12449,15 @@
         <v>36</v>
       </c>
       <c r="U196" s="8" t="s">
-        <v>953</v>
+        <v>928</v>
       </c>
     </row>
     <row r="197" spans="1:21">
       <c r="A197" s="3" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C197" s="6" t="b">
         <v>1</v>
@@ -12277,7 +12500,7 @@
       </c>
       <c r="R197" s="6"/>
       <c r="S197" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="T197" s="6" t="s">
         <v>36</v>
@@ -12286,10 +12509,10 @@
     </row>
     <row r="198" spans="1:21" s="4" customFormat="1" ht="357">
       <c r="A198" s="4" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C198" s="5" t="b">
         <v>1</v>
@@ -12298,28 +12521,28 @@
         <v>21</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>1001</v>
+        <v>976</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H198" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
       <c r="K198" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
@@ -12333,10 +12556,10 @@
     </row>
     <row r="199" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A199" s="4" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C199" s="5" t="b">
         <v>1</v>
@@ -12345,19 +12568,19 @@
         <v>21</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>1003</v>
+        <v>978</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H199" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="J199" s="5" t="s">
         <v>68</v>
@@ -12366,7 +12589,7 @@
         <v>36</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>1004</v>
+        <v>979</v>
       </c>
       <c r="M199" s="5" t="s">
         <v>35</v>
@@ -12375,7 +12598,7 @@
         <v>36</v>
       </c>
       <c r="O199" s="5" t="s">
-        <v>1005</v>
+        <v>980</v>
       </c>
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
@@ -12386,10 +12609,10 @@
     </row>
     <row r="200" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A200" s="4" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C200" s="5" t="b">
         <v>1</v>
@@ -12398,19 +12621,19 @@
         <v>21</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="H200" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="J200" s="5" t="s">
         <v>68</v>
@@ -12419,7 +12642,7 @@
         <v>36</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="M200" s="5" t="s">
         <v>35</v>
@@ -12428,285 +12651,309 @@
         <v>36</v>
       </c>
       <c r="O200" s="8" t="s">
-        <v>1007</v>
+        <v>982</v>
       </c>
       <c r="P200" s="5" t="s">
-        <v>1008</v>
+        <v>983</v>
       </c>
       <c r="Q200" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R200" s="8" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="S200" s="5"/>
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
     </row>
-    <row r="201" spans="1:21">
-      <c r="A201" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="B201" s="6" t="s">
+    <row r="201" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A201" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C201" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J201" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L201" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M201" s="5"/>
+      <c r="N201" s="5"/>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5"/>
+    </row>
+    <row r="202" spans="1:21" s="4" customFormat="1">
+      <c r="A202" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C201" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="F201" s="6" t="s">
+      <c r="C202" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F202" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G201" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H201" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I201" s="6"/>
-      <c r="J201" s="6" t="s">
+      <c r="G202" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M202" s="5"/>
+      <c r="N202" s="5"/>
+      <c r="O202" s="5"/>
+      <c r="P202" s="5"/>
+      <c r="Q202" s="5"/>
+      <c r="R202" s="5"/>
+      <c r="S202" s="5"/>
+      <c r="T202" s="5"/>
+      <c r="U202" s="5"/>
+    </row>
+    <row r="203" spans="1:21" s="4" customFormat="1" ht="63">
+      <c r="A203" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="K201" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L201" s="6"/>
-      <c r="M201" s="6"/>
-      <c r="N201" s="6"/>
-      <c r="O201" s="6"/>
-      <c r="P201" s="6"/>
-      <c r="Q201" s="6"/>
-      <c r="R201" s="6"/>
-      <c r="S201" s="6"/>
-      <c r="T201" s="6"/>
-      <c r="U201" s="6"/>
-    </row>
-    <row r="202" spans="1:21">
-      <c r="A202" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="B202" s="6" t="s">
+      <c r="C203" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J203" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K203" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M203" s="5"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="5"/>
+      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
+      <c r="R203" s="5"/>
+      <c r="S203" s="5"/>
+      <c r="T203" s="5"/>
+      <c r="U203" s="5"/>
+    </row>
+    <row r="204" spans="1:21" s="4" customFormat="1" ht="126">
+      <c r="A204" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C202" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="F202" s="6" t="s">
+      <c r="C204" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F204" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G202" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H202" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I202" s="6"/>
-      <c r="J202" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="K202" s="6" t="s">
+      <c r="G204" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I204" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+      <c r="M204" s="5"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="5"/>
+      <c r="S204" s="5"/>
+      <c r="T204" s="5"/>
+      <c r="U204" s="5"/>
+    </row>
+    <row r="205" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A205" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C205" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L205" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5"/>
+    </row>
+    <row r="206" spans="1:21" s="4" customFormat="1">
+      <c r="A206" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C206" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M206" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="N206" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L202" s="6"/>
-      <c r="M202" s="6"/>
-      <c r="N202" s="6"/>
-      <c r="O202" s="6"/>
-      <c r="P202" s="6"/>
-      <c r="Q202" s="6"/>
-      <c r="R202" s="6"/>
-      <c r="S202" s="6"/>
-      <c r="T202" s="6"/>
-      <c r="U202" s="6"/>
-    </row>
-    <row r="203" spans="1:21">
-      <c r="A203" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C203" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H203" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I203" s="6"/>
-      <c r="J203" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K203" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L203" s="6"/>
-      <c r="M203" s="6"/>
-      <c r="N203" s="6"/>
-      <c r="O203" s="6"/>
-      <c r="P203" s="6"/>
-      <c r="Q203" s="6"/>
-      <c r="R203" s="6"/>
-      <c r="S203" s="6"/>
-      <c r="T203" s="6"/>
-      <c r="U203" s="6"/>
-    </row>
-    <row r="204" spans="1:21">
-      <c r="A204" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C204" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H204" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I204" s="6"/>
-      <c r="J204" s="6"/>
-      <c r="K204" s="6"/>
-      <c r="L204" s="6"/>
-      <c r="M204" s="6"/>
-      <c r="N204" s="6"/>
-      <c r="O204" s="6"/>
-      <c r="P204" s="6"/>
-      <c r="Q204" s="6"/>
-      <c r="R204" s="6"/>
-      <c r="S204" s="6"/>
-      <c r="T204" s="6"/>
-      <c r="U204" s="6"/>
-    </row>
-    <row r="205" spans="1:21">
-      <c r="A205" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C205" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H205" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I205" s="6"/>
-      <c r="J205" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="K205" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L205" s="6"/>
-      <c r="M205" s="6"/>
-      <c r="N205" s="6"/>
-      <c r="O205" s="6"/>
-      <c r="P205" s="6"/>
-      <c r="Q205" s="6"/>
-      <c r="R205" s="6"/>
-      <c r="S205" s="6"/>
-      <c r="T205" s="6"/>
-      <c r="U205" s="6"/>
-    </row>
-    <row r="206" spans="1:21">
-      <c r="A206" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C206" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H206" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I206" s="6"/>
-      <c r="J206" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="K206" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L206" s="6"/>
-      <c r="M206" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="N206" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O206" s="6"/>
-      <c r="P206" s="6"/>
-      <c r="Q206" s="6"/>
-      <c r="R206" s="6"/>
-      <c r="S206" s="6"/>
-      <c r="T206" s="6"/>
-      <c r="U206" s="6"/>
+      <c r="O206" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="5"/>
+      <c r="S206" s="5"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="5"/>
     </row>
     <row r="207" spans="1:21">
       <c r="A207" s="3" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C207" s="6" t="b">
         <v>1</v>
@@ -12715,7 +12962,7 @@
         <v>21</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>30</v>
@@ -12724,7 +12971,7 @@
         <v>31</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6" t="s">
@@ -12746,10 +12993,10 @@
     </row>
     <row r="208" spans="1:21">
       <c r="A208" s="3" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C208" s="6" t="b">
         <v>1</v>
@@ -12758,7 +13005,7 @@
         <v>21</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>30</v>
@@ -12767,7 +13014,7 @@
         <v>31</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="6" t="s">
@@ -12789,10 +13036,10 @@
     </row>
     <row r="209" spans="1:21">
       <c r="A209" s="3" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C209" s="6" t="b">
         <v>1</v>
@@ -12801,7 +13048,7 @@
         <v>21</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>30</v>
@@ -12810,11 +13057,11 @@
         <v>31</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K209" s="6" t="s">
         <v>36</v>
@@ -12832,10 +13079,10 @@
     </row>
     <row r="210" spans="1:21">
       <c r="A210" s="3" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C210" s="6" t="b">
         <v>1</v>
@@ -12844,7 +13091,7 @@
         <v>21</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>30</v>
@@ -12875,10 +13122,10 @@
     </row>
     <row r="211" spans="1:21">
       <c r="A211" s="3" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C211" s="6" t="b">
         <v>1</v>
@@ -12887,7 +13134,7 @@
         <v>21</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>58</v>
@@ -12900,7 +13147,7 @@
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K211" s="6" t="s">
         <v>36</v>
@@ -12926,10 +13173,10 @@
     </row>
     <row r="212" spans="1:21" s="4" customFormat="1" ht="189">
       <c r="A212" s="4" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C212" s="5" t="b">
         <v>1</v>
@@ -12938,19 +13185,19 @@
         <v>21</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>1009</v>
+        <v>984</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I212" s="8" t="s">
-        <v>1010</v>
+        <v>985</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -12967,10 +13214,10 @@
     </row>
     <row r="213" spans="1:21">
       <c r="A213" s="3" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C213" s="6" t="b">
         <v>1</v>
@@ -12979,27 +13226,27 @@
         <v>21</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K213" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L213" s="6"/>
       <c r="M213" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N213" s="6" t="s">
         <v>58</v>
@@ -13014,10 +13261,10 @@
     </row>
     <row r="214" spans="1:21">
       <c r="A214" s="3" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C214" s="6" t="b">
         <v>1</v>
@@ -13026,20 +13273,20 @@
         <v>21</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K214" s="6" t="s">
         <v>36</v>
@@ -13061,10 +13308,10 @@
     </row>
     <row r="215" spans="1:21">
       <c r="A215" s="3" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C215" s="6" t="b">
         <v>1</v>
@@ -13073,27 +13320,27 @@
         <v>21</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K215" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L215" s="6"/>
       <c r="M215" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N215" s="6" t="s">
         <v>36</v>
@@ -13108,10 +13355,10 @@
     </row>
     <row r="216" spans="1:21">
       <c r="A216" s="3" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C216" s="6" t="b">
         <v>1</v>
@@ -13120,7 +13367,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>30</v>
@@ -13133,21 +13380,21 @@
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K216" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L216" s="6"/>
       <c r="M216" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N216" s="6" t="s">
         <v>36</v>
       </c>
       <c r="O216" s="6"/>
       <c r="P216" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q216" s="6" t="s">
         <v>36</v>
@@ -13159,10 +13406,10 @@
     </row>
     <row r="217" spans="1:21" s="4" customFormat="1" ht="231">
       <c r="A217" s="4" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C217" s="5" t="b">
         <v>1</v>
@@ -13171,19 +13418,19 @@
         <v>21</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>881</v>
+        <v>856</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I217" s="8" t="s">
-        <v>922</v>
+        <v>897</v>
       </c>
       <c r="J217" s="5" t="s">
         <v>71</v>
@@ -13192,7 +13439,7 @@
         <v>36</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>910</v>
+        <v>885</v>
       </c>
       <c r="M217" s="5" t="s">
         <v>35</v>
@@ -13201,7 +13448,7 @@
         <v>36</v>
       </c>
       <c r="O217" s="8" t="s">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="P217" s="5"/>
       <c r="Q217" s="5"/>
@@ -13212,10 +13459,10 @@
     </row>
     <row r="218" spans="1:21" s="4" customFormat="1">
       <c r="A218" s="4" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C218" s="5" t="b">
         <v>1</v>
@@ -13224,19 +13471,19 @@
         <v>21</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>882</v>
+        <v>857</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>911</v>
+        <v>886</v>
       </c>
       <c r="J218" s="5" t="s">
         <v>35</v>
@@ -13245,7 +13492,7 @@
         <v>36</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="M218" s="5"/>
       <c r="N218" s="5"/>
@@ -13259,10 +13506,10 @@
     </row>
     <row r="219" spans="1:21">
       <c r="A219" s="3" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C219" s="6" t="b">
         <v>1</v>
@@ -13271,13 +13518,13 @@
         <v>21</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>36</v>
@@ -13298,10 +13545,10 @@
     </row>
     <row r="220" spans="1:21" s="4" customFormat="1">
       <c r="A220" s="4" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C220" s="5" t="b">
         <v>1</v>
@@ -13310,7 +13557,7 @@
         <v>21</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>30</v>
@@ -13322,7 +13569,7 @@
         <v>36</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>915</v>
+        <v>890</v>
       </c>
       <c r="J220" s="5" t="s">
         <v>35</v>
@@ -13331,7 +13578,7 @@
         <v>36</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>916</v>
+        <v>891</v>
       </c>
       <c r="M220" s="5"/>
       <c r="N220" s="5"/>
@@ -13345,10 +13592,10 @@
     </row>
     <row r="221" spans="1:21" s="4" customFormat="1">
       <c r="A221" s="4" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C221" s="5" t="b">
         <v>1</v>
@@ -13357,19 +13604,19 @@
         <v>21</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>883</v>
+        <v>858</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>913</v>
+        <v>888</v>
       </c>
       <c r="J221" s="5" t="s">
         <v>35</v>
@@ -13378,7 +13625,7 @@
         <v>36</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>914</v>
+        <v>889</v>
       </c>
       <c r="M221" s="5"/>
       <c r="N221" s="5"/>
@@ -13392,10 +13639,10 @@
     </row>
     <row r="222" spans="1:21">
       <c r="A222" s="3" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C222" s="6" t="b">
         <v>1</v>
@@ -13404,7 +13651,7 @@
         <v>21</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>58</v>
@@ -13417,7 +13664,7 @@
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K222" s="6" t="s">
         <v>34</v>
@@ -13435,10 +13682,10 @@
     </row>
     <row r="223" spans="1:21">
       <c r="A223" s="3" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C223" s="6" t="b">
         <v>1</v>
@@ -13447,7 +13694,7 @@
         <v>21</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>30</v>
@@ -13474,10 +13721,10 @@
     </row>
     <row r="224" spans="1:21">
       <c r="A224" s="3" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C224" s="6" t="b">
         <v>1</v>
@@ -13486,13 +13733,13 @@
         <v>21</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>36</v>
@@ -13513,10 +13760,10 @@
     </row>
     <row r="225" spans="1:21" s="4" customFormat="1" ht="336">
       <c r="A225" s="4" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C225" s="5" t="b">
         <v>1</v>
@@ -13525,7 +13772,7 @@
         <v>21</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>884</v>
+        <v>859</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>30</v>
@@ -13537,7 +13784,7 @@
         <v>36</v>
       </c>
       <c r="I225" s="8" t="s">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
@@ -13554,10 +13801,10 @@
     </row>
     <row r="226" spans="1:21">
       <c r="A226" s="3" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C226" s="6" t="b">
         <v>1</v>
@@ -13566,7 +13813,7 @@
         <v>21</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>30</v>
@@ -13575,11 +13822,11 @@
         <v>31</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K226" s="6" t="s">
         <v>36</v>
@@ -13597,10 +13844,10 @@
     </row>
     <row r="227" spans="1:21">
       <c r="A227" s="3" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C227" s="6" t="b">
         <v>1</v>
@@ -13609,7 +13856,7 @@
         <v>21</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>30</v>
@@ -13618,7 +13865,7 @@
         <v>31</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6" t="s">
@@ -13640,10 +13887,10 @@
     </row>
     <row r="228" spans="1:21">
       <c r="A228" s="3" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C228" s="6" t="b">
         <v>1</v>
@@ -13652,13 +13899,13 @@
         <v>21</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>36</v>
@@ -13683,10 +13930,10 @@
     </row>
     <row r="229" spans="1:21">
       <c r="A229" s="3" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C229" s="6" t="b">
         <v>1</v>
@@ -13695,13 +13942,13 @@
         <v>21</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>36</v>
@@ -13722,10 +13969,10 @@
     </row>
     <row r="230" spans="1:21">
       <c r="A230" s="3" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C230" s="6" t="b">
         <v>1</v>
@@ -13734,13 +13981,13 @@
         <v>21</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>36</v>
@@ -13761,10 +14008,10 @@
     </row>
     <row r="231" spans="1:21">
       <c r="A231" s="3" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C231" s="6" t="b">
         <v>1</v>
@@ -13773,7 +14020,7 @@
         <v>21</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>30</v>
@@ -13786,14 +14033,14 @@
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K231" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N231" s="6" t="s">
         <v>36</v>
@@ -13812,10 +14059,10 @@
     </row>
     <row r="232" spans="1:21">
       <c r="A232" s="3" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C232" s="6" t="b">
         <v>1</v>
@@ -13824,13 +14071,13 @@
         <v>21</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H232" s="6" t="s">
         <v>36</v>
@@ -13851,10 +14098,10 @@
     </row>
     <row r="233" spans="1:21" s="4" customFormat="1" ht="126">
       <c r="A233" s="4" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C233" s="5" t="b">
         <v>1</v>
@@ -13863,19 +14110,19 @@
         <v>21</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>954</v>
+        <v>929</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I233" s="8" t="s">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="J233" s="5" t="s">
         <v>35</v>
@@ -13884,7 +14131,7 @@
         <v>36</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>955</v>
+        <v>930</v>
       </c>
       <c r="M233" s="5"/>
       <c r="N233" s="5"/>
@@ -13898,10 +14145,10 @@
     </row>
     <row r="234" spans="1:21">
       <c r="A234" s="3" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C234" s="6" t="b">
         <v>1</v>
@@ -13910,7 +14157,7 @@
         <v>21</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>58</v>
@@ -13945,10 +14192,10 @@
     </row>
     <row r="235" spans="1:21" s="4" customFormat="1">
       <c r="A235" s="4" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C235" s="5" t="b">
         <v>1</v>
@@ -13957,7 +14204,7 @@
         <v>21</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>58</v>
@@ -13966,10 +14213,10 @@
         <v>24</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
@@ -13986,10 +14233,10 @@
     </row>
     <row r="236" spans="1:21" s="4" customFormat="1">
       <c r="A236" s="4" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C236" s="5" t="b">
         <v>1</v>
@@ -13998,28 +14245,28 @@
         <v>21</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H236" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K236" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="M236" s="5"/>
       <c r="N236" s="5"/>
@@ -14033,10 +14280,10 @@
     </row>
     <row r="237" spans="1:21" s="4" customFormat="1">
       <c r="A237" s="4" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C237" s="5" t="b">
         <v>1</v>
@@ -14045,28 +14292,28 @@
         <v>21</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K237" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="M237" s="5"/>
       <c r="N237" s="5"/>
@@ -14080,10 +14327,10 @@
     </row>
     <row r="238" spans="1:21">
       <c r="A238" s="3" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C238" s="6" t="b">
         <v>1</v>
@@ -14115,10 +14362,10 @@
     </row>
     <row r="239" spans="1:21" s="4" customFormat="1">
       <c r="A239" s="4" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C239" s="5" t="b">
         <v>1</v>
@@ -14127,7 +14374,7 @@
         <v>21</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>888</v>
+        <v>863</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>58</v>
@@ -14139,7 +14386,7 @@
         <v>36</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
@@ -14156,10 +14403,10 @@
     </row>
     <row r="240" spans="1:21" s="4" customFormat="1">
       <c r="A240" s="4" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C240" s="5" t="b">
         <v>1</v>
@@ -14168,7 +14415,7 @@
         <v>21</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>27</v>
@@ -14180,7 +14427,7 @@
         <v>28</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
@@ -14197,10 +14444,10 @@
     </row>
     <row r="241" spans="1:21">
       <c r="A241" s="3" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C241" s="6" t="b">
         <v>1</v>
@@ -14240,10 +14487,10 @@
     </row>
     <row r="242" spans="1:21">
       <c r="A242" s="3" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C242" s="6" t="b">
         <v>1</v>
@@ -14283,10 +14530,10 @@
     </row>
     <row r="243" spans="1:21">
       <c r="A243" s="3" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C243" s="6" t="b">
         <v>1</v>
@@ -14326,10 +14573,10 @@
     </row>
     <row r="244" spans="1:21">
       <c r="A244" s="3" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C244" s="6" t="b">
         <v>1</v>
@@ -14369,10 +14616,10 @@
     </row>
     <row r="245" spans="1:21">
       <c r="A245" s="3" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C245" s="6" t="b">
         <v>1</v>
@@ -14412,10 +14659,10 @@
     </row>
     <row r="246" spans="1:21" s="4" customFormat="1" ht="168">
       <c r="A246" s="4" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C246" s="5" t="b">
         <v>1</v>
@@ -14424,7 +14671,7 @@
         <v>21</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>30</v>
@@ -14433,10 +14680,10 @@
         <v>43</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="J246" s="5" t="s">
         <v>137</v>
@@ -14445,7 +14692,7 @@
         <v>36</v>
       </c>
       <c r="L246" s="8" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="M246" s="5"/>
       <c r="N246" s="5"/>
@@ -14459,10 +14706,10 @@
     </row>
     <row r="247" spans="1:21" s="4" customFormat="1" ht="168">
       <c r="A247" s="4" t="s">
-        <v>930</v>
+        <v>905</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>1</v>
@@ -14471,7 +14718,7 @@
         <v>21</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>30</v>
@@ -14480,10 +14727,10 @@
         <v>43</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="J247" s="5" t="s">
         <v>137</v>
@@ -14492,25 +14739,25 @@
         <v>36</v>
       </c>
       <c r="L247" s="8" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="O247" s="5" t="s">
-        <v>851</v>
+        <v>826</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="Q247" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="R247" s="5" t="s">
-        <v>852</v>
+        <v>827</v>
       </c>
       <c r="S247" s="5"/>
       <c r="T247" s="5"/>
@@ -14518,10 +14765,10 @@
     </row>
     <row r="248" spans="1:21" s="4" customFormat="1">
       <c r="A248" s="4" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>1</v>
@@ -14530,7 +14777,7 @@
         <v>21</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>27</v>
@@ -14542,7 +14789,7 @@
         <v>28</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
@@ -14559,10 +14806,10 @@
     </row>
     <row r="249" spans="1:21">
       <c r="A249" s="3" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C249" s="6" t="b">
         <v>1</v>
@@ -14571,13 +14818,13 @@
         <v>21</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="F249" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H249" s="6" t="s">
         <v>36</v>
@@ -14602,10 +14849,10 @@
     </row>
     <row r="250" spans="1:21" s="4" customFormat="1">
       <c r="A250" s="4" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>1</v>
@@ -14614,7 +14861,7 @@
         <v>21</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>27</v>
@@ -14626,7 +14873,7 @@
         <v>28</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="J250" s="5"/>
       <c r="K250" s="5"/>
@@ -14643,10 +14890,10 @@
     </row>
     <row r="251" spans="1:21">
       <c r="A251" s="3" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C251" s="6" t="b">
         <v>1</v>
@@ -14655,13 +14902,13 @@
         <v>21</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H251" s="6" t="s">
         <v>36</v>
@@ -14682,10 +14929,10 @@
     </row>
     <row r="252" spans="1:21">
       <c r="A252" s="3" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C252" s="6" t="b">
         <v>1</v>
@@ -14721,10 +14968,10 @@
     </row>
     <row r="253" spans="1:21">
       <c r="A253" s="3" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C253" s="6" t="b">
         <v>1</v>
@@ -14733,13 +14980,13 @@
         <v>21</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H253" s="6" t="s">
         <v>36</v>
@@ -14760,10 +15007,10 @@
     </row>
     <row r="254" spans="1:21">
       <c r="A254" s="3" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C254" s="6" t="b">
         <v>1</v>
@@ -14772,13 +15019,13 @@
         <v>21</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H254" s="6" t="s">
         <v>36</v>
@@ -14799,10 +15046,10 @@
     </row>
     <row r="255" spans="1:21">
       <c r="A255" s="3" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C255" s="6" t="b">
         <v>1</v>
@@ -14811,13 +15058,13 @@
         <v>21</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H255" s="6" t="s">
         <v>36</v>
@@ -14838,10 +15085,10 @@
     </row>
     <row r="256" spans="1:21" s="4" customFormat="1">
       <c r="A256" s="4" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>1</v>
@@ -14850,28 +15097,28 @@
         <v>21</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K256" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M256" s="5"/>
       <c r="N256" s="5"/>
@@ -14885,10 +15132,10 @@
     </row>
     <row r="257" spans="1:21" s="4" customFormat="1">
       <c r="A257" s="4" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>1</v>
@@ -14897,19 +15144,19 @@
         <v>21</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
@@ -14926,10 +15173,10 @@
     </row>
     <row r="258" spans="1:21">
       <c r="A258" s="3" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C258" s="6" t="b">
         <v>1</v>
@@ -14938,13 +15185,13 @@
         <v>21</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H258" s="6" t="s">
         <v>36</v>
@@ -14965,10 +15212,10 @@
     </row>
     <row r="259" spans="1:21">
       <c r="A259" s="3" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C259" s="6" t="b">
         <v>1</v>
@@ -14977,20 +15224,20 @@
         <v>21</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="F259" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H259" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I259" s="6"/>
       <c r="J259" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K259" s="6" t="s">
         <v>36</v>
@@ -15008,10 +15255,10 @@
     </row>
     <row r="260" spans="1:21">
       <c r="A260" s="3" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C260" s="6" t="b">
         <v>1</v>
@@ -15020,20 +15267,20 @@
         <v>21</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="F260" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H260" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I260" s="6"/>
       <c r="J260" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K260" s="6" t="s">
         <v>36</v>
@@ -15051,10 +15298,10 @@
     </row>
     <row r="261" spans="1:21">
       <c r="A261" s="3" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C261" s="6" t="b">
         <v>1</v>
@@ -15063,20 +15310,20 @@
         <v>21</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="F261" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H261" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K261" s="6" t="s">
         <v>36</v>
@@ -15094,10 +15341,10 @@
     </row>
     <row r="262" spans="1:21">
       <c r="A262" s="3" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C262" s="6" t="b">
         <v>1</v>
@@ -15106,20 +15353,20 @@
         <v>21</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H262" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I262" s="6"/>
       <c r="J262" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K262" s="6" t="s">
         <v>36</v>
@@ -15137,10 +15384,10 @@
     </row>
     <row r="263" spans="1:21">
       <c r="A263" s="3" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C263" s="6" t="b">
         <v>1</v>
@@ -15149,20 +15396,20 @@
         <v>21</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H263" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K263" s="6" t="s">
         <v>36</v>

--- a/Data/Symbols/wip_command.xlsx
+++ b/Data/Symbols/wip_command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/Develop/OSS/KSPCompiler/Data/Symbols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A6C4A-D092-C647-ADE4-3EB7F2C2AB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC64DAE-0C47-2445-9842-7682306E3EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67200" yWindow="-25400" windowWidth="67200" windowHeight="37300" xr2:uid="{ECCE2DBE-05D5-9D4A-9DC9-05F8F762E943}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1070">
   <si>
     <t>Name</t>
   </si>
@@ -302,79 +302,52 @@
     <t>detect_drum_type</t>
   </si>
   <si>
-    <t>Assigns &lt;drum-type-result&gt; a $NI_DETECT_DRUM_TYPE tag describing&lt;br&gt;  the drum type of an audio sample.</t>
-  </si>
-  <si>
     <t>drum-type-result</t>
   </si>
   <si>
     <t>detect_instrument_type</t>
   </si>
   <si>
-    <t>Assigns &lt;drum-type-result&gt; a $NI_DETECT_INSTRUMENT_TYPE tag&lt;br&gt;  describing the in- strument type of an audio sample.</t>
-  </si>
-  <si>
     <t>instrument-type-result</t>
   </si>
   <si>
     <t>detect_key</t>
   </si>
   <si>
-    <t>Assigns &lt;key-result&gt; a $NI_DETECT_KEY tag describing the musical&lt;br&gt;  key of the audio sample. If detection fails, the function will return&lt;br&gt;  $NI_DETECT_KEY_INVALID.</t>
-  </si>
-  <si>
     <t>key-result</t>
   </si>
   <si>
     <t>detect_loudness</t>
   </si>
   <si>
-    <t>Returns a real value representing the loudness of an audio sample in dB.</t>
-  </si>
-  <si>
     <t>loudness-result</t>
   </si>
   <si>
     <t>detect_peak</t>
   </si>
   <si>
-    <t>Returns a real value representing peak level of an audio sample in dB.</t>
-  </si>
-  <si>
     <t>peak-result</t>
   </si>
   <si>
     <t>detect_pitch</t>
   </si>
   <si>
-    <t>Returns a real value representing the fundamental frequency of an audio&lt;br&gt;  sample, in semi- tones and cents</t>
-  </si>
-  <si>
     <t>pitch-result</t>
   </si>
   <si>
     <t>detect_rms</t>
   </si>
   <si>
-    <t>Returns a real value representing the RMS level of an audio sample in&lt;br&gt;  dB. </t>
-  </si>
-  <si>
     <t>rms-result</t>
   </si>
   <si>
     <t>detect_sample_type</t>
   </si>
   <si>
-    <t>Assigns &lt;sample-type-result&gt; a $NI_DETECT_SAMPLE_TYPE tag&lt;br&gt;  describing the whether an audio sample is a drum or an instrument.</t>
-  </si>
-  <si>
     <t>sample-type-result</t>
   </si>
   <si>
     <t>detect_tempo</t>
-  </si>
-  <si>
-    <t>Returns a real value representing the detected tempo of the audio sample,&lt;br&gt;  in BPM. If detection fails, the function will return&lt;br&gt;  ~NI_DETECT_TEMPO_INVALID.</t>
   </si>
   <si>
     <t>tempo-result</t>
@@ -3728,6 +3701,132 @@
   </si>
   <si>
     <t>Sets the number of export areas, with a maximum of 512.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assigns `key-result` a $NI_DETECT_KEY tag describing the musical key of the audio sample. If detection fails, the function will return $NI_DETECT_KEY_INVALID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The ID of the zone.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The detected musical key, can be one of the following:
+- $NI_DETECT_KEY_C_MAJOR
+- $NI_DETECT_KEY_CSHARP_MAJOR
+- $NI_DETECT_KEY_D_MAJOR
+- $NI_DETECT_KEY_DSHARP_MAJOR
+- $NI_DETECT_KEY_E_MAJOR
+- $NI_DETECT_KEY_F_MAJOR
+- $NI_DETECT_KEY_FSHARP_MAJOR
+- $NI_DETECT_KEY_G_MAJOR
+- $NI_DETECT_KEY_GSHARP_MAJOR
+- $NI_DETECT_KEY_A_MAJOR
+- $NI_DETECT_KEY_ASHARP_MAJOR
+- $NI_DETECT_KEY_B_MAJOR
+- $NI_DETECT_KEY_C_MINOR
+- $NI_DETECT_KEY_CSHARP_MINOR
+- $NI_DETECT_KEY_D_MINOR
+- $NI_DETECT_KEY_DSHARP_MINOR
+- $NI_DETECT_KEY_E_MINOR
+- $NI_DETECT_KEY_F_MINOR
+- $NI_DETECT_KEY_FSHARP_MINOR
+- $NI_DETECT_KEY_G_MINOR
+- $NI_DETECT_KEY_GSHARP_MINOR
+- $NI_DETECT_KEY_A_MINOR
+- $NI_DETECT_KEY_ASHARP_MINOR
+- $NI_DETECT_KEY_B_MINOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns a real value representing the fundamental frequency of an audio sample, in semitones and cents. If detection fails, the function will return ~NI_DETECT_PITCH_INVALID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The MIDI note value of the detected pitch.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns a real value representing the loudness of an audio sample in decibels. Loudness is measured according to the standard established by the International Telecommunication Union: Algorithms to measure audio program loudness and true-peak audio level - ITU-R BS.1770-4 (2015). If detection fails, the function will return ~NI_DETECT_LOUDNESS_INVALID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The real value of the detected loudness in decibels.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns a real value representing peak level of an audio sample in decibels. Peak is measured according to the standard established by the International Telecommunication Union: Algorithms to measure audio program loudness and true-peak audio level - ITU-R BS.1770-4 (2015). If detection fails, the function will set `peak-result` to ~NI_DETECT_PEAK_INVALID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The real value of the detected peak level in decibels.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns a real value representing the RMS level of an audio sample in decibels. If detection fails, the function will return ~NI_DETECT_RMS_INVALID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The real value of the RMS level of the audio sample in decibels.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Returns a real value representing the detected tempo of the audio sample, in BPM. If detection fails, the function will return ~NI_DETECT_TEMPO_INVALID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The BPM value of the detected tempo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assigns `sample-type-result` a $NI_DETECT_SAMPLE_TYPE tag describing the whether an audio sample is a drum or an instrument. If detection fails, the function will return $NI_DETECT_SAMPLE_TYPE_INVALID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- $NI_DETECT_SAMPLE_TYPE_INVALID
+- $NI_DETECT_SAMPLE_TYPE_INSTRUMENT
+- $NI_DETECT_SAMPLE_TYPE_DRUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assigns `drum-type-result` a $NI_DETECT_DRUM_TYPE tag describing the drum type of an audio sample. You can use this function if detect_sample_type() determines that a given audio sample is of type $NI_DETECT_SAMPLE_TYPE_DRUM. If detection fails, the function will return ~NI_DETECT_DRUM_TYPE_INVALID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The detected drum type, can be one of the following:
+- $NI_DETECT_DRUM_TYPE_INVALID
+- $NI_DETECT_DRUM_TYPE_KICK
+- $NI_DETECT_DRUM_TYPE_SNARE
+- $NI_DETECT_DRUM_TYPE_CLOSED_HH
+- $NI_DETECT_DRUM_TYPE_OPEN_HH
+- $NI_DETECT_DRUM_TYPE_TOM
+- $NI_DETECT_DRUM_TYPE_CYMBAL
+- $NI_DETECT_DRUM_TYPE_CLAP
+- $NI_DETECT_DRUM_TYPE_SHAKER
+- $NI_DETECT_DRUM_TYPE_PERC_DRUM
+- $NI_DETECT_DRUM_TYPE_PERC_OTHER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assigns `instr-type-result` a $NI_DETECT_INSTRUMENT_TYPE tag describing the instrument type of an audio sample. Hint: use this function if detect_sample_type() determines that a given audio sample is of type $NI_DETECT_SAMPLE_TYPE_INSTRUMENT. If detection fails, the function will return $NI_DETECT_INSTRUMENT_TYPE_INVALID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The detected instrument type, can be one of the following:
+- $NI_DETECT_INSTRUMENT_TYPE_INVALID
+- $NI_DETECT_INSTRUMENT_TYPE_BASS
+- $NI_DETECT_INSTRUMENT_TYPE_BOWED_STRING
+- $NI_DETECT_INSTRUMENT_TYPE_BRASS
+- $NI_DETECT_INSTRUMENT_TYPE_FLUTE
+- $NI_DETECT_INSTRUMENT_TYPE_GUITAR
+- $NI_DETECT_INSTRUMENT_TYPE_KEYBOARD
+- $NI_DETECT_INSTRUMENT_TYPE_MALLET
+- $NI_DETECT_INSTRUMENT_TYPE_ORGAN
+- $NI_DETECT_INSTRUMENT_TYPE_PLUCKED_STRING
+- $NI_DETECT_INSTRUMENT_TYPE_REED
+- $NI_DETECT_INSTRUMENT_TYPE_SYNTH
+- $NI_DETECT_INSTRUMENT_TYPE_VOCAL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4186,10 +4285,10 @@
   <dimension ref="A1:U263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4217,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4282,7 +4381,7 @@
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
@@ -4306,7 +4405,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -4323,7 +4422,7 @@
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
@@ -4335,7 +4434,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -4347,7 +4446,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -4364,7 +4463,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>29</v>
@@ -4376,7 +4475,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>30</v>
@@ -4411,7 +4510,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -4423,7 +4522,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>30</v>
@@ -4454,7 +4553,7 @@
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>39</v>
@@ -4466,7 +4565,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>30</v>
@@ -4493,7 +4592,7 @@
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="42">
       <c r="A7" s="4" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>41</v>
@@ -4505,7 +4604,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>42</v>
@@ -4536,7 +4635,7 @@
     </row>
     <row r="8" spans="1:21" s="4" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>45</v>
@@ -4558,7 +4657,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -4575,7 +4674,7 @@
     </row>
     <row r="9" spans="1:21" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>46</v>
@@ -4587,7 +4686,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
@@ -4599,7 +4698,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4616,7 +4715,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="3" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>47</v>
@@ -4669,7 +4768,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="3" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>53</v>
@@ -4681,7 +4780,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>30</v>
@@ -4716,7 +4815,7 @@
     </row>
     <row r="12" spans="1:21" s="4" customFormat="1" ht="147">
       <c r="A12" s="4" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>57</v>
@@ -4728,19 +4827,19 @@
         <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4757,7 +4856,7 @@
     </row>
     <row r="13" spans="1:21" s="4" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>59</v>
@@ -4769,7 +4868,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>58</v>
@@ -4781,7 +4880,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -4798,7 +4897,7 @@
     </row>
     <row r="14" spans="1:21" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>61</v>
@@ -4810,7 +4909,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
@@ -4822,7 +4921,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4839,7 +4938,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="3" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>62</v>
@@ -4878,7 +4977,7 @@
     </row>
     <row r="16" spans="1:21" s="4" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>65</v>
@@ -4890,7 +4989,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>27</v>
@@ -4902,7 +5001,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -4919,7 +5018,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="3" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>66</v>
@@ -4931,7 +5030,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>30</v>
@@ -4962,7 +5061,7 @@
     </row>
     <row r="18" spans="1:21" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>69</v>
@@ -4974,13 +5073,13 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>36</v>
@@ -5005,7 +5104,7 @@
     </row>
     <row r="19" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A19" s="4" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>72</v>
@@ -5017,19 +5116,19 @@
         <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>73</v>
@@ -5038,7 +5137,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>74</v>
@@ -5047,7 +5146,7 @@
         <v>36</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -5058,7 +5157,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>75</v>
@@ -5099,7 +5198,7 @@
     </row>
     <row r="21" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A21" s="4" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>76</v>
@@ -5111,19 +5210,19 @@
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>77</v>
@@ -5132,7 +5231,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>74</v>
@@ -5141,7 +5240,7 @@
         <v>36</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -5152,7 +5251,7 @@
     </row>
     <row r="22" spans="1:21" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>78</v>
@@ -5164,13 +5263,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>36</v>
@@ -5195,7 +5294,7 @@
     </row>
     <row r="23" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A23" s="4" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>80</v>
@@ -5207,19 +5306,19 @@
         <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>81</v>
@@ -5228,7 +5327,7 @@
         <v>36</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>74</v>
@@ -5237,7 +5336,7 @@
         <v>36</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -5248,7 +5347,7 @@
     </row>
     <row r="24" spans="1:21" s="4" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>82</v>
@@ -5260,7 +5359,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>27</v>
@@ -5272,7 +5371,7 @@
         <v>28</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -5289,7 +5388,7 @@
     </row>
     <row r="25" spans="1:21" s="4" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>83</v>
@@ -5301,7 +5400,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>30</v>
@@ -5313,7 +5412,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -5330,7 +5429,7 @@
     </row>
     <row r="26" spans="1:21" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>84</v>
@@ -5342,19 +5441,19 @@
         <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>85</v>
@@ -5363,7 +5462,7 @@
         <v>36</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -5375,399 +5474,435 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A27" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="K27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A28" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A29" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" s="4" customFormat="1">
+      <c r="A30" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="H30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="1:21" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="H31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" s="4" customFormat="1">
+      <c r="A32" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" s="4" customFormat="1">
+      <c r="A33" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" s="4" customFormat="1" ht="252">
+      <c r="A34" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="H34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" s="4" customFormat="1">
+      <c r="A35" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="H35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
+      <c r="L35" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
     </row>
     <row r="36" spans="1:21" s="4" customFormat="1" ht="63">
       <c r="A36" s="4" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C36" s="5" t="b">
         <v>1</v>
@@ -5776,19 +5911,19 @@
         <v>21</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5805,10 +5940,10 @@
     </row>
     <row r="37" spans="1:21" s="4" customFormat="1">
       <c r="A37" s="4" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C37" s="5" t="b">
         <v>1</v>
@@ -5817,7 +5952,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>30</v>
@@ -5844,10 +5979,10 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C38" s="6" t="b">
         <v>1</v>
@@ -5856,7 +5991,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>30</v>
@@ -5883,10 +6018,10 @@
     </row>
     <row r="39" spans="1:21" s="4" customFormat="1" ht="168">
       <c r="A39" s="4" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C39" s="5" t="b">
         <v>1</v>
@@ -5895,19 +6030,19 @@
         <v>21</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5924,10 +6059,10 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="3" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C40" s="6" t="b">
         <v>1</v>
@@ -5936,7 +6071,7 @@
         <v>21</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>30</v>
@@ -5959,10 +6094,10 @@
     </row>
     <row r="41" spans="1:21" s="4" customFormat="1">
       <c r="A41" s="4" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C41" s="5" t="b">
         <v>1</v>
@@ -5971,7 +6106,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>27</v>
@@ -5983,7 +6118,7 @@
         <v>28</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -6000,10 +6135,10 @@
     </row>
     <row r="42" spans="1:21" s="4" customFormat="1">
       <c r="A42" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C42" s="5" t="b">
         <v>1</v>
@@ -6012,7 +6147,7 @@
         <v>21</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>27</v>
@@ -6024,7 +6159,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -6041,10 +6176,10 @@
     </row>
     <row r="43" spans="1:21" s="4" customFormat="1">
       <c r="A43" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C43" s="5" t="b">
         <v>1</v>
@@ -6053,28 +6188,28 @@
         <v>21</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -6088,10 +6223,10 @@
     </row>
     <row r="44" spans="1:21" s="4" customFormat="1" ht="147">
       <c r="A44" s="4" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C44" s="5" t="b">
         <v>1</v>
@@ -6100,37 +6235,37 @@
         <v>21</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -6141,10 +6276,10 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="3" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C45" s="6" t="b">
         <v>1</v>
@@ -6153,13 +6288,13 @@
         <v>21</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>34</v>
@@ -6180,10 +6315,10 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="3" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C46" s="6" t="b">
         <v>1</v>
@@ -6192,7 +6327,7 @@
         <v>21</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>58</v>
@@ -6205,7 +6340,7 @@
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>34</v>
@@ -6223,10 +6358,10 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="3" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C47" s="6" t="b">
         <v>1</v>
@@ -6235,7 +6370,7 @@
         <v>21</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>58</v>
@@ -6248,14 +6383,14 @@
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>34</v>
@@ -6270,10 +6405,10 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="3" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C48" s="6" t="b">
         <v>1</v>
@@ -6282,13 +6417,13 @@
         <v>21</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>34</v>
@@ -6309,10 +6444,10 @@
     </row>
     <row r="49" spans="1:21" s="4" customFormat="1">
       <c r="A49" s="4" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C49" s="5" t="b">
         <v>1</v>
@@ -6321,7 +6456,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>27</v>
@@ -6333,7 +6468,7 @@
         <v>28</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6350,10 +6485,10 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="3" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C50" s="6" t="b">
         <v>1</v>
@@ -6362,7 +6497,7 @@
         <v>21</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>34</v>
@@ -6375,7 +6510,7 @@
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>36</v>
@@ -6393,10 +6528,10 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="3" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C51" s="6" t="b">
         <v>1</v>
@@ -6405,7 +6540,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>30</v>
@@ -6418,7 +6553,7 @@
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>36</v>
@@ -6436,10 +6571,10 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="3" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C52" s="6" t="b">
         <v>1</v>
@@ -6448,7 +6583,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>58</v>
@@ -6461,7 +6596,7 @@
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>36</v>
@@ -6479,10 +6614,10 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="3" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C53" s="6" t="b">
         <v>1</v>
@@ -6504,14 +6639,14 @@
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>36</v>
@@ -6526,10 +6661,10 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="3" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C54" s="6" t="b">
         <v>1</v>
@@ -6551,14 +6686,14 @@
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N54" s="6" t="s">
         <v>36</v>
@@ -6573,10 +6708,10 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="3" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C55" s="6" t="b">
         <v>1</v>
@@ -6598,7 +6733,7 @@
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>36</v>
@@ -6616,10 +6751,10 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="3" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C56" s="6" t="b">
         <v>1</v>
@@ -6641,14 +6776,14 @@
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>36</v>
@@ -6663,10 +6798,10 @@
     </row>
     <row r="57" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A57" s="4" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C57" s="5" t="b">
         <v>1</v>
@@ -6675,7 +6810,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>58</v>
@@ -6687,7 +6822,7 @@
         <v>36</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>49</v>
@@ -6696,7 +6831,7 @@
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>50</v>
@@ -6705,16 +6840,16 @@
         <v>36</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="Q57" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
@@ -6722,10 +6857,10 @@
     </row>
     <row r="58" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A58" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C58" s="5" t="b">
         <v>1</v>
@@ -6734,19 +6869,19 @@
         <v>21</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>49</v>
@@ -6755,7 +6890,7 @@
         <v>36</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>50</v>
@@ -6764,16 +6899,16 @@
         <v>36</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="Q58" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
@@ -6781,75 +6916,75 @@
     </row>
     <row r="59" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A59" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C59" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="O59" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="C59" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="P59" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="U59" s="8" t="s">
         <v>884</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="P59" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="Q59" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="R59" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="S59" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="T59" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="U59" s="8" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="3" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C60" s="6" t="b">
         <v>1</v>
@@ -6871,21 +7006,21 @@
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N60" s="6" t="s">
         <v>36</v>
       </c>
       <c r="O60" s="6"/>
       <c r="P60" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Q60" s="6" t="s">
         <v>36</v>
@@ -6897,10 +7032,10 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="3" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C61" s="6" t="b">
         <v>1</v>
@@ -6922,21 +7057,21 @@
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N61" s="6" t="s">
         <v>36</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Q61" s="6" t="s">
         <v>36</v>
@@ -6948,10 +7083,10 @@
     </row>
     <row r="62" spans="1:21" s="4" customFormat="1">
       <c r="A62" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C62" s="5" t="b">
         <v>1</v>
@@ -6960,19 +7095,19 @@
         <v>21</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>44</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -6989,10 +7124,10 @@
     </row>
     <row r="63" spans="1:21" s="4" customFormat="1" ht="357">
       <c r="A63" s="4" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C63" s="5" t="b">
         <v>1</v>
@@ -7001,28 +7136,28 @@
         <v>21</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -7036,10 +7171,10 @@
     </row>
     <row r="64" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A64" s="4" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C64" s="5" t="b">
         <v>1</v>
@@ -7048,19 +7183,19 @@
         <v>21</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>68</v>
@@ -7069,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -7083,10 +7218,10 @@
     </row>
     <row r="65" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A65" s="4" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C65" s="5" t="b">
         <v>1</v>
@@ -7095,19 +7230,19 @@
         <v>21</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>68</v>
@@ -7116,7 +7251,7 @@
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>40</v>
@@ -7125,7 +7260,7 @@
         <v>36</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
@@ -7136,10 +7271,10 @@
     </row>
     <row r="66" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A66" s="4" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C66" s="5" t="b">
         <v>1</v>
@@ -7148,19 +7283,19 @@
         <v>21</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -7177,10 +7312,10 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="3" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C67" s="6" t="b">
         <v>1</v>
@@ -7189,13 +7324,13 @@
         <v>21</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>36</v>
@@ -7216,10 +7351,10 @@
     </row>
     <row r="68" spans="1:21" s="4" customFormat="1">
       <c r="A68" s="4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C68" s="5" t="b">
         <v>1</v>
@@ -7228,13 +7363,13 @@
         <v>21</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>34</v>
@@ -7255,10 +7390,10 @@
     </row>
     <row r="69" spans="1:21" s="4" customFormat="1">
       <c r="A69" s="4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C69" s="5" t="b">
         <v>1</v>
@@ -7267,13 +7402,13 @@
         <v>21</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>36</v>
@@ -7294,10 +7429,10 @@
     </row>
     <row r="70" spans="1:21" s="4" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C70" s="5" t="b">
         <v>1</v>
@@ -7306,13 +7441,13 @@
         <v>21</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>36</v>
@@ -7333,10 +7468,10 @@
     </row>
     <row r="71" spans="1:21" s="4" customFormat="1">
       <c r="A71" s="4" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C71" s="5" t="b">
         <v>1</v>
@@ -7345,13 +7480,13 @@
         <v>21</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>36</v>
@@ -7372,10 +7507,10 @@
     </row>
     <row r="72" spans="1:21" s="4" customFormat="1">
       <c r="A72" s="4" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C72" s="5" t="b">
         <v>1</v>
@@ -7384,13 +7519,13 @@
         <v>21</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>36</v>
@@ -7411,10 +7546,10 @@
     </row>
     <row r="73" spans="1:21" s="4" customFormat="1">
       <c r="A73" s="4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C73" s="5" t="b">
         <v>1</v>
@@ -7423,13 +7558,13 @@
         <v>21</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>36</v>
@@ -7450,10 +7585,10 @@
     </row>
     <row r="74" spans="1:21" s="4" customFormat="1" ht="21">
       <c r="A74" s="4" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C74" s="5" t="b">
         <v>1</v>
@@ -7462,13 +7597,13 @@
         <v>21</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>36</v>
@@ -7489,10 +7624,10 @@
     </row>
     <row r="75" spans="1:21" s="4" customFormat="1">
       <c r="A75" s="4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C75" s="5" t="b">
         <v>1</v>
@@ -7501,13 +7636,13 @@
         <v>21</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>36</v>
@@ -7528,10 +7663,10 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C76" s="6" t="b">
         <v>1</v>
@@ -7540,7 +7675,7 @@
         <v>21</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>58</v>
@@ -7553,7 +7688,7 @@
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>36</v>
@@ -7575,10 +7710,10 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C77" s="6" t="b">
         <v>1</v>
@@ -7587,7 +7722,7 @@
         <v>21</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>58</v>
@@ -7600,7 +7735,7 @@
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>36</v>
@@ -7618,10 +7753,10 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="3" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C78" s="6" t="b">
         <v>1</v>
@@ -7630,20 +7765,20 @@
         <v>21</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>36</v>
@@ -7661,10 +7796,10 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="3" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C79" s="6" t="b">
         <v>1</v>
@@ -7673,20 +7808,20 @@
         <v>21</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>36</v>
@@ -7704,10 +7839,10 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="3" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C80" s="6" t="b">
         <v>1</v>
@@ -7716,20 +7851,20 @@
         <v>21</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>36</v>
@@ -7747,10 +7882,10 @@
     </row>
     <row r="81" spans="1:21" s="4" customFormat="1">
       <c r="A81" s="4" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C81" s="5" t="b">
         <v>1</v>
@@ -7759,7 +7894,7 @@
         <v>21</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>58</v>
@@ -7771,16 +7906,16 @@
         <v>36</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -7794,10 +7929,10 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="3" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C82" s="6" t="b">
         <v>1</v>
@@ -7806,7 +7941,7 @@
         <v>21</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>58</v>
@@ -7829,10 +7964,10 @@
     </row>
     <row r="83" spans="1:21" s="4" customFormat="1" ht="84">
       <c r="A83" s="4" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C83" s="5" t="b">
         <v>1</v>
@@ -7841,7 +7976,7 @@
         <v>21</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>58</v>
@@ -7853,7 +7988,7 @@
         <v>36</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -7870,10 +8005,10 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C84" s="6" t="b">
         <v>1</v>
@@ -7882,13 +8017,13 @@
         <v>21</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>36</v>
@@ -7909,10 +8044,10 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C85" s="6" t="b">
         <v>1</v>
@@ -7921,13 +8056,13 @@
         <v>21</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>44</v>
@@ -7948,10 +8083,10 @@
     </row>
     <row r="86" spans="1:21" s="4" customFormat="1">
       <c r="A86" s="4" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C86" s="5" t="b">
         <v>1</v>
@@ -7960,7 +8095,7 @@
         <v>21</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>58</v>
@@ -7972,25 +8107,25 @@
         <v>36</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>34</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
@@ -8001,10 +8136,10 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="3" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C87" s="6" t="b">
         <v>1</v>
@@ -8013,7 +8148,7 @@
         <v>21</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>58</v>
@@ -8022,7 +8157,7 @@
         <v>31</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -8040,10 +8175,10 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="3" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C88" s="6" t="b">
         <v>1</v>
@@ -8052,7 +8187,7 @@
         <v>21</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>58</v>
@@ -8065,14 +8200,14 @@
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="N88" s="6" t="s">
         <v>36</v>
@@ -8087,10 +8222,10 @@
     </row>
     <row r="89" spans="1:21" s="4" customFormat="1" ht="126">
       <c r="A89" s="4" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C89" s="5" t="b">
         <v>1</v>
@@ -8099,19 +8234,19 @@
         <v>21</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -8128,10 +8263,10 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="3" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C90" s="6" t="b">
         <v>1</v>
@@ -8140,13 +8275,13 @@
         <v>21</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>36</v>
@@ -8167,10 +8302,10 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="3" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C91" s="6" t="b">
         <v>1</v>
@@ -8179,7 +8314,7 @@
         <v>21</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>58</v>
@@ -8210,10 +8345,10 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="3" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C92" s="6" t="b">
         <v>1</v>
@@ -8222,7 +8357,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>58</v>
@@ -8249,10 +8384,10 @@
     </row>
     <row r="93" spans="1:21" s="4" customFormat="1">
       <c r="A93" s="4" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C93" s="5" t="b">
         <v>1</v>
@@ -8261,7 +8396,7 @@
         <v>21</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>34</v>
@@ -8288,10 +8423,10 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="3" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C94" s="6" t="b">
         <v>1</v>
@@ -8300,7 +8435,7 @@
         <v>21</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>30</v>
@@ -8309,11 +8444,11 @@
         <v>31</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>36</v>
@@ -8331,10 +8466,10 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="3" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C95" s="6" t="b">
         <v>1</v>
@@ -8343,7 +8478,7 @@
         <v>21</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>30</v>
@@ -8366,10 +8501,10 @@
     </row>
     <row r="96" spans="1:21" s="4" customFormat="1">
       <c r="A96" s="4" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C96" s="5" t="b">
         <v>1</v>
@@ -8378,13 +8513,13 @@
         <v>21</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>36</v>
@@ -8405,10 +8540,10 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="3" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C97" s="6" t="b">
         <v>1</v>
@@ -8417,7 +8552,7 @@
         <v>21</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>30</v>
@@ -8440,10 +8575,10 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="3" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C98" s="6" t="b">
         <v>1</v>
@@ -8452,7 +8587,7 @@
         <v>21</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>42</v>
@@ -8465,14 +8600,14 @@
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="N98" s="6" t="s">
         <v>36</v>
@@ -8487,10 +8622,10 @@
     </row>
     <row r="99" spans="1:21" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C99" s="5" t="b">
         <v>1</v>
@@ -8499,7 +8634,7 @@
         <v>21</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>30</v>
@@ -8511,7 +8646,7 @@
         <v>36</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -8528,10 +8663,10 @@
     </row>
     <row r="100" spans="1:21" s="4" customFormat="1">
       <c r="A100" s="4" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C100" s="5" t="b">
         <v>1</v>
@@ -8540,19 +8675,19 @@
         <v>21</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -8569,10 +8704,10 @@
     </row>
     <row r="101" spans="1:21" s="4" customFormat="1">
       <c r="A101" s="4" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C101" s="5" t="b">
         <v>1</v>
@@ -8581,19 +8716,19 @@
         <v>21</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -8610,10 +8745,10 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="3" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C102" s="6" t="b">
         <v>1</v>
@@ -8622,7 +8757,7 @@
         <v>21</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>58</v>
@@ -8649,10 +8784,10 @@
     </row>
     <row r="103" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A103" s="4" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C103" s="5" t="b">
         <v>1</v>
@@ -8661,7 +8796,7 @@
         <v>21</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>58</v>
@@ -8670,19 +8805,19 @@
         <v>43</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K103" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -8696,10 +8831,10 @@
     </row>
     <row r="104" spans="1:21" s="4" customFormat="1" ht="63">
       <c r="A104" s="4" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C104" s="5" t="b">
         <v>1</v>
@@ -8708,7 +8843,7 @@
         <v>21</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>58</v>
@@ -8717,19 +8852,19 @@
         <v>43</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>58</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -8743,10 +8878,10 @@
     </row>
     <row r="105" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A105" s="4" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C105" s="5" t="b">
         <v>1</v>
@@ -8755,19 +8890,19 @@
         <v>21</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>50</v>
@@ -8776,16 +8911,16 @@
         <v>36</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
@@ -8796,10 +8931,10 @@
     </row>
     <row r="106" spans="1:21" s="9" customFormat="1">
       <c r="A106" s="9" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C106" s="10" t="b">
         <v>1</v>
@@ -8817,7 +8952,7 @@
         <v>64</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -8835,10 +8970,10 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="3" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C107" s="6" t="b">
         <v>1</v>
@@ -8847,13 +8982,13 @@
         <v>21</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>34</v>
@@ -8874,10 +9009,10 @@
     </row>
     <row r="108" spans="1:21" s="9" customFormat="1">
       <c r="A108" s="9" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C108" s="10" t="b">
         <v>1</v>
@@ -8899,7 +9034,7 @@
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K108" s="10" t="s">
         <v>36</v>
@@ -8917,10 +9052,10 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="3" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C109" s="6" t="b">
         <v>1</v>
@@ -8929,13 +9064,13 @@
         <v>21</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>34</v>
@@ -8956,10 +9091,10 @@
     </row>
     <row r="110" spans="1:21" s="4" customFormat="1">
       <c r="A110" s="4" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C110" s="5" t="b">
         <v>1</v>
@@ -8968,7 +9103,7 @@
         <v>21</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>27</v>
@@ -8980,7 +9115,7 @@
         <v>28</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -8997,10 +9132,10 @@
     </row>
     <row r="111" spans="1:21" s="4" customFormat="1">
       <c r="A111" s="4" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C111" s="5" t="b">
         <v>1</v>
@@ -9009,7 +9144,7 @@
         <v>21</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>27</v>
@@ -9021,7 +9156,7 @@
         <v>28</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -9038,10 +9173,10 @@
     </row>
     <row r="112" spans="1:21" s="4" customFormat="1">
       <c r="A112" s="4" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C112" s="5" t="b">
         <v>1</v>
@@ -9050,7 +9185,7 @@
         <v>21</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>27</v>
@@ -9062,7 +9197,7 @@
         <v>28</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -9079,10 +9214,10 @@
     </row>
     <row r="113" spans="1:21" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C113" s="5" t="b">
         <v>1</v>
@@ -9091,7 +9226,7 @@
         <v>21</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>58</v>
@@ -9103,7 +9238,7 @@
         <v>36</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -9120,10 +9255,10 @@
     </row>
     <row r="114" spans="1:21" s="4" customFormat="1">
       <c r="A114" s="4" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C114" s="5" t="b">
         <v>1</v>
@@ -9132,7 +9267,7 @@
         <v>21</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>30</v>
@@ -9141,10 +9276,10 @@
         <v>31</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -9161,10 +9296,10 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="3" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C115" s="6" t="b">
         <v>1</v>
@@ -9173,7 +9308,7 @@
         <v>21</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>30</v>
@@ -9196,10 +9331,10 @@
     </row>
     <row r="116" spans="1:21" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C116" s="5" t="b">
         <v>1</v>
@@ -9208,7 +9343,7 @@
         <v>21</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>30</v>
@@ -9217,10 +9352,10 @@
         <v>31</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -9237,10 +9372,10 @@
     </row>
     <row r="117" spans="1:21" s="4" customFormat="1">
       <c r="A117" s="4" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C117" s="5" t="b">
         <v>1</v>
@@ -9249,19 +9384,19 @@
         <v>21</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -9278,10 +9413,10 @@
     </row>
     <row r="118" spans="1:21" s="4" customFormat="1">
       <c r="A118" s="4" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C118" s="5" t="b">
         <v>1</v>
@@ -9290,13 +9425,13 @@
         <v>21</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>36</v>
@@ -9317,10 +9452,10 @@
     </row>
     <row r="119" spans="1:21" s="4" customFormat="1">
       <c r="A119" s="4" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C119" s="5" t="b">
         <v>1</v>
@@ -9329,7 +9464,7 @@
         <v>21</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>58</v>
@@ -9352,10 +9487,10 @@
     </row>
     <row r="120" spans="1:21" s="9" customFormat="1">
       <c r="A120" s="9" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C120" s="10" t="b">
         <v>1</v>
@@ -9387,10 +9522,10 @@
     </row>
     <row r="121" spans="1:21" s="9" customFormat="1">
       <c r="A121" s="9" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C121" s="10" t="b">
         <v>1</v>
@@ -9422,10 +9557,10 @@
     </row>
     <row r="122" spans="1:21" s="9" customFormat="1">
       <c r="A122" s="9" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C122" s="10" t="b">
         <v>1</v>
@@ -9457,10 +9592,10 @@
     </row>
     <row r="123" spans="1:21" s="9" customFormat="1">
       <c r="A123" s="9" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C123" s="10" t="b">
         <v>1</v>
@@ -9492,10 +9627,10 @@
     </row>
     <row r="124" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A124" s="4" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C124" s="5" t="b">
         <v>1</v>
@@ -9504,19 +9639,19 @@
         <v>21</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>68</v>
@@ -9525,7 +9660,7 @@
         <v>36</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -9539,10 +9674,10 @@
     </row>
     <row r="125" spans="1:21" s="4" customFormat="1">
       <c r="A125" s="4" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C125" s="5" t="b">
         <v>1</v>
@@ -9551,19 +9686,19 @@
         <v>21</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -9580,10 +9715,10 @@
     </row>
     <row r="126" spans="1:21" s="4" customFormat="1">
       <c r="A126" s="4" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C126" s="5" t="b">
         <v>1</v>
@@ -9592,7 +9727,7 @@
         <v>21</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>58</v>
@@ -9615,10 +9750,10 @@
     </row>
     <row r="127" spans="1:21" s="4" customFormat="1">
       <c r="A127" s="4" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C127" s="5" t="b">
         <v>1</v>
@@ -9627,19 +9762,19 @@
         <v>21</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -9656,10 +9791,10 @@
     </row>
     <row r="128" spans="1:21" s="4" customFormat="1">
       <c r="A128" s="4" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C128" s="5" t="b">
         <v>1</v>
@@ -9668,7 +9803,7 @@
         <v>21</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>34</v>
@@ -9691,10 +9826,10 @@
     </row>
     <row r="129" spans="1:21" s="4" customFormat="1">
       <c r="A129" s="4" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C129" s="5" t="b">
         <v>1</v>
@@ -9703,28 +9838,28 @@
         <v>21</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -9738,10 +9873,10 @@
     </row>
     <row r="130" spans="1:21" s="4" customFormat="1">
       <c r="A130" s="4" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C130" s="5" t="b">
         <v>1</v>
@@ -9750,19 +9885,19 @@
         <v>21</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
@@ -9779,10 +9914,10 @@
     </row>
     <row r="131" spans="1:21" s="4" customFormat="1">
       <c r="A131" s="4" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C131" s="5" t="b">
         <v>1</v>
@@ -9791,28 +9926,28 @@
         <v>21</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I131" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L131" s="5" t="s">
         <v>1019</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L131" s="5" t="s">
-        <v>1028</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -9826,10 +9961,10 @@
     </row>
     <row r="132" spans="1:21" s="9" customFormat="1">
       <c r="A132" s="9" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C132" s="10" t="b">
         <v>1</v>
@@ -9861,10 +9996,10 @@
     </row>
     <row r="133" spans="1:21" s="4" customFormat="1">
       <c r="A133" s="4" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C133" s="5" t="b">
         <v>1</v>
@@ -9873,7 +10008,7 @@
         <v>21</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>58</v>
@@ -9896,10 +10031,10 @@
     </row>
     <row r="134" spans="1:21" s="9" customFormat="1">
       <c r="A134" s="9" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C134" s="10" t="b">
         <v>1</v>
@@ -9931,10 +10066,10 @@
     </row>
     <row r="135" spans="1:21" s="4" customFormat="1">
       <c r="A135" s="4" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C135" s="5" t="b">
         <v>1</v>
@@ -9943,19 +10078,19 @@
         <v>21</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -9972,10 +10107,10 @@
     </row>
     <row r="136" spans="1:21" s="4" customFormat="1">
       <c r="A136" s="4" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C136" s="5" t="b">
         <v>1</v>
@@ -9984,28 +10119,28 @@
         <v>21</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I136" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L136" s="5" t="s">
         <v>1019</v>
-      </c>
-      <c r="J136" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K136" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L136" s="5" t="s">
-        <v>1028</v>
       </c>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
@@ -10019,10 +10154,10 @@
     </row>
     <row r="137" spans="1:21" s="9" customFormat="1">
       <c r="A137" s="9" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C137" s="10" t="b">
         <v>1</v>
@@ -10054,10 +10189,10 @@
     </row>
     <row r="138" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A138" s="4" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C138" s="5" t="b">
         <v>1</v>
@@ -10066,7 +10201,7 @@
         <v>21</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>58</v>
@@ -10078,51 +10213,51 @@
         <v>36</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="J138" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O138" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="P138" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="K138" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L138" s="5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M138" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="N138" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O138" s="8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="P138" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="Q138" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R138" s="5" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="S138" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="T138" s="5" t="s">
         <v>36</v>
       </c>
       <c r="U138" s="5" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="139" spans="1:21" s="4" customFormat="1" ht="189">
       <c r="A139" s="4" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C139" s="5" t="b">
         <v>1</v>
@@ -10131,46 +10266,46 @@
         <v>21</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K139" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="N139" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q139" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R139" s="8" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
@@ -10178,10 +10313,10 @@
     </row>
     <row r="140" spans="1:21" s="4" customFormat="1">
       <c r="A140" s="4" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C140" s="5" t="b">
         <v>1</v>
@@ -10190,19 +10325,19 @@
         <v>21</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -10219,10 +10354,10 @@
     </row>
     <row r="141" spans="1:21" s="4" customFormat="1">
       <c r="A141" s="4" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C141" s="5" t="b">
         <v>1</v>
@@ -10231,7 +10366,7 @@
         <v>21</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>30</v>
@@ -10254,10 +10389,10 @@
     </row>
     <row r="142" spans="1:21" s="4" customFormat="1">
       <c r="A142" s="4" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C142" s="5" t="b">
         <v>1</v>
@@ -10266,19 +10401,19 @@
         <v>21</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -10295,10 +10430,10 @@
     </row>
     <row r="143" spans="1:21" s="9" customFormat="1">
       <c r="A143" s="9" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C143" s="10" t="b">
         <v>1</v>
@@ -10334,10 +10469,10 @@
     </row>
     <row r="144" spans="1:21" s="9" customFormat="1">
       <c r="A144" s="9" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C144" s="10" t="b">
         <v>1</v>
@@ -10373,10 +10508,10 @@
     </row>
     <row r="145" spans="1:21" s="9" customFormat="1">
       <c r="A145" s="9" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C145" s="10" t="b">
         <v>1</v>
@@ -10412,10 +10547,10 @@
     </row>
     <row r="146" spans="1:21" s="9" customFormat="1">
       <c r="A146" s="9" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C146" s="10" t="b">
         <v>1</v>
@@ -10451,10 +10586,10 @@
     </row>
     <row r="147" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A147" s="4" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C147" s="5" t="b">
         <v>1</v>
@@ -10463,19 +10598,19 @@
         <v>21</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="J147" s="5" t="s">
         <v>68</v>
@@ -10484,7 +10619,7 @@
         <v>36</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="M147" s="5" t="s">
         <v>35</v>
@@ -10493,7 +10628,7 @@
         <v>36</v>
       </c>
       <c r="O147" s="5" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
@@ -10504,10 +10639,10 @@
     </row>
     <row r="148" spans="1:21" s="4" customFormat="1" ht="210">
       <c r="A148" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C148" s="5" t="b">
         <v>1</v>
@@ -10516,63 +10651,63 @@
         <v>21</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K148" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="N148" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="Q148" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R148" s="8" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="T148" s="5" t="s">
         <v>36</v>
       </c>
       <c r="U148" s="8" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="149" spans="1:21" s="4" customFormat="1">
       <c r="A149" s="4" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C149" s="5" t="b">
         <v>1</v>
@@ -10581,37 +10716,37 @@
         <v>21</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K149" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="N149" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O149" s="5" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
@@ -10622,10 +10757,10 @@
     </row>
     <row r="150" spans="1:21" s="4" customFormat="1">
       <c r="A150" s="4" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C150" s="5" t="b">
         <v>1</v>
@@ -10634,13 +10769,13 @@
         <v>21</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>36</v>
@@ -10661,10 +10796,10 @@
     </row>
     <row r="151" spans="1:21" s="9" customFormat="1">
       <c r="A151" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C151" s="10" t="b">
         <v>1</v>
@@ -10700,10 +10835,10 @@
     </row>
     <row r="152" spans="1:21">
       <c r="A152" s="3" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C152" s="6" t="b">
         <v>1</v>
@@ -10712,7 +10847,7 @@
         <v>21</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>30</v>
@@ -10721,18 +10856,18 @@
         <v>31</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L152" s="6"/>
       <c r="M152" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N152" s="6" t="s">
         <v>36</v>
@@ -10747,10 +10882,10 @@
     </row>
     <row r="153" spans="1:21">
       <c r="A153" s="3" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C153" s="6" t="b">
         <v>1</v>
@@ -10759,7 +10894,7 @@
         <v>21</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>30</v>
@@ -10768,18 +10903,18 @@
         <v>31</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K153" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L153" s="6"/>
       <c r="M153" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N153" s="6" t="s">
         <v>36</v>
@@ -10794,10 +10929,10 @@
     </row>
     <row r="154" spans="1:21">
       <c r="A154" s="3" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C154" s="6" t="b">
         <v>1</v>
@@ -10806,13 +10941,13 @@
         <v>21</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>36</v>
@@ -10833,10 +10968,10 @@
     </row>
     <row r="155" spans="1:21" s="4" customFormat="1">
       <c r="A155" s="4" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C155" s="5" t="b">
         <v>1</v>
@@ -10845,7 +10980,7 @@
         <v>21</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>58</v>
@@ -10857,7 +10992,7 @@
         <v>36</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -10874,10 +11009,10 @@
     </row>
     <row r="156" spans="1:21" s="4" customFormat="1">
       <c r="A156" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C156" s="5" t="b">
         <v>1</v>
@@ -10886,19 +11021,19 @@
         <v>21</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -10915,10 +11050,10 @@
     </row>
     <row r="157" spans="1:21" s="4" customFormat="1">
       <c r="A157" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C157" s="5" t="b">
         <v>1</v>
@@ -10927,28 +11062,28 @@
         <v>21</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
@@ -10962,10 +11097,10 @@
     </row>
     <row r="158" spans="1:21" s="4" customFormat="1">
       <c r="A158" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C158" s="5" t="b">
         <v>1</v>
@@ -10974,7 +11109,7 @@
         <v>21</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>58</v>
@@ -10983,7 +11118,7 @@
         <v>43</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
@@ -11001,10 +11136,10 @@
     </row>
     <row r="159" spans="1:21" s="9" customFormat="1">
       <c r="A159" s="9" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C159" s="10" t="b">
         <v>1</v>
@@ -11040,10 +11175,10 @@
     </row>
     <row r="160" spans="1:21">
       <c r="A160" s="3" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C160" s="6" t="b">
         <v>1</v>
@@ -11052,13 +11187,13 @@
         <v>21</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>36</v>
@@ -11079,10 +11214,10 @@
     </row>
     <row r="161" spans="1:21" s="4" customFormat="1">
       <c r="A161" s="4" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C161" s="5" t="b">
         <v>1</v>
@@ -11091,19 +11226,19 @@
         <v>21</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -11120,10 +11255,10 @@
     </row>
     <row r="162" spans="1:21">
       <c r="A162" s="3" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C162" s="6" t="b">
         <v>1</v>
@@ -11132,20 +11267,20 @@
         <v>21</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K162" s="6" t="s">
         <v>36</v>
@@ -11163,10 +11298,10 @@
     </row>
     <row r="163" spans="1:21">
       <c r="A163" s="3" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C163" s="6" t="b">
         <v>1</v>
@@ -11175,16 +11310,16 @@
         <v>21</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
@@ -11202,10 +11337,10 @@
     </row>
     <row r="164" spans="1:21">
       <c r="A164" s="3" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C164" s="6" t="b">
         <v>1</v>
@@ -11214,20 +11349,20 @@
         <v>21</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K164" s="6" t="s">
         <v>36</v>
@@ -11245,10 +11380,10 @@
     </row>
     <row r="165" spans="1:21">
       <c r="A165" s="3" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C165" s="6" t="b">
         <v>1</v>
@@ -11257,16 +11392,16 @@
         <v>21</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
@@ -11284,10 +11419,10 @@
     </row>
     <row r="166" spans="1:21">
       <c r="A166" s="3" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C166" s="6" t="b">
         <v>1</v>
@@ -11296,16 +11431,16 @@
         <v>21</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
@@ -11323,10 +11458,10 @@
     </row>
     <row r="167" spans="1:21">
       <c r="A167" s="3" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C167" s="6" t="b">
         <v>1</v>
@@ -11335,20 +11470,20 @@
         <v>21</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I167" s="6"/>
       <c r="J167" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K167" s="6" t="s">
         <v>36</v>
@@ -11370,10 +11505,10 @@
     </row>
     <row r="168" spans="1:21">
       <c r="A168" s="3" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C168" s="6" t="b">
         <v>1</v>
@@ -11382,20 +11517,20 @@
         <v>21</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K168" s="6" t="s">
         <v>23</v>
@@ -11413,10 +11548,10 @@
     </row>
     <row r="169" spans="1:21">
       <c r="A169" s="3" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C169" s="6" t="b">
         <v>1</v>
@@ -11425,16 +11560,16 @@
         <v>21</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
@@ -11452,10 +11587,10 @@
     </row>
     <row r="170" spans="1:21" s="4" customFormat="1" ht="378">
       <c r="A170" s="4" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C170" s="5" t="b">
         <v>1</v>
@@ -11464,7 +11599,7 @@
         <v>21</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>58</v>
@@ -11476,7 +11611,7 @@
         <v>36</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="J170" s="5" t="s">
         <v>79</v>
@@ -11485,25 +11620,25 @@
         <v>36</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="M170" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O170" s="5" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="P170" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q170" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R170" s="8" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
@@ -11511,10 +11646,10 @@
     </row>
     <row r="171" spans="1:21" s="4" customFormat="1">
       <c r="A171" s="4" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C171" s="5" t="b">
         <v>1</v>
@@ -11523,10 +11658,10 @@
         <v>21</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>24</v>
@@ -11535,16 +11670,16 @@
         <v>28</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K171" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
@@ -11558,10 +11693,10 @@
     </row>
     <row r="172" spans="1:21" s="4" customFormat="1" ht="147">
       <c r="A172" s="4" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C172" s="5" t="b">
         <v>1</v>
@@ -11570,7 +11705,7 @@
         <v>21</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>30</v>
@@ -11582,16 +11717,16 @@
         <v>36</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K172" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
@@ -11605,10 +11740,10 @@
     </row>
     <row r="173" spans="1:21" s="4" customFormat="1">
       <c r="A173" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C173" s="5" t="b">
         <v>1</v>
@@ -11617,28 +11752,28 @@
         <v>21</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K173" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
@@ -11652,10 +11787,10 @@
     </row>
     <row r="174" spans="1:21" s="4" customFormat="1">
       <c r="A174" s="4" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C174" s="5" t="b">
         <v>1</v>
@@ -11664,7 +11799,7 @@
         <v>21</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>30</v>
@@ -11673,10 +11808,10 @@
         <v>31</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
@@ -11693,10 +11828,10 @@
     </row>
     <row r="175" spans="1:21" s="4" customFormat="1">
       <c r="A175" s="4" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C175" s="5" t="b">
         <v>1</v>
@@ -11705,19 +11840,19 @@
         <v>21</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -11734,10 +11869,10 @@
     </row>
     <row r="176" spans="1:21" s="4" customFormat="1">
       <c r="A176" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C176" s="5" t="b">
         <v>1</v>
@@ -11746,19 +11881,19 @@
         <v>21</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11775,10 +11910,10 @@
     </row>
     <row r="177" spans="1:21" s="9" customFormat="1">
       <c r="A177" s="9" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C177" s="10" t="b">
         <v>1</v>
@@ -11796,7 +11931,7 @@
         <v>64</v>
       </c>
       <c r="H177" s="10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I177" s="10"/>
       <c r="J177" s="10"/>
@@ -11814,10 +11949,10 @@
     </row>
     <row r="178" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A178" s="4" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C178" s="5" t="b">
         <v>1</v>
@@ -11826,37 +11961,37 @@
         <v>21</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K178" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="N178" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
@@ -11867,10 +12002,10 @@
     </row>
     <row r="179" spans="1:21" s="4" customFormat="1">
       <c r="A179" s="4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C179" s="5" t="b">
         <v>1</v>
@@ -11879,13 +12014,13 @@
         <v>21</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>36</v>
@@ -11906,10 +12041,10 @@
     </row>
     <row r="180" spans="1:21" s="9" customFormat="1">
       <c r="A180" s="9" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C180" s="10" t="b">
         <v>1</v>
@@ -11941,10 +12076,10 @@
     </row>
     <row r="181" spans="1:21">
       <c r="A181" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C181" s="6" t="b">
         <v>1</v>
@@ -11953,7 +12088,7 @@
         <v>21</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>30</v>
@@ -11976,10 +12111,10 @@
     </row>
     <row r="182" spans="1:21">
       <c r="A182" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C182" s="6" t="b">
         <v>1</v>
@@ -11988,13 +12123,13 @@
         <v>21</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>36</v>
@@ -12015,10 +12150,10 @@
     </row>
     <row r="183" spans="1:21">
       <c r="A183" s="3" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C183" s="6" t="b">
         <v>1</v>
@@ -12027,7 +12162,7 @@
         <v>21</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>27</v>
@@ -12054,10 +12189,10 @@
     </row>
     <row r="184" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A184" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C184" s="5" t="b">
         <v>1</v>
@@ -12066,7 +12201,7 @@
         <v>21</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>58</v>
@@ -12075,19 +12210,19 @@
         <v>43</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K184" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="M184" s="5"/>
       <c r="N184" s="5"/>
@@ -12101,10 +12236,10 @@
     </row>
     <row r="185" spans="1:21" s="4" customFormat="1">
       <c r="A185" s="4" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C185" s="5" t="b">
         <v>1</v>
@@ -12113,7 +12248,7 @@
         <v>21</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>58</v>
@@ -12122,19 +12257,19 @@
         <v>43</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K185" s="5" t="s">
         <v>58</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="M185" s="5"/>
       <c r="N185" s="5"/>
@@ -12148,10 +12283,10 @@
     </row>
     <row r="186" spans="1:21" s="4" customFormat="1">
       <c r="A186" s="4" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C186" s="5" t="b">
         <v>1</v>
@@ -12160,19 +12295,19 @@
         <v>21</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -12189,10 +12324,10 @@
     </row>
     <row r="187" spans="1:21" s="4" customFormat="1">
       <c r="A187" s="4" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C187" s="5" t="b">
         <v>1</v>
@@ -12201,7 +12336,7 @@
         <v>21</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>58</v>
@@ -12213,7 +12348,7 @@
         <v>44</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="J187" s="5" t="s">
         <v>35</v>
@@ -12222,7 +12357,7 @@
         <v>36</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
@@ -12236,10 +12371,10 @@
     </row>
     <row r="188" spans="1:21" s="4" customFormat="1">
       <c r="A188" s="4" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C188" s="5" t="b">
         <v>1</v>
@@ -12248,7 +12383,7 @@
         <v>21</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>58</v>
@@ -12260,7 +12395,7 @@
         <v>44</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="J188" s="5" t="s">
         <v>35</v>
@@ -12269,25 +12404,25 @@
         <v>36</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="N188" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="O188" s="5" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="P188" s="5" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="Q188" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="R188" s="5" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="S188" s="5"/>
       <c r="T188" s="5"/>
@@ -12295,10 +12430,10 @@
     </row>
     <row r="189" spans="1:21">
       <c r="A189" s="3" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C189" s="6" t="b">
         <v>1</v>
@@ -12307,7 +12442,7 @@
         <v>21</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>30</v>
@@ -12316,7 +12451,7 @@
         <v>31</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I189" s="6"/>
       <c r="J189" s="6" t="s">
@@ -12338,10 +12473,10 @@
     </row>
     <row r="190" spans="1:21">
       <c r="A190" s="3" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C190" s="6" t="b">
         <v>1</v>
@@ -12350,7 +12485,7 @@
         <v>21</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>30</v>
@@ -12363,7 +12498,7 @@
       </c>
       <c r="I190" s="6"/>
       <c r="J190" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K190" s="6" t="s">
         <v>36</v>
@@ -12385,10 +12520,10 @@
     </row>
     <row r="191" spans="1:21">
       <c r="A191" s="3" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C191" s="6" t="b">
         <v>1</v>
@@ -12397,7 +12532,7 @@
         <v>21</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>30</v>
@@ -12410,7 +12545,7 @@
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K191" s="6" t="s">
         <v>36</v>
@@ -12424,7 +12559,7 @@
       </c>
       <c r="O191" s="6"/>
       <c r="P191" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q191" s="6" t="s">
         <v>36</v>
@@ -12436,10 +12571,10 @@
     </row>
     <row r="192" spans="1:21">
       <c r="A192" s="3" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C192" s="6" t="b">
         <v>1</v>
@@ -12448,7 +12583,7 @@
         <v>21</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>30</v>
@@ -12461,7 +12596,7 @@
       </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K192" s="6" t="s">
         <v>36</v>
@@ -12475,7 +12610,7 @@
       </c>
       <c r="O192" s="6"/>
       <c r="P192" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q192" s="6" t="s">
         <v>36</v>
@@ -12487,10 +12622,10 @@
     </row>
     <row r="193" spans="1:21">
       <c r="A193" s="3" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C193" s="6" t="b">
         <v>1</v>
@@ -12499,7 +12634,7 @@
         <v>21</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>30</v>
@@ -12512,7 +12647,7 @@
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K193" s="6" t="s">
         <v>36</v>
@@ -12534,10 +12669,10 @@
     </row>
     <row r="194" spans="1:21">
       <c r="A194" s="3" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C194" s="6" t="b">
         <v>1</v>
@@ -12546,7 +12681,7 @@
         <v>21</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>30</v>
@@ -12559,7 +12694,7 @@
       </c>
       <c r="I194" s="6"/>
       <c r="J194" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K194" s="6" t="s">
         <v>36</v>
@@ -12573,7 +12708,7 @@
       </c>
       <c r="O194" s="6"/>
       <c r="P194" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q194" s="6" t="s">
         <v>36</v>
@@ -12585,10 +12720,10 @@
     </row>
     <row r="195" spans="1:21" s="4" customFormat="1" ht="210">
       <c r="A195" s="4" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C195" s="5" t="b">
         <v>1</v>
@@ -12597,19 +12732,19 @@
         <v>21</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="J195" s="5" t="s">
         <v>35</v>
@@ -12618,7 +12753,7 @@
         <v>36</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="M195" s="5"/>
       <c r="N195" s="5"/>
@@ -12632,10 +12767,10 @@
     </row>
     <row r="196" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A196" s="4" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C196" s="5" t="b">
         <v>1</v>
@@ -12644,7 +12779,7 @@
         <v>21</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>58</v>
@@ -12656,7 +12791,7 @@
         <v>36</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="J196" s="5" t="s">
         <v>35</v>
@@ -12665,7 +12800,7 @@
         <v>36</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="M196" s="5" t="s">
         <v>49</v>
@@ -12674,7 +12809,7 @@
         <v>36</v>
       </c>
       <c r="O196" s="8" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="P196" s="5" t="s">
         <v>50</v>
@@ -12683,24 +12818,24 @@
         <v>36</v>
       </c>
       <c r="R196" s="8" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="S196" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="T196" s="5" t="s">
         <v>36</v>
       </c>
       <c r="U196" s="8" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="197" spans="1:21" s="9" customFormat="1">
       <c r="A197" s="9" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C197" s="10" t="b">
         <v>1</v>
@@ -12722,28 +12857,28 @@
       </c>
       <c r="I197" s="10"/>
       <c r="J197" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K197" s="10" t="s">
         <v>36</v>
       </c>
       <c r="L197" s="10"/>
       <c r="M197" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N197" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O197" s="10"/>
       <c r="P197" s="10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Q197" s="10" t="s">
         <v>36</v>
       </c>
       <c r="R197" s="10"/>
       <c r="S197" s="10" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="T197" s="10" t="s">
         <v>36</v>
@@ -12752,10 +12887,10 @@
     </row>
     <row r="198" spans="1:21" s="4" customFormat="1" ht="357">
       <c r="A198" s="4" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C198" s="5" t="b">
         <v>1</v>
@@ -12764,28 +12899,28 @@
         <v>21</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H198" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="K198" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
@@ -12799,10 +12934,10 @@
     </row>
     <row r="199" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A199" s="4" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C199" s="5" t="b">
         <v>1</v>
@@ -12811,19 +12946,19 @@
         <v>21</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H199" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="J199" s="5" t="s">
         <v>68</v>
@@ -12832,7 +12967,7 @@
         <v>36</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="M199" s="5" t="s">
         <v>35</v>
@@ -12841,7 +12976,7 @@
         <v>36</v>
       </c>
       <c r="O199" s="5" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
@@ -12852,10 +12987,10 @@
     </row>
     <row r="200" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A200" s="4" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C200" s="5" t="b">
         <v>1</v>
@@ -12864,19 +12999,19 @@
         <v>21</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H200" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="J200" s="5" t="s">
         <v>68</v>
@@ -12885,7 +13020,7 @@
         <v>36</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="M200" s="5" t="s">
         <v>35</v>
@@ -12894,16 +13029,16 @@
         <v>36</v>
       </c>
       <c r="O200" s="8" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="P200" s="5" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q200" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R200" s="8" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="S200" s="5"/>
       <c r="T200" s="5"/>
@@ -12911,10 +13046,10 @@
     </row>
     <row r="201" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A201" s="4" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C201" s="5" t="b">
         <v>1</v>
@@ -12923,28 +13058,28 @@
         <v>21</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G201" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I201" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="H201" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I201" s="5" t="s">
-        <v>976</v>
-      </c>
       <c r="J201" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K201" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="M201" s="5"/>
       <c r="N201" s="5"/>
@@ -12958,10 +13093,10 @@
     </row>
     <row r="202" spans="1:21" s="4" customFormat="1">
       <c r="A202" s="4" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C202" s="5" t="b">
         <v>1</v>
@@ -12970,28 +13105,28 @@
         <v>21</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G202" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I202" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="H202" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I202" s="5" t="s">
-        <v>976</v>
-      </c>
       <c r="J202" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K202" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="M202" s="5"/>
       <c r="N202" s="5"/>
@@ -13005,10 +13140,10 @@
     </row>
     <row r="203" spans="1:21" s="4" customFormat="1" ht="63">
       <c r="A203" s="4" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C203" s="5" t="b">
         <v>1</v>
@@ -13017,19 +13152,19 @@
         <v>21</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G203" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I203" s="5" t="s">
         <v>967</v>
-      </c>
-      <c r="H203" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I203" s="5" t="s">
-        <v>976</v>
       </c>
       <c r="J203" s="5" t="s">
         <v>35</v>
@@ -13038,7 +13173,7 @@
         <v>36</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="M203" s="5"/>
       <c r="N203" s="5"/>
@@ -13052,10 +13187,10 @@
     </row>
     <row r="204" spans="1:21" s="4" customFormat="1" ht="126">
       <c r="A204" s="4" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C204" s="5" t="b">
         <v>1</v>
@@ -13064,19 +13199,19 @@
         <v>21</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -13093,10 +13228,10 @@
     </row>
     <row r="205" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A205" s="4" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C205" s="5" t="b">
         <v>1</v>
@@ -13105,28 +13240,28 @@
         <v>21</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G205" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I205" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="H205" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I205" s="5" t="s">
+      <c r="J205" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L205" s="8" t="s">
         <v>976</v>
-      </c>
-      <c r="J205" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="K205" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L205" s="8" t="s">
-        <v>985</v>
       </c>
       <c r="M205" s="5"/>
       <c r="N205" s="5"/>
@@ -13140,10 +13275,10 @@
     </row>
     <row r="206" spans="1:21" s="4" customFormat="1">
       <c r="A206" s="4" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C206" s="5" t="b">
         <v>1</v>
@@ -13152,37 +13287,37 @@
         <v>21</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H206" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K206" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="M206" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="N206" s="5" t="s">
         <v>34</v>
       </c>
       <c r="O206" s="5" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="P206" s="5"/>
       <c r="Q206" s="5"/>
@@ -13193,10 +13328,10 @@
     </row>
     <row r="207" spans="1:21">
       <c r="A207" s="3" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C207" s="6" t="b">
         <v>1</v>
@@ -13205,7 +13340,7 @@
         <v>21</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>30</v>
@@ -13214,7 +13349,7 @@
         <v>31</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6" t="s">
@@ -13236,10 +13371,10 @@
     </row>
     <row r="208" spans="1:21">
       <c r="A208" s="3" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C208" s="6" t="b">
         <v>1</v>
@@ -13248,7 +13383,7 @@
         <v>21</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>30</v>
@@ -13257,7 +13392,7 @@
         <v>31</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="6" t="s">
@@ -13279,10 +13414,10 @@
     </row>
     <row r="209" spans="1:21">
       <c r="A209" s="3" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C209" s="6" t="b">
         <v>1</v>
@@ -13291,7 +13426,7 @@
         <v>21</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>30</v>
@@ -13300,11 +13435,11 @@
         <v>31</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K209" s="6" t="s">
         <v>36</v>
@@ -13322,10 +13457,10 @@
     </row>
     <row r="210" spans="1:21">
       <c r="A210" s="3" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C210" s="6" t="b">
         <v>1</v>
@@ -13334,7 +13469,7 @@
         <v>21</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>30</v>
@@ -13365,10 +13500,10 @@
     </row>
     <row r="211" spans="1:21">
       <c r="A211" s="3" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C211" s="6" t="b">
         <v>1</v>
@@ -13377,7 +13512,7 @@
         <v>21</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>58</v>
@@ -13390,7 +13525,7 @@
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K211" s="6" t="s">
         <v>36</v>
@@ -13416,10 +13551,10 @@
     </row>
     <row r="212" spans="1:21" s="4" customFormat="1" ht="189">
       <c r="A212" s="4" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C212" s="5" t="b">
         <v>1</v>
@@ -13428,19 +13563,19 @@
         <v>21</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I212" s="8" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -13457,10 +13592,10 @@
     </row>
     <row r="213" spans="1:21">
       <c r="A213" s="3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C213" s="6" t="b">
         <v>1</v>
@@ -13469,27 +13604,27 @@
         <v>21</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K213" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L213" s="6"/>
       <c r="M213" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="N213" s="6" t="s">
         <v>58</v>
@@ -13504,10 +13639,10 @@
     </row>
     <row r="214" spans="1:21">
       <c r="A214" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C214" s="6" t="b">
         <v>1</v>
@@ -13516,20 +13651,20 @@
         <v>21</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K214" s="6" t="s">
         <v>36</v>
@@ -13551,10 +13686,10 @@
     </row>
     <row r="215" spans="1:21">
       <c r="A215" s="3" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C215" s="6" t="b">
         <v>1</v>
@@ -13563,27 +13698,27 @@
         <v>21</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K215" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L215" s="6"/>
       <c r="M215" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="N215" s="6" t="s">
         <v>36</v>
@@ -13598,10 +13733,10 @@
     </row>
     <row r="216" spans="1:21">
       <c r="A216" s="3" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C216" s="6" t="b">
         <v>1</v>
@@ -13610,7 +13745,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>30</v>
@@ -13623,21 +13758,21 @@
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="K216" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L216" s="6"/>
       <c r="M216" s="6" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="N216" s="6" t="s">
         <v>36</v>
       </c>
       <c r="O216" s="6"/>
       <c r="P216" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="Q216" s="6" t="s">
         <v>36</v>
@@ -13649,10 +13784,10 @@
     </row>
     <row r="217" spans="1:21" s="4" customFormat="1" ht="231">
       <c r="A217" s="4" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C217" s="5" t="b">
         <v>1</v>
@@ -13661,19 +13796,19 @@
         <v>21</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I217" s="8" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="J217" s="5" t="s">
         <v>71</v>
@@ -13682,7 +13817,7 @@
         <v>36</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="M217" s="5" t="s">
         <v>35</v>
@@ -13691,7 +13826,7 @@
         <v>36</v>
       </c>
       <c r="O217" s="8" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="P217" s="5"/>
       <c r="Q217" s="5"/>
@@ -13702,10 +13837,10 @@
     </row>
     <row r="218" spans="1:21" s="4" customFormat="1">
       <c r="A218" s="4" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C218" s="5" t="b">
         <v>1</v>
@@ -13714,19 +13849,19 @@
         <v>21</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="J218" s="5" t="s">
         <v>35</v>
@@ -13735,7 +13870,7 @@
         <v>36</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="M218" s="5"/>
       <c r="N218" s="5"/>
@@ -13749,10 +13884,10 @@
     </row>
     <row r="219" spans="1:21">
       <c r="A219" s="3" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C219" s="6" t="b">
         <v>1</v>
@@ -13761,13 +13896,13 @@
         <v>21</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>36</v>
@@ -13788,10 +13923,10 @@
     </row>
     <row r="220" spans="1:21" s="4" customFormat="1">
       <c r="A220" s="4" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C220" s="5" t="b">
         <v>1</v>
@@ -13800,7 +13935,7 @@
         <v>21</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>30</v>
@@ -13812,7 +13947,7 @@
         <v>36</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="J220" s="5" t="s">
         <v>35</v>
@@ -13821,7 +13956,7 @@
         <v>36</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="M220" s="5"/>
       <c r="N220" s="5"/>
@@ -13835,10 +13970,10 @@
     </row>
     <row r="221" spans="1:21" s="4" customFormat="1">
       <c r="A221" s="4" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C221" s="5" t="b">
         <v>1</v>
@@ -13847,19 +13982,19 @@
         <v>21</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="J221" s="5" t="s">
         <v>35</v>
@@ -13868,7 +14003,7 @@
         <v>36</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M221" s="5"/>
       <c r="N221" s="5"/>
@@ -13882,10 +14017,10 @@
     </row>
     <row r="222" spans="1:21">
       <c r="A222" s="3" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C222" s="6" t="b">
         <v>1</v>
@@ -13894,7 +14029,7 @@
         <v>21</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>58</v>
@@ -13907,7 +14042,7 @@
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="K222" s="6" t="s">
         <v>34</v>
@@ -13925,10 +14060,10 @@
     </row>
     <row r="223" spans="1:21">
       <c r="A223" s="3" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C223" s="6" t="b">
         <v>1</v>
@@ -13937,7 +14072,7 @@
         <v>21</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>30</v>
@@ -13964,10 +14099,10 @@
     </row>
     <row r="224" spans="1:21">
       <c r="A224" s="3" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C224" s="6" t="b">
         <v>1</v>
@@ -13976,13 +14111,13 @@
         <v>21</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>36</v>
@@ -14003,10 +14138,10 @@
     </row>
     <row r="225" spans="1:21" s="4" customFormat="1" ht="336">
       <c r="A225" s="4" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C225" s="5" t="b">
         <v>1</v>
@@ -14015,19 +14150,19 @@
         <v>21</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I225" s="8" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
@@ -14044,10 +14179,10 @@
     </row>
     <row r="226" spans="1:21">
       <c r="A226" s="3" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C226" s="6" t="b">
         <v>1</v>
@@ -14056,7 +14191,7 @@
         <v>21</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>30</v>
@@ -14065,11 +14200,11 @@
         <v>31</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K226" s="6" t="s">
         <v>36</v>
@@ -14087,10 +14222,10 @@
     </row>
     <row r="227" spans="1:21">
       <c r="A227" s="3" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C227" s="6" t="b">
         <v>1</v>
@@ -14099,7 +14234,7 @@
         <v>21</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>30</v>
@@ -14108,7 +14243,7 @@
         <v>31</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6" t="s">
@@ -14130,10 +14265,10 @@
     </row>
     <row r="228" spans="1:21">
       <c r="A228" s="3" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C228" s="6" t="b">
         <v>1</v>
@@ -14142,13 +14277,13 @@
         <v>21</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>36</v>
@@ -14173,10 +14308,10 @@
     </row>
     <row r="229" spans="1:21">
       <c r="A229" s="3" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C229" s="6" t="b">
         <v>1</v>
@@ -14185,13 +14320,13 @@
         <v>21</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>36</v>
@@ -14212,10 +14347,10 @@
     </row>
     <row r="230" spans="1:21">
       <c r="A230" s="3" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C230" s="6" t="b">
         <v>1</v>
@@ -14224,13 +14359,13 @@
         <v>21</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>36</v>
@@ -14251,10 +14386,10 @@
     </row>
     <row r="231" spans="1:21">
       <c r="A231" s="3" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C231" s="6" t="b">
         <v>1</v>
@@ -14263,7 +14398,7 @@
         <v>21</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>30</v>
@@ -14276,14 +14411,14 @@
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K231" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="N231" s="6" t="s">
         <v>36</v>
@@ -14302,10 +14437,10 @@
     </row>
     <row r="232" spans="1:21">
       <c r="A232" s="3" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C232" s="6" t="b">
         <v>1</v>
@@ -14314,13 +14449,13 @@
         <v>21</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H232" s="6" t="s">
         <v>36</v>
@@ -14341,10 +14476,10 @@
     </row>
     <row r="233" spans="1:21" s="4" customFormat="1" ht="126">
       <c r="A233" s="4" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C233" s="5" t="b">
         <v>1</v>
@@ -14353,19 +14488,19 @@
         <v>21</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I233" s="8" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="J233" s="5" t="s">
         <v>35</v>
@@ -14374,7 +14509,7 @@
         <v>36</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="M233" s="5"/>
       <c r="N233" s="5"/>
@@ -14388,10 +14523,10 @@
     </row>
     <row r="234" spans="1:21">
       <c r="A234" s="3" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C234" s="6" t="b">
         <v>1</v>
@@ -14400,7 +14535,7 @@
         <v>21</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>58</v>
@@ -14435,10 +14570,10 @@
     </row>
     <row r="235" spans="1:21" s="4" customFormat="1">
       <c r="A235" s="4" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C235" s="5" t="b">
         <v>1</v>
@@ -14447,7 +14582,7 @@
         <v>21</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>58</v>
@@ -14456,10 +14591,10 @@
         <v>24</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
@@ -14476,10 +14611,10 @@
     </row>
     <row r="236" spans="1:21" s="4" customFormat="1">
       <c r="A236" s="4" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C236" s="5" t="b">
         <v>1</v>
@@ -14488,28 +14623,28 @@
         <v>21</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H236" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="K236" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="M236" s="5"/>
       <c r="N236" s="5"/>
@@ -14523,10 +14658,10 @@
     </row>
     <row r="237" spans="1:21" s="4" customFormat="1">
       <c r="A237" s="4" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C237" s="5" t="b">
         <v>1</v>
@@ -14535,28 +14670,28 @@
         <v>21</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="K237" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="M237" s="5"/>
       <c r="N237" s="5"/>
@@ -14570,10 +14705,10 @@
     </row>
     <row r="238" spans="1:21" s="9" customFormat="1">
       <c r="A238" s="9" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C238" s="10" t="b">
         <v>1</v>
@@ -14605,10 +14740,10 @@
     </row>
     <row r="239" spans="1:21" s="4" customFormat="1">
       <c r="A239" s="4" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C239" s="5" t="b">
         <v>1</v>
@@ -14617,7 +14752,7 @@
         <v>21</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>58</v>
@@ -14629,7 +14764,7 @@
         <v>36</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
@@ -14646,10 +14781,10 @@
     </row>
     <row r="240" spans="1:21" s="4" customFormat="1">
       <c r="A240" s="4" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C240" s="5" t="b">
         <v>1</v>
@@ -14658,7 +14793,7 @@
         <v>21</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>27</v>
@@ -14670,7 +14805,7 @@
         <v>28</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
@@ -14687,10 +14822,10 @@
     </row>
     <row r="241" spans="1:21" s="9" customFormat="1">
       <c r="A241" s="9" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C241" s="10" t="b">
         <v>1</v>
@@ -14712,7 +14847,7 @@
       </c>
       <c r="I241" s="10"/>
       <c r="J241" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K241" s="10" t="s">
         <v>36</v>
@@ -14730,10 +14865,10 @@
     </row>
     <row r="242" spans="1:21" s="9" customFormat="1">
       <c r="A242" s="9" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C242" s="10" t="b">
         <v>1</v>
@@ -14755,7 +14890,7 @@
       </c>
       <c r="I242" s="10"/>
       <c r="J242" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K242" s="10" t="s">
         <v>36</v>
@@ -14773,10 +14908,10 @@
     </row>
     <row r="243" spans="1:21" s="9" customFormat="1">
       <c r="A243" s="9" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C243" s="10" t="b">
         <v>1</v>
@@ -14798,7 +14933,7 @@
       </c>
       <c r="I243" s="10"/>
       <c r="J243" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K243" s="10" t="s">
         <v>36</v>
@@ -14816,10 +14951,10 @@
     </row>
     <row r="244" spans="1:21" s="9" customFormat="1">
       <c r="A244" s="9" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C244" s="10" t="b">
         <v>1</v>
@@ -14841,7 +14976,7 @@
       </c>
       <c r="I244" s="10"/>
       <c r="J244" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K244" s="10" t="s">
         <v>36</v>
@@ -14859,10 +14994,10 @@
     </row>
     <row r="245" spans="1:21" s="9" customFormat="1">
       <c r="A245" s="9" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C245" s="10" t="b">
         <v>1</v>
@@ -14884,7 +15019,7 @@
       </c>
       <c r="I245" s="10"/>
       <c r="J245" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K245" s="10" t="s">
         <v>36</v>
@@ -14902,10 +15037,10 @@
     </row>
     <row r="246" spans="1:21" s="4" customFormat="1" ht="168">
       <c r="A246" s="4" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C246" s="5" t="b">
         <v>1</v>
@@ -14914,7 +15049,7 @@
         <v>21</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>30</v>
@@ -14923,19 +15058,19 @@
         <v>43</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K246" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L246" s="8" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="M246" s="5"/>
       <c r="N246" s="5"/>
@@ -14949,10 +15084,10 @@
     </row>
     <row r="247" spans="1:21" s="4" customFormat="1" ht="168">
       <c r="A247" s="4" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>1</v>
@@ -14961,7 +15096,7 @@
         <v>21</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>30</v>
@@ -14970,37 +15105,37 @@
         <v>43</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K247" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L247" s="8" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="O247" s="5" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="Q247" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="R247" s="5" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="S247" s="5"/>
       <c r="T247" s="5"/>
@@ -15008,10 +15143,10 @@
     </row>
     <row r="248" spans="1:21" s="4" customFormat="1">
       <c r="A248" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>1</v>
@@ -15020,7 +15155,7 @@
         <v>21</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>27</v>
@@ -15032,7 +15167,7 @@
         <v>28</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
@@ -15049,10 +15184,10 @@
     </row>
     <row r="249" spans="1:21">
       <c r="A249" s="3" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C249" s="6" t="b">
         <v>1</v>
@@ -15061,13 +15196,13 @@
         <v>21</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F249" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="H249" s="6" t="s">
         <v>36</v>
@@ -15092,10 +15227,10 @@
     </row>
     <row r="250" spans="1:21" s="4" customFormat="1">
       <c r="A250" s="4" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>1</v>
@@ -15104,7 +15239,7 @@
         <v>21</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>27</v>
@@ -15116,7 +15251,7 @@
         <v>28</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J250" s="5"/>
       <c r="K250" s="5"/>
@@ -15133,10 +15268,10 @@
     </row>
     <row r="251" spans="1:21">
       <c r="A251" s="3" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C251" s="6" t="b">
         <v>1</v>
@@ -15145,13 +15280,13 @@
         <v>21</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H251" s="6" t="s">
         <v>36</v>
@@ -15172,10 +15307,10 @@
     </row>
     <row r="252" spans="1:21" s="9" customFormat="1">
       <c r="A252" s="9" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C252" s="10" t="b">
         <v>1</v>
@@ -15211,10 +15346,10 @@
     </row>
     <row r="253" spans="1:21">
       <c r="A253" s="3" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C253" s="6" t="b">
         <v>1</v>
@@ -15223,13 +15358,13 @@
         <v>21</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="H253" s="6" t="s">
         <v>36</v>
@@ -15250,10 +15385,10 @@
     </row>
     <row r="254" spans="1:21">
       <c r="A254" s="3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C254" s="6" t="b">
         <v>1</v>
@@ -15262,13 +15397,13 @@
         <v>21</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H254" s="6" t="s">
         <v>36</v>
@@ -15289,10 +15424,10 @@
     </row>
     <row r="255" spans="1:21">
       <c r="A255" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C255" s="6" t="b">
         <v>1</v>
@@ -15301,13 +15436,13 @@
         <v>21</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="H255" s="6" t="s">
         <v>36</v>
@@ -15328,10 +15463,10 @@
     </row>
     <row r="256" spans="1:21" s="4" customFormat="1">
       <c r="A256" s="4" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>1</v>
@@ -15340,28 +15475,28 @@
         <v>21</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="K256" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="M256" s="5"/>
       <c r="N256" s="5"/>
@@ -15375,10 +15510,10 @@
     </row>
     <row r="257" spans="1:21" s="4" customFormat="1">
       <c r="A257" s="4" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>1</v>
@@ -15387,19 +15522,19 @@
         <v>21</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
@@ -15416,10 +15551,10 @@
     </row>
     <row r="258" spans="1:21">
       <c r="A258" s="3" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C258" s="6" t="b">
         <v>1</v>
@@ -15428,13 +15563,13 @@
         <v>21</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H258" s="6" t="s">
         <v>36</v>
@@ -15455,10 +15590,10 @@
     </row>
     <row r="259" spans="1:21">
       <c r="A259" s="3" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C259" s="6" t="b">
         <v>1</v>
@@ -15467,20 +15602,20 @@
         <v>21</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F259" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H259" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I259" s="6"/>
       <c r="J259" s="6" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="K259" s="6" t="s">
         <v>36</v>
@@ -15498,10 +15633,10 @@
     </row>
     <row r="260" spans="1:21">
       <c r="A260" s="3" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C260" s="6" t="b">
         <v>1</v>
@@ -15510,20 +15645,20 @@
         <v>21</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F260" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H260" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I260" s="6"/>
       <c r="J260" s="6" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="K260" s="6" t="s">
         <v>36</v>
@@ -15541,10 +15676,10 @@
     </row>
     <row r="261" spans="1:21">
       <c r="A261" s="3" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C261" s="6" t="b">
         <v>1</v>
@@ -15553,20 +15688,20 @@
         <v>21</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F261" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H261" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="6" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K261" s="6" t="s">
         <v>36</v>
@@ -15584,10 +15719,10 @@
     </row>
     <row r="262" spans="1:21">
       <c r="A262" s="3" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C262" s="6" t="b">
         <v>1</v>
@@ -15596,20 +15731,20 @@
         <v>21</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H262" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I262" s="6"/>
       <c r="J262" s="6" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="K262" s="6" t="s">
         <v>36</v>
@@ -15627,10 +15762,10 @@
     </row>
     <row r="263" spans="1:21">
       <c r="A263" s="3" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C263" s="6" t="b">
         <v>1</v>
@@ -15639,20 +15774,20 @@
         <v>21</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H263" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K263" s="6" t="s">
         <v>36</v>
@@ -15669,7 +15804,6 @@
       <c r="U263" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U263" xr:uid="{B908B299-4F75-844A-A249-1074154E3B6D}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data/Symbols/wip_command.xlsx
+++ b/Data/Symbols/wip_command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/Develop/OSS/KSPCompiler/Data/Symbols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC64DAE-0C47-2445-9842-7682306E3EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC18ACB-BC5A-E842-BF4A-CAE205A53489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67200" yWindow="-25400" windowWidth="67200" windowHeight="37300" xr2:uid="{ECCE2DBE-05D5-9D4A-9DC9-05F8F762E943}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1076">
   <si>
     <t>Name</t>
   </si>
@@ -1136,9 +1136,6 @@
     <t>set_listener</t>
   </si>
   <si>
-    <t>Sets the signals on which the listener callback should react to. Can only&lt;br&gt;  be used in the init callback.</t>
-  </si>
-  <si>
     <t>set_loop_par</t>
   </si>
   <si>
@@ -1412,9 +1409,6 @@
     <t>Connects the corresponding zone to the waveform so that it shows up&lt;br&gt;  within the display</t>
   </si>
   <si>
-    <t>Changes the parameters of the on listener callback. Can be used in every&lt;br&gt;  callback.</t>
-  </si>
-  <si>
     <t>Disallows the specified group, i.e. makes it unavailable for playback</t>
   </si>
   <si>
@@ -1478,15 +1472,9 @@
     <t>Position ui elements in pixels</t>
   </si>
   <si>
-    <t>Converts a microseconds value into a tempo dependent ticks value</t>
-  </si>
-  <si>
     <t>Returns the number of slices of the specified zone</t>
   </si>
   <si>
-    <t>Resets the KSP timer ($KSP_TIMER) to zero</t>
-  </si>
-  <si>
     <t>Dresets the release trigger counter (used by the release trigger system&lt;br&gt;  script)</t>
   </si>
   <si>
@@ -1548,21 +1536,6 @@
   </si>
   <si>
     <t>Set the width of a script performance view in pixels</t>
-  </si>
-  <si>
-    <t>Stops wait commands in the specified callback</t>
-  </si>
-  <si>
-    <t>Converts a tempo dependent ticks value into a microseconds value</t>
-  </si>
-  <si>
-    <t>Pauses the callback for the specified time in microseconds</t>
-  </si>
-  <si>
-    <t>Waits until the async command identified by the &lt;asyncID&gt; is&lt;br&gt;  finished</t>
-  </si>
-  <si>
-    <t>Pauses the callback for the specified time in ticks</t>
   </si>
   <si>
     <t>Returns the index number of the slice at the loop end</t>
@@ -3827,6 +3800,79 @@
 - $NI_DETECT_INSTRUMENT_TYPE_REED
 - $NI_DETECT_INSTRUMENT_TYPE_SYNTH
 - $NI_DETECT_INSTRUMENT_TYPE_VOCAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Changes the parameters of the `on listener` callback. It can be used in any callback.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The signal to be changed, can be:
+- $NI_SIGNAL_TIMER_MS
+- $NI_SIGNAL_TIMER_BEAT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dependent on the specified signal type:
+- $NI_SIGNAL_TIMER_MS: Time interval in microseconds (minimum value is 1000 microseconds, which equals one millisecond)
+- $NI_SIGNAL_TIMER_BEAT: Time interval in fractions of a beat/quarter note (1 ... 24)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Converts a microseconds value into a value in tempo-dependent MIDI ticks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sets the signals on which the listener callback should react to. Can only be used in the `on init` callback.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The event on which the listener callback should react. The following types are available:
+- $NI_SIGNAL_TRANSP_STOP
+- $NI_SIGNAL_TRANSP_START
+- $NI_SIGNAL_TIMER_MS
+- $NI_SIGNAL_TIMER_BEAT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User defined parameter, dependant on the specified signal type:
+- $NI_SIGNAL_TIMER_MS: Time interval in microseconds (minimum value is 1000, which equals one millisecond)
+- $NI_SIGNAL_TIMER_BEAT: Time interval in fractions of a beat/quarter note (1 ... 24)
+- $NI_SIGNAL_TRANSP_START: Set to 1 if the listener callback should react to the host's transport start command
+- $NI_SIGNAL_TRANSP_STOP: Set to 1 if the listener callback should react to the host's transport stop command</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stops wait commands in the specified callback.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The callback’s ID number in which the wait commands will be stopped.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- 0: stops only the current wait.
+- 1: stops the current wait and ignores all following wait commands in this callback.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resets the KSP timer built-in variable ($KSP_TIMER) to zero.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Converts a tempo-dependent MIDI ticks value into a value in microseconds.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pauses the callback for the specified time in microseconds.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Waits until the async command identified by the `async-id` is finished.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pauses the callback for the specified time in MIDI ticks.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4285,10 +4331,10 @@
   <dimension ref="A1:U263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C234" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4316,7 +4362,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4381,7 +4427,7 @@
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
@@ -4405,7 +4451,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -4422,7 +4468,7 @@
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
@@ -4434,7 +4480,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -4446,7 +4492,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -4463,7 +4509,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>29</v>
@@ -4475,7 +4521,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>30</v>
@@ -4510,7 +4556,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -4522,7 +4568,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>30</v>
@@ -4553,7 +4599,7 @@
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>39</v>
@@ -4565,7 +4611,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>30</v>
@@ -4592,7 +4638,7 @@
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="42">
       <c r="A7" s="4" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>41</v>
@@ -4604,7 +4650,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>42</v>
@@ -4635,7 +4681,7 @@
     </row>
     <row r="8" spans="1:21" s="4" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>45</v>
@@ -4657,7 +4703,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -4674,7 +4720,7 @@
     </row>
     <row r="9" spans="1:21" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>46</v>
@@ -4686,7 +4732,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
@@ -4698,7 +4744,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4715,7 +4761,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="3" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>47</v>
@@ -4768,7 +4814,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="3" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>53</v>
@@ -4780,7 +4826,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>30</v>
@@ -4815,7 +4861,7 @@
     </row>
     <row r="12" spans="1:21" s="4" customFormat="1" ht="147">
       <c r="A12" s="4" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>57</v>
@@ -4827,19 +4873,19 @@
         <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4856,7 +4902,7 @@
     </row>
     <row r="13" spans="1:21" s="4" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>59</v>
@@ -4868,7 +4914,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>58</v>
@@ -4880,7 +4926,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -4897,7 +4943,7 @@
     </row>
     <row r="14" spans="1:21" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>61</v>
@@ -4909,7 +4955,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
@@ -4921,7 +4967,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4936,48 +4982,48 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:21" s="9" customFormat="1">
+      <c r="A15" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="H15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" s="4" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>65</v>
@@ -4989,7 +5035,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>27</v>
@@ -5001,7 +5047,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -5016,52 +5062,56 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A17" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="C17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
+      <c r="H17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="K17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
     </row>
     <row r="18" spans="1:21" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>69</v>
@@ -5073,13 +5123,13 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>36</v>
@@ -5104,7 +5154,7 @@
     </row>
     <row r="19" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A19" s="4" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>72</v>
@@ -5116,19 +5166,19 @@
         <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>73</v>
@@ -5137,7 +5187,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>74</v>
@@ -5146,7 +5196,7 @@
         <v>36</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -5157,7 +5207,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>75</v>
@@ -5198,7 +5248,7 @@
     </row>
     <row r="21" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A21" s="4" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>76</v>
@@ -5210,19 +5260,19 @@
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>77</v>
@@ -5231,7 +5281,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>74</v>
@@ -5240,7 +5290,7 @@
         <v>36</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -5251,7 +5301,7 @@
     </row>
     <row r="22" spans="1:21" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>78</v>
@@ -5263,13 +5313,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>36</v>
@@ -5294,7 +5344,7 @@
     </row>
     <row r="23" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A23" s="4" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>80</v>
@@ -5306,19 +5356,19 @@
         <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>81</v>
@@ -5327,7 +5377,7 @@
         <v>36</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>74</v>
@@ -5336,7 +5386,7 @@
         <v>36</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -5347,7 +5397,7 @@
     </row>
     <row r="24" spans="1:21" s="4" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>82</v>
@@ -5359,7 +5409,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>27</v>
@@ -5371,7 +5421,7 @@
         <v>28</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -5388,7 +5438,7 @@
     </row>
     <row r="25" spans="1:21" s="4" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>83</v>
@@ -5400,7 +5450,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>30</v>
@@ -5412,7 +5462,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -5429,7 +5479,7 @@
     </row>
     <row r="26" spans="1:21" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>84</v>
@@ -5441,19 +5491,19 @@
         <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>85</v>
@@ -5462,7 +5512,7 @@
         <v>36</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -5476,7 +5526,7 @@
     </row>
     <row r="27" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A27" s="4" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>86</v>
@@ -5488,7 +5538,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>27</v>
@@ -5500,7 +5550,7 @@
         <v>36</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>87</v>
@@ -5509,7 +5559,7 @@
         <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -5523,7 +5573,7 @@
     </row>
     <row r="28" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A28" s="4" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>88</v>
@@ -5535,7 +5585,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>58</v>
@@ -5547,7 +5597,7 @@
         <v>36</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>89</v>
@@ -5556,7 +5606,7 @@
         <v>36</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -5570,7 +5620,7 @@
     </row>
     <row r="29" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A29" s="4" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>90</v>
@@ -5582,7 +5632,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>58</v>
@@ -5594,7 +5644,7 @@
         <v>36</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>91</v>
@@ -5603,7 +5653,7 @@
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -5617,7 +5667,7 @@
     </row>
     <row r="30" spans="1:21" s="4" customFormat="1">
       <c r="A30" s="4" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>92</v>
@@ -5629,7 +5679,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>27</v>
@@ -5641,7 +5691,7 @@
         <v>36</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>93</v>
@@ -5650,7 +5700,7 @@
         <v>28</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -5664,7 +5714,7 @@
     </row>
     <row r="31" spans="1:21" s="4" customFormat="1">
       <c r="A31" s="4" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>94</v>
@@ -5676,7 +5726,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>58</v>
@@ -5688,7 +5738,7 @@
         <v>36</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>95</v>
@@ -5697,7 +5747,7 @@
         <v>28</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -5711,7 +5761,7 @@
     </row>
     <row r="32" spans="1:21" s="4" customFormat="1">
       <c r="A32" s="4" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>96</v>
@@ -5723,7 +5773,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>27</v>
@@ -5735,7 +5785,7 @@
         <v>36</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>97</v>
@@ -5744,7 +5794,7 @@
         <v>28</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -5758,7 +5808,7 @@
     </row>
     <row r="33" spans="1:21" s="4" customFormat="1">
       <c r="A33" s="4" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>98</v>
@@ -5770,7 +5820,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>27</v>
@@ -5782,7 +5832,7 @@
         <v>36</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>99</v>
@@ -5791,7 +5841,7 @@
         <v>28</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -5805,7 +5855,7 @@
     </row>
     <row r="34" spans="1:21" s="4" customFormat="1" ht="252">
       <c r="A34" s="4" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>100</v>
@@ -5817,7 +5867,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>58</v>
@@ -5829,7 +5879,7 @@
         <v>36</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>101</v>
@@ -5838,7 +5888,7 @@
         <v>36</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -5852,7 +5902,7 @@
     </row>
     <row r="35" spans="1:21" s="4" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>102</v>
@@ -5864,7 +5914,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>27</v>
@@ -5876,7 +5926,7 @@
         <v>36</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>103</v>
@@ -5885,7 +5935,7 @@
         <v>28</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -5899,7 +5949,7 @@
     </row>
     <row r="36" spans="1:21" s="4" customFormat="1" ht="63">
       <c r="A36" s="4" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>104</v>
@@ -5911,19 +5961,19 @@
         <v>21</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5940,7 +5990,7 @@
     </row>
     <row r="37" spans="1:21" s="4" customFormat="1">
       <c r="A37" s="4" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>106</v>
@@ -5952,7 +6002,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>30</v>
@@ -5979,7 +6029,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="3" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>107</v>
@@ -5991,7 +6041,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>30</v>
@@ -6018,7 +6068,7 @@
     </row>
     <row r="39" spans="1:21" s="4" customFormat="1" ht="168">
       <c r="A39" s="4" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>108</v>
@@ -6030,19 +6080,19 @@
         <v>21</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -6059,7 +6109,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="3" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>109</v>
@@ -6071,7 +6121,7 @@
         <v>21</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>30</v>
@@ -6094,7 +6144,7 @@
     </row>
     <row r="41" spans="1:21" s="4" customFormat="1">
       <c r="A41" s="4" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>110</v>
@@ -6106,7 +6156,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>27</v>
@@ -6118,7 +6168,7 @@
         <v>28</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -6135,10 +6185,10 @@
     </row>
     <row r="42" spans="1:21" s="4" customFormat="1">
       <c r="A42" s="4" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C42" s="5" t="b">
         <v>1</v>
@@ -6147,7 +6197,7 @@
         <v>21</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>27</v>
@@ -6159,7 +6209,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -6176,7 +6226,7 @@
     </row>
     <row r="43" spans="1:21" s="4" customFormat="1">
       <c r="A43" s="4" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>111</v>
@@ -6188,19 +6238,19 @@
         <v>21</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>112</v>
@@ -6209,7 +6259,7 @@
         <v>36</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -6223,7 +6273,7 @@
     </row>
     <row r="44" spans="1:21" s="4" customFormat="1" ht="147">
       <c r="A44" s="4" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>113</v>
@@ -6235,19 +6285,19 @@
         <v>21</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>112</v>
@@ -6256,7 +6306,7 @@
         <v>36</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>114</v>
@@ -6265,7 +6315,7 @@
         <v>36</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -6276,7 +6326,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>115</v>
@@ -6288,7 +6338,7 @@
         <v>21</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>58</v>
@@ -6315,7 +6365,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>117</v>
@@ -6358,7 +6408,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>119</v>
@@ -6370,7 +6420,7 @@
         <v>21</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>58</v>
@@ -6405,7 +6455,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="3" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>122</v>
@@ -6417,7 +6467,7 @@
         <v>21</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>58</v>
@@ -6444,7 +6494,7 @@
     </row>
     <row r="49" spans="1:21" s="4" customFormat="1">
       <c r="A49" s="4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>124</v>
@@ -6456,7 +6506,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>27</v>
@@ -6468,7 +6518,7 @@
         <v>28</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6485,7 +6535,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="3" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>125</v>
@@ -6497,7 +6547,7 @@
         <v>21</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>34</v>
@@ -6528,7 +6578,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="3" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>127</v>
@@ -6540,7 +6590,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>30</v>
@@ -6571,7 +6621,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="3" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>129</v>
@@ -6583,7 +6633,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>58</v>
@@ -6614,7 +6664,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="3" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>131</v>
@@ -6661,7 +6711,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="3" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>134</v>
@@ -6708,7 +6758,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="3" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>135</v>
@@ -6751,7 +6801,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="3" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>136</v>
@@ -6798,7 +6848,7 @@
     </row>
     <row r="57" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A57" s="4" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>137</v>
@@ -6810,7 +6860,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>58</v>
@@ -6822,7 +6872,7 @@
         <v>36</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>49</v>
@@ -6831,7 +6881,7 @@
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>50</v>
@@ -6840,7 +6890,7 @@
         <v>36</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>138</v>
@@ -6849,7 +6899,7 @@
         <v>36</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
@@ -6857,7 +6907,7 @@
     </row>
     <row r="58" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A58" s="4" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>139</v>
@@ -6869,19 +6919,19 @@
         <v>21</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>49</v>
@@ -6890,7 +6940,7 @@
         <v>36</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>50</v>
@@ -6899,7 +6949,7 @@
         <v>36</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>138</v>
@@ -6908,7 +6958,7 @@
         <v>36</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
@@ -6916,72 +6966,72 @@
     </row>
     <row r="59" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A59" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="C59" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="O59" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="C59" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="P59" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="U59" s="8" t="s">
         <v>875</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="P59" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="Q59" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="R59" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="S59" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="T59" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="U59" s="8" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="3" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>140</v>
@@ -7032,7 +7082,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="3" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>142</v>
@@ -7083,7 +7133,7 @@
     </row>
     <row r="62" spans="1:21" s="4" customFormat="1">
       <c r="A62" s="4" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>143</v>
@@ -7095,7 +7145,7 @@
         <v>21</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>30</v>
@@ -7107,7 +7157,7 @@
         <v>44</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -7124,7 +7174,7 @@
     </row>
     <row r="63" spans="1:21" s="4" customFormat="1" ht="357">
       <c r="A63" s="4" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>145</v>
@@ -7136,28 +7186,28 @@
         <v>21</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -7171,7 +7221,7 @@
     </row>
     <row r="64" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A64" s="4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>146</v>
@@ -7183,19 +7233,19 @@
         <v>21</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>68</v>
@@ -7204,7 +7254,7 @@
         <v>36</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -7218,7 +7268,7 @@
     </row>
     <row r="65" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A65" s="4" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>147</v>
@@ -7230,19 +7280,19 @@
         <v>21</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>68</v>
@@ -7251,7 +7301,7 @@
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>40</v>
@@ -7260,7 +7310,7 @@
         <v>36</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
@@ -7271,7 +7321,7 @@
     </row>
     <row r="66" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A66" s="4" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>148</v>
@@ -7283,7 +7333,7 @@
         <v>21</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>34</v>
@@ -7295,7 +7345,7 @@
         <v>36</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -7312,7 +7362,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="3" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>150</v>
@@ -7351,7 +7401,7 @@
     </row>
     <row r="68" spans="1:21" s="4" customFormat="1">
       <c r="A68" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>153</v>
@@ -7363,7 +7413,7 @@
         <v>21</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>58</v>
@@ -7390,7 +7440,7 @@
     </row>
     <row r="69" spans="1:21" s="4" customFormat="1">
       <c r="A69" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>154</v>
@@ -7402,13 +7452,13 @@
         <v>21</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>36</v>
@@ -7429,7 +7479,7 @@
     </row>
     <row r="70" spans="1:21" s="4" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>155</v>
@@ -7441,13 +7491,13 @@
         <v>21</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>36</v>
@@ -7468,7 +7518,7 @@
     </row>
     <row r="71" spans="1:21" s="4" customFormat="1">
       <c r="A71" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>156</v>
@@ -7480,13 +7530,13 @@
         <v>21</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>36</v>
@@ -7507,7 +7557,7 @@
     </row>
     <row r="72" spans="1:21" s="4" customFormat="1">
       <c r="A72" s="4" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>157</v>
@@ -7519,13 +7569,13 @@
         <v>21</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>36</v>
@@ -7546,7 +7596,7 @@
     </row>
     <row r="73" spans="1:21" s="4" customFormat="1">
       <c r="A73" s="4" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>158</v>
@@ -7558,13 +7608,13 @@
         <v>21</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>36</v>
@@ -7585,7 +7635,7 @@
     </row>
     <row r="74" spans="1:21" s="4" customFormat="1" ht="21">
       <c r="A74" s="4" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>159</v>
@@ -7597,13 +7647,13 @@
         <v>21</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>36</v>
@@ -7624,7 +7674,7 @@
     </row>
     <row r="75" spans="1:21" s="4" customFormat="1">
       <c r="A75" s="4" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>160</v>
@@ -7636,13 +7686,13 @@
         <v>21</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>36</v>
@@ -7663,7 +7713,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="3" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>161</v>
@@ -7710,7 +7760,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>164</v>
@@ -7753,7 +7803,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="3" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>166</v>
@@ -7765,7 +7815,7 @@
         <v>21</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>34</v>
@@ -7796,7 +7846,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="3" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>169</v>
@@ -7808,7 +7858,7 @@
         <v>21</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>58</v>
@@ -7839,7 +7889,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="3" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>170</v>
@@ -7851,7 +7901,7 @@
         <v>21</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>58</v>
@@ -7882,7 +7932,7 @@
     </row>
     <row r="81" spans="1:21" s="4" customFormat="1">
       <c r="A81" s="4" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>171</v>
@@ -7894,7 +7944,7 @@
         <v>21</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>58</v>
@@ -7906,7 +7956,7 @@
         <v>36</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>118</v>
@@ -7915,7 +7965,7 @@
         <v>34</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -7929,7 +7979,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="3" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>173</v>
@@ -7964,7 +8014,7 @@
     </row>
     <row r="83" spans="1:21" s="4" customFormat="1" ht="84">
       <c r="A83" s="4" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>175</v>
@@ -7976,7 +8026,7 @@
         <v>21</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>58</v>
@@ -7988,7 +8038,7 @@
         <v>36</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -8005,7 +8055,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="3" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>176</v>
@@ -8017,7 +8067,7 @@
         <v>21</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>58</v>
@@ -8044,7 +8094,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>178</v>
@@ -8083,7 +8133,7 @@
     </row>
     <row r="86" spans="1:21" s="4" customFormat="1">
       <c r="A86" s="4" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>180</v>
@@ -8095,7 +8145,7 @@
         <v>21</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>58</v>
@@ -8107,7 +8157,7 @@
         <v>36</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>120</v>
@@ -8116,7 +8166,7 @@
         <v>36</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="M86" s="5" t="s">
         <v>121</v>
@@ -8125,7 +8175,7 @@
         <v>34</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
@@ -8136,7 +8186,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="3" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>181</v>
@@ -8148,7 +8198,7 @@
         <v>21</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>58</v>
@@ -8175,7 +8225,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="3" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>183</v>
@@ -8187,7 +8237,7 @@
         <v>21</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>58</v>
@@ -8222,7 +8272,7 @@
     </row>
     <row r="89" spans="1:21" s="4" customFormat="1" ht="126">
       <c r="A89" s="4" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>185</v>
@@ -8234,7 +8284,7 @@
         <v>21</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>58</v>
@@ -8246,7 +8296,7 @@
         <v>36</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -8263,7 +8313,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="3" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>187</v>
@@ -8302,7 +8352,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="3" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>190</v>
@@ -8345,7 +8395,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="3" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>192</v>
@@ -8384,7 +8434,7 @@
     </row>
     <row r="93" spans="1:21" s="4" customFormat="1">
       <c r="A93" s="4" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>194</v>
@@ -8396,7 +8446,7 @@
         <v>21</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>34</v>
@@ -8423,7 +8473,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>195</v>
@@ -8435,7 +8485,7 @@
         <v>21</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>30</v>
@@ -8466,7 +8516,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="3" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>197</v>
@@ -8478,7 +8528,7 @@
         <v>21</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>30</v>
@@ -8501,7 +8551,7 @@
     </row>
     <row r="96" spans="1:21" s="4" customFormat="1">
       <c r="A96" s="4" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>198</v>
@@ -8513,13 +8563,13 @@
         <v>21</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>36</v>
@@ -8540,7 +8590,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="3" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>199</v>
@@ -8575,7 +8625,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="3" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>201</v>
@@ -8622,7 +8672,7 @@
     </row>
     <row r="99" spans="1:21" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>205</v>
@@ -8634,7 +8684,7 @@
         <v>21</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>30</v>
@@ -8646,7 +8696,7 @@
         <v>36</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -8663,7 +8713,7 @@
     </row>
     <row r="100" spans="1:21" s="4" customFormat="1">
       <c r="A100" s="4" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>206</v>
@@ -8675,10 +8725,10 @@
         <v>21</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>207</v>
@@ -8687,7 +8737,7 @@
         <v>28</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -8704,7 +8754,7 @@
     </row>
     <row r="101" spans="1:21" s="4" customFormat="1">
       <c r="A101" s="4" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>208</v>
@@ -8716,10 +8766,10 @@
         <v>21</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>207</v>
@@ -8728,7 +8778,7 @@
         <v>28</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -8745,7 +8795,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="3" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>209</v>
@@ -8784,7 +8834,7 @@
     </row>
     <row r="103" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A103" s="4" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>211</v>
@@ -8796,7 +8846,7 @@
         <v>21</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>58</v>
@@ -8808,7 +8858,7 @@
         <v>212</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>213</v>
@@ -8817,7 +8867,7 @@
         <v>36</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -8831,7 +8881,7 @@
     </row>
     <row r="104" spans="1:21" s="4" customFormat="1" ht="63">
       <c r="A104" s="4" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>214</v>
@@ -8843,7 +8893,7 @@
         <v>21</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>58</v>
@@ -8855,7 +8905,7 @@
         <v>212</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>215</v>
@@ -8864,7 +8914,7 @@
         <v>58</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -8878,7 +8928,7 @@
     </row>
     <row r="105" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A105" s="4" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>216</v>
@@ -8890,19 +8940,19 @@
         <v>21</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>50</v>
@@ -8911,7 +8961,7 @@
         <v>36</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="M105" s="5" t="s">
         <v>138</v>
@@ -8920,7 +8970,7 @@
         <v>36</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
@@ -8931,7 +8981,7 @@
     </row>
     <row r="106" spans="1:21" s="9" customFormat="1">
       <c r="A106" s="9" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>217</v>
@@ -8970,7 +9020,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="3" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>219</v>
@@ -9009,7 +9059,7 @@
     </row>
     <row r="108" spans="1:21" s="9" customFormat="1">
       <c r="A108" s="9" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>221</v>
@@ -9052,7 +9102,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="3" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>222</v>
@@ -9091,7 +9141,7 @@
     </row>
     <row r="110" spans="1:21" s="4" customFormat="1">
       <c r="A110" s="4" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>225</v>
@@ -9103,7 +9153,7 @@
         <v>21</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>27</v>
@@ -9115,7 +9165,7 @@
         <v>28</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -9132,10 +9182,10 @@
     </row>
     <row r="111" spans="1:21" s="4" customFormat="1">
       <c r="A111" s="4" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C111" s="5" t="b">
         <v>1</v>
@@ -9144,7 +9194,7 @@
         <v>21</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>27</v>
@@ -9156,7 +9206,7 @@
         <v>28</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -9173,10 +9223,10 @@
     </row>
     <row r="112" spans="1:21" s="4" customFormat="1">
       <c r="A112" s="4" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C112" s="5" t="b">
         <v>1</v>
@@ -9185,7 +9235,7 @@
         <v>21</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>27</v>
@@ -9197,7 +9247,7 @@
         <v>28</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -9214,7 +9264,7 @@
     </row>
     <row r="113" spans="1:21" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>226</v>
@@ -9226,7 +9276,7 @@
         <v>21</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>58</v>
@@ -9238,7 +9288,7 @@
         <v>36</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -9255,7 +9305,7 @@
     </row>
     <row r="114" spans="1:21" s="4" customFormat="1">
       <c r="A114" s="4" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>227</v>
@@ -9267,7 +9317,7 @@
         <v>21</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>30</v>
@@ -9279,7 +9329,7 @@
         <v>218</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -9296,7 +9346,7 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="3" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>228</v>
@@ -9308,7 +9358,7 @@
         <v>21</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>30</v>
@@ -9331,7 +9381,7 @@
     </row>
     <row r="116" spans="1:21" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>229</v>
@@ -9343,7 +9393,7 @@
         <v>21</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>30</v>
@@ -9355,7 +9405,7 @@
         <v>218</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -9372,7 +9422,7 @@
     </row>
     <row r="117" spans="1:21" s="4" customFormat="1">
       <c r="A117" s="4" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>230</v>
@@ -9384,7 +9434,7 @@
         <v>21</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>30</v>
@@ -9396,7 +9446,7 @@
         <v>23</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -9413,7 +9463,7 @@
     </row>
     <row r="118" spans="1:21" s="4" customFormat="1">
       <c r="A118" s="4" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>232</v>
@@ -9425,7 +9475,7 @@
         <v>21</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>30</v>
@@ -9452,7 +9502,7 @@
     </row>
     <row r="119" spans="1:21" s="4" customFormat="1">
       <c r="A119" s="4" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>233</v>
@@ -9464,7 +9514,7 @@
         <v>21</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>58</v>
@@ -9487,7 +9537,7 @@
     </row>
     <row r="120" spans="1:21" s="9" customFormat="1">
       <c r="A120" s="9" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>234</v>
@@ -9522,7 +9572,7 @@
     </row>
     <row r="121" spans="1:21" s="9" customFormat="1">
       <c r="A121" s="9" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>235</v>
@@ -9557,7 +9607,7 @@
     </row>
     <row r="122" spans="1:21" s="9" customFormat="1">
       <c r="A122" s="9" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>236</v>
@@ -9592,7 +9642,7 @@
     </row>
     <row r="123" spans="1:21" s="9" customFormat="1">
       <c r="A123" s="9" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>237</v>
@@ -9627,7 +9677,7 @@
     </row>
     <row r="124" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A124" s="4" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>238</v>
@@ -9639,7 +9689,7 @@
         <v>21</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>58</v>
@@ -9651,7 +9701,7 @@
         <v>36</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>68</v>
@@ -9660,7 +9710,7 @@
         <v>36</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -9674,7 +9724,7 @@
     </row>
     <row r="125" spans="1:21" s="4" customFormat="1">
       <c r="A125" s="4" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>240</v>
@@ -9686,7 +9736,7 @@
         <v>21</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>30</v>
@@ -9698,7 +9748,7 @@
         <v>36</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -9715,7 +9765,7 @@
     </row>
     <row r="126" spans="1:21" s="4" customFormat="1">
       <c r="A126" s="4" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>242</v>
@@ -9727,7 +9777,7 @@
         <v>21</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>58</v>
@@ -9750,7 +9800,7 @@
     </row>
     <row r="127" spans="1:21" s="4" customFormat="1">
       <c r="A127" s="4" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>243</v>
@@ -9762,7 +9812,7 @@
         <v>21</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>30</v>
@@ -9774,7 +9824,7 @@
         <v>36</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -9791,7 +9841,7 @@
     </row>
     <row r="128" spans="1:21" s="4" customFormat="1">
       <c r="A128" s="4" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>244</v>
@@ -9803,7 +9853,7 @@
         <v>21</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>34</v>
@@ -9826,7 +9876,7 @@
     </row>
     <row r="129" spans="1:21" s="4" customFormat="1">
       <c r="A129" s="4" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>245</v>
@@ -9838,7 +9888,7 @@
         <v>21</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>58</v>
@@ -9850,7 +9900,7 @@
         <v>36</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>246</v>
@@ -9859,7 +9909,7 @@
         <v>36</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -9873,7 +9923,7 @@
     </row>
     <row r="130" spans="1:21" s="4" customFormat="1">
       <c r="A130" s="4" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>247</v>
@@ -9885,7 +9935,7 @@
         <v>21</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>30</v>
@@ -9897,7 +9947,7 @@
         <v>36</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
@@ -9914,7 +9964,7 @@
     </row>
     <row r="131" spans="1:21" s="4" customFormat="1">
       <c r="A131" s="4" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>248</v>
@@ -9926,7 +9976,7 @@
         <v>21</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>30</v>
@@ -9938,7 +9988,7 @@
         <v>36</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>249</v>
@@ -9947,7 +9997,7 @@
         <v>36</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -9961,7 +10011,7 @@
     </row>
     <row r="132" spans="1:21" s="9" customFormat="1">
       <c r="A132" s="9" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>250</v>
@@ -9996,7 +10046,7 @@
     </row>
     <row r="133" spans="1:21" s="4" customFormat="1">
       <c r="A133" s="4" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>251</v>
@@ -10008,7 +10058,7 @@
         <v>21</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>58</v>
@@ -10031,7 +10081,7 @@
     </row>
     <row r="134" spans="1:21" s="9" customFormat="1">
       <c r="A134" s="9" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>252</v>
@@ -10066,7 +10116,7 @@
     </row>
     <row r="135" spans="1:21" s="4" customFormat="1">
       <c r="A135" s="4" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>253</v>
@@ -10078,7 +10128,7 @@
         <v>21</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>30</v>
@@ -10090,7 +10140,7 @@
         <v>36</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -10107,7 +10157,7 @@
     </row>
     <row r="136" spans="1:21" s="4" customFormat="1">
       <c r="A136" s="4" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>254</v>
@@ -10119,7 +10169,7 @@
         <v>21</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>30</v>
@@ -10131,7 +10181,7 @@
         <v>36</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="J136" s="5" t="s">
         <v>249</v>
@@ -10140,7 +10190,7 @@
         <v>36</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
@@ -10154,7 +10204,7 @@
     </row>
     <row r="137" spans="1:21" s="9" customFormat="1">
       <c r="A137" s="9" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>255</v>
@@ -10189,7 +10239,7 @@
     </row>
     <row r="138" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A138" s="4" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>256</v>
@@ -10201,7 +10251,7 @@
         <v>21</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>58</v>
@@ -10213,7 +10263,7 @@
         <v>36</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="J138" s="5" t="s">
         <v>249</v>
@@ -10222,7 +10272,7 @@
         <v>36</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="M138" s="5" t="s">
         <v>257</v>
@@ -10231,7 +10281,7 @@
         <v>36</v>
       </c>
       <c r="O138" s="8" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="P138" s="5" t="s">
         <v>258</v>
@@ -10240,7 +10290,7 @@
         <v>36</v>
       </c>
       <c r="R138" s="5" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="S138" s="5" t="s">
         <v>259</v>
@@ -10249,12 +10299,12 @@
         <v>36</v>
       </c>
       <c r="U138" s="5" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="139" spans="1:21" s="4" customFormat="1" ht="189">
       <c r="A139" s="4" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>260</v>
@@ -10266,7 +10316,7 @@
         <v>21</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>58</v>
@@ -10278,7 +10328,7 @@
         <v>34</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="J139" s="5" t="s">
         <v>261</v>
@@ -10287,7 +10337,7 @@
         <v>36</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="M139" s="5" t="s">
         <v>262</v>
@@ -10296,7 +10346,7 @@
         <v>36</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="P139" s="5" t="s">
         <v>213</v>
@@ -10305,7 +10355,7 @@
         <v>36</v>
       </c>
       <c r="R139" s="8" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
@@ -10313,7 +10363,7 @@
     </row>
     <row r="140" spans="1:21" s="4" customFormat="1">
       <c r="A140" s="4" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>263</v>
@@ -10325,7 +10375,7 @@
         <v>21</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>30</v>
@@ -10337,7 +10387,7 @@
         <v>36</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -10354,7 +10404,7 @@
     </row>
     <row r="141" spans="1:21" s="4" customFormat="1">
       <c r="A141" s="4" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>264</v>
@@ -10366,7 +10416,7 @@
         <v>21</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>30</v>
@@ -10389,7 +10439,7 @@
     </row>
     <row r="142" spans="1:21" s="4" customFormat="1">
       <c r="A142" s="4" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>265</v>
@@ -10401,7 +10451,7 @@
         <v>21</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>58</v>
@@ -10413,7 +10463,7 @@
         <v>36</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -10430,7 +10480,7 @@
     </row>
     <row r="143" spans="1:21" s="9" customFormat="1">
       <c r="A143" s="9" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>267</v>
@@ -10469,7 +10519,7 @@
     </row>
     <row r="144" spans="1:21" s="9" customFormat="1">
       <c r="A144" s="9" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>268</v>
@@ -10508,7 +10558,7 @@
     </row>
     <row r="145" spans="1:21" s="9" customFormat="1">
       <c r="A145" s="9" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>269</v>
@@ -10547,7 +10597,7 @@
     </row>
     <row r="146" spans="1:21" s="9" customFormat="1">
       <c r="A146" s="9" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>270</v>
@@ -10586,7 +10636,7 @@
     </row>
     <row r="147" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A147" s="4" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>271</v>
@@ -10598,7 +10648,7 @@
         <v>21</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>30</v>
@@ -10610,7 +10660,7 @@
         <v>36</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="J147" s="5" t="s">
         <v>68</v>
@@ -10619,7 +10669,7 @@
         <v>36</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="M147" s="5" t="s">
         <v>35</v>
@@ -10628,7 +10678,7 @@
         <v>36</v>
       </c>
       <c r="O147" s="5" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
@@ -10639,7 +10689,7 @@
     </row>
     <row r="148" spans="1:21" s="4" customFormat="1" ht="210">
       <c r="A148" s="4" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>272</v>
@@ -10651,7 +10701,7 @@
         <v>21</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>58</v>
@@ -10663,7 +10713,7 @@
         <v>34</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="J148" s="5" t="s">
         <v>274</v>
@@ -10672,7 +10722,7 @@
         <v>36</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="M148" s="5" t="s">
         <v>275</v>
@@ -10681,7 +10731,7 @@
         <v>36</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="P148" s="5" t="s">
         <v>276</v>
@@ -10690,7 +10740,7 @@
         <v>36</v>
       </c>
       <c r="R148" s="8" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="S148" s="5" t="s">
         <v>277</v>
@@ -10699,12 +10749,12 @@
         <v>36</v>
       </c>
       <c r="U148" s="8" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="149" spans="1:21" s="4" customFormat="1">
       <c r="A149" s="4" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>278</v>
@@ -10716,7 +10766,7 @@
         <v>21</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>30</v>
@@ -10728,7 +10778,7 @@
         <v>36</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="J149" s="5" t="s">
         <v>246</v>
@@ -10737,7 +10787,7 @@
         <v>36</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="M149" s="5" t="s">
         <v>279</v>
@@ -10746,7 +10796,7 @@
         <v>36</v>
       </c>
       <c r="O149" s="5" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
@@ -10757,7 +10807,7 @@
     </row>
     <row r="150" spans="1:21" s="4" customFormat="1">
       <c r="A150" s="4" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>280</v>
@@ -10769,7 +10819,7 @@
         <v>21</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>30</v>
@@ -10796,7 +10846,7 @@
     </row>
     <row r="151" spans="1:21" s="9" customFormat="1">
       <c r="A151" s="9" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>282</v>
@@ -10835,7 +10885,7 @@
     </row>
     <row r="152" spans="1:21">
       <c r="A152" s="3" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>283</v>
@@ -10847,7 +10897,7 @@
         <v>21</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>30</v>
@@ -10882,7 +10932,7 @@
     </row>
     <row r="153" spans="1:21">
       <c r="A153" s="3" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>286</v>
@@ -10894,7 +10944,7 @@
         <v>21</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>30</v>
@@ -10927,48 +10977,48 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
     </row>
-    <row r="154" spans="1:21">
-      <c r="A154" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="B154" s="6" t="s">
+    <row r="154" spans="1:21" s="4" customFormat="1">
+      <c r="A154" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C154" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="F154" s="6" t="s">
+      <c r="C154" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F154" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G154" s="6" t="s">
+      <c r="G154" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="H154" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6"/>
-      <c r="T154" s="6"/>
-      <c r="U154" s="6"/>
+      <c r="H154" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
     </row>
     <row r="155" spans="1:21" s="4" customFormat="1">
       <c r="A155" s="4" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>289</v>
@@ -10980,7 +11030,7 @@
         <v>21</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>58</v>
@@ -10992,7 +11042,7 @@
         <v>36</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -11009,7 +11059,7 @@
     </row>
     <row r="156" spans="1:21" s="4" customFormat="1">
       <c r="A156" s="4" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>290</v>
@@ -11021,7 +11071,7 @@
         <v>21</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>30</v>
@@ -11033,7 +11083,7 @@
         <v>36</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -11050,7 +11100,7 @@
     </row>
     <row r="157" spans="1:21" s="4" customFormat="1">
       <c r="A157" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>290</v>
@@ -11062,7 +11112,7 @@
         <v>21</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>30</v>
@@ -11074,16 +11124,16 @@
         <v>36</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
@@ -11097,7 +11147,7 @@
     </row>
     <row r="158" spans="1:21" s="4" customFormat="1">
       <c r="A158" s="4" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>291</v>
@@ -11109,7 +11159,7 @@
         <v>21</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>58</v>
@@ -11136,7 +11186,7 @@
     </row>
     <row r="159" spans="1:21" s="9" customFormat="1">
       <c r="A159" s="9" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>293</v>
@@ -11175,7 +11225,7 @@
     </row>
     <row r="160" spans="1:21">
       <c r="A160" s="3" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>294</v>
@@ -11187,7 +11237,7 @@
         <v>21</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>58</v>
@@ -11214,7 +11264,7 @@
     </row>
     <row r="161" spans="1:21" s="4" customFormat="1">
       <c r="A161" s="4" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>295</v>
@@ -11226,7 +11276,7 @@
         <v>21</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>34</v>
@@ -11238,7 +11288,7 @@
         <v>36</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -11255,7 +11305,7 @@
     </row>
     <row r="162" spans="1:21">
       <c r="A162" s="3" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>297</v>
@@ -11298,7 +11348,7 @@
     </row>
     <row r="163" spans="1:21">
       <c r="A163" s="3" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>301</v>
@@ -11337,7 +11387,7 @@
     </row>
     <row r="164" spans="1:21">
       <c r="A164" s="3" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>302</v>
@@ -11380,7 +11430,7 @@
     </row>
     <row r="165" spans="1:21">
       <c r="A165" s="3" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>303</v>
@@ -11419,7 +11469,7 @@
     </row>
     <row r="166" spans="1:21">
       <c r="A166" s="3" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>304</v>
@@ -11458,7 +11508,7 @@
     </row>
     <row r="167" spans="1:21">
       <c r="A167" s="3" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>305</v>
@@ -11505,7 +11555,7 @@
     </row>
     <row r="168" spans="1:21">
       <c r="A168" s="3" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>306</v>
@@ -11548,7 +11598,7 @@
     </row>
     <row r="169" spans="1:21">
       <c r="A169" s="3" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>308</v>
@@ -11587,7 +11637,7 @@
     </row>
     <row r="170" spans="1:21" s="4" customFormat="1" ht="378">
       <c r="A170" s="4" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>309</v>
@@ -11599,7 +11649,7 @@
         <v>21</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>58</v>
@@ -11611,7 +11661,7 @@
         <v>36</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="J170" s="5" t="s">
         <v>79</v>
@@ -11620,7 +11670,7 @@
         <v>36</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="M170" s="5" t="s">
         <v>310</v>
@@ -11629,7 +11679,7 @@
         <v>36</v>
       </c>
       <c r="O170" s="5" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="P170" s="5" t="s">
         <v>311</v>
@@ -11638,7 +11688,7 @@
         <v>36</v>
       </c>
       <c r="R170" s="8" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
@@ -11646,7 +11696,7 @@
     </row>
     <row r="171" spans="1:21" s="4" customFormat="1">
       <c r="A171" s="4" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>312</v>
@@ -11658,10 +11708,10 @@
         <v>21</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>24</v>
@@ -11670,7 +11720,7 @@
         <v>28</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J171" s="5" t="s">
         <v>203</v>
@@ -11679,7 +11729,7 @@
         <v>28</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
@@ -11693,7 +11743,7 @@
     </row>
     <row r="172" spans="1:21" s="4" customFormat="1" ht="147">
       <c r="A172" s="4" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>313</v>
@@ -11705,7 +11755,7 @@
         <v>21</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>30</v>
@@ -11717,7 +11767,7 @@
         <v>36</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="J172" s="5" t="s">
         <v>213</v>
@@ -11726,7 +11776,7 @@
         <v>36</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
@@ -11740,7 +11790,7 @@
     </row>
     <row r="173" spans="1:21" s="4" customFormat="1">
       <c r="A173" s="4" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>314</v>
@@ -11752,7 +11802,7 @@
         <v>21</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>58</v>
@@ -11764,7 +11814,7 @@
         <v>36</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="J173" s="5" t="s">
         <v>316</v>
@@ -11773,7 +11823,7 @@
         <v>36</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
@@ -11787,7 +11837,7 @@
     </row>
     <row r="174" spans="1:21" s="4" customFormat="1">
       <c r="A174" s="4" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>317</v>
@@ -11799,7 +11849,7 @@
         <v>21</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>30</v>
@@ -11811,7 +11861,7 @@
         <v>218</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
@@ -11828,7 +11878,7 @@
     </row>
     <row r="175" spans="1:21" s="4" customFormat="1">
       <c r="A175" s="4" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>207</v>
@@ -11840,19 +11890,19 @@
         <v>21</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -11869,7 +11919,7 @@
     </row>
     <row r="176" spans="1:21" s="4" customFormat="1">
       <c r="A176" s="4" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>318</v>
@@ -11881,7 +11931,7 @@
         <v>21</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>58</v>
@@ -11890,10 +11940,10 @@
         <v>207</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11910,7 +11960,7 @@
     </row>
     <row r="177" spans="1:21" s="9" customFormat="1">
       <c r="A177" s="9" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>319</v>
@@ -11949,7 +11999,7 @@
     </row>
     <row r="178" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A178" s="4" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>320</v>
@@ -11961,19 +12011,19 @@
         <v>21</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="J178" s="5" t="s">
         <v>321</v>
@@ -11982,7 +12032,7 @@
         <v>36</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="M178" s="5" t="s">
         <v>168</v>
@@ -11991,7 +12041,7 @@
         <v>36</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
@@ -12002,7 +12052,7 @@
     </row>
     <row r="179" spans="1:21" s="4" customFormat="1">
       <c r="A179" s="4" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>322</v>
@@ -12014,13 +12064,13 @@
         <v>21</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>36</v>
@@ -12041,7 +12091,7 @@
     </row>
     <row r="180" spans="1:21" s="9" customFormat="1">
       <c r="A180" s="9" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>323</v>
@@ -12074,44 +12124,44 @@
       <c r="T180" s="10"/>
       <c r="U180" s="10"/>
     </row>
-    <row r="181" spans="1:21">
-      <c r="A181" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="B181" s="6" t="s">
+    <row r="181" spans="1:21" s="4" customFormat="1">
+      <c r="A181" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C181" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="F181" s="6" t="s">
+      <c r="C181" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F181" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
-      <c r="L181" s="6"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="6"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="6"/>
-      <c r="R181" s="6"/>
-      <c r="S181" s="6"/>
-      <c r="T181" s="6"/>
-      <c r="U181" s="6"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5"/>
     </row>
     <row r="182" spans="1:21">
       <c r="A182" s="3" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>325</v>
@@ -12123,7 +12173,7 @@
         <v>21</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>30</v>
@@ -12150,7 +12200,7 @@
     </row>
     <row r="183" spans="1:21">
       <c r="A183" s="3" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>327</v>
@@ -12162,7 +12212,7 @@
         <v>21</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>27</v>
@@ -12189,7 +12239,7 @@
     </row>
     <row r="184" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A184" s="4" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>328</v>
@@ -12201,7 +12251,7 @@
         <v>21</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>58</v>
@@ -12213,7 +12263,7 @@
         <v>212</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="J184" s="5" t="s">
         <v>213</v>
@@ -12222,7 +12272,7 @@
         <v>36</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="M184" s="5"/>
       <c r="N184" s="5"/>
@@ -12236,7 +12286,7 @@
     </row>
     <row r="185" spans="1:21" s="4" customFormat="1">
       <c r="A185" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>329</v>
@@ -12248,7 +12298,7 @@
         <v>21</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>58</v>
@@ -12260,7 +12310,7 @@
         <v>212</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="J185" s="5" t="s">
         <v>215</v>
@@ -12269,7 +12319,7 @@
         <v>58</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="M185" s="5"/>
       <c r="N185" s="5"/>
@@ -12283,7 +12333,7 @@
     </row>
     <row r="186" spans="1:21" s="4" customFormat="1">
       <c r="A186" s="4" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>330</v>
@@ -12295,7 +12345,7 @@
         <v>21</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>58</v>
@@ -12307,7 +12357,7 @@
         <v>34</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -12324,7 +12374,7 @@
     </row>
     <row r="187" spans="1:21" s="4" customFormat="1">
       <c r="A187" s="4" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>331</v>
@@ -12336,7 +12386,7 @@
         <v>21</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>58</v>
@@ -12348,7 +12398,7 @@
         <v>44</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J187" s="5" t="s">
         <v>35</v>
@@ -12357,7 +12407,7 @@
         <v>36</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
@@ -12371,7 +12421,7 @@
     </row>
     <row r="188" spans="1:21" s="4" customFormat="1">
       <c r="A188" s="4" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>331</v>
@@ -12383,7 +12433,7 @@
         <v>21</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>58</v>
@@ -12395,7 +12445,7 @@
         <v>44</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="J188" s="5" t="s">
         <v>35</v>
@@ -12404,25 +12454,25 @@
         <v>36</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="N188" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="O188" s="5" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="P188" s="5" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="Q188" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="R188" s="5" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="S188" s="5"/>
       <c r="T188" s="5"/>
@@ -12430,7 +12480,7 @@
     </row>
     <row r="189" spans="1:21">
       <c r="A189" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>332</v>
@@ -12442,7 +12492,7 @@
         <v>21</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>30</v>
@@ -12473,7 +12523,7 @@
     </row>
     <row r="190" spans="1:21">
       <c r="A190" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>333</v>
@@ -12485,7 +12535,7 @@
         <v>21</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>30</v>
@@ -12520,7 +12570,7 @@
     </row>
     <row r="191" spans="1:21">
       <c r="A191" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>334</v>
@@ -12532,7 +12582,7 @@
         <v>21</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>30</v>
@@ -12571,7 +12621,7 @@
     </row>
     <row r="192" spans="1:21">
       <c r="A192" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>335</v>
@@ -12583,7 +12633,7 @@
         <v>21</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>30</v>
@@ -12622,7 +12672,7 @@
     </row>
     <row r="193" spans="1:21">
       <c r="A193" s="3" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>336</v>
@@ -12669,7 +12719,7 @@
     </row>
     <row r="194" spans="1:21">
       <c r="A194" s="3" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>339</v>
@@ -12720,7 +12770,7 @@
     </row>
     <row r="195" spans="1:21" s="4" customFormat="1" ht="210">
       <c r="A195" s="4" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>341</v>
@@ -12732,19 +12782,19 @@
         <v>21</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="J195" s="5" t="s">
         <v>35</v>
@@ -12753,7 +12803,7 @@
         <v>36</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="M195" s="5"/>
       <c r="N195" s="5"/>
@@ -12767,7 +12817,7 @@
     </row>
     <row r="196" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A196" s="4" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>342</v>
@@ -12779,7 +12829,7 @@
         <v>21</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>58</v>
@@ -12791,7 +12841,7 @@
         <v>36</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="J196" s="5" t="s">
         <v>35</v>
@@ -12800,7 +12850,7 @@
         <v>36</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="M196" s="5" t="s">
         <v>49</v>
@@ -12809,7 +12859,7 @@
         <v>36</v>
       </c>
       <c r="O196" s="8" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="P196" s="5" t="s">
         <v>50</v>
@@ -12818,7 +12868,7 @@
         <v>36</v>
       </c>
       <c r="R196" s="8" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="S196" s="5" t="s">
         <v>138</v>
@@ -12827,12 +12877,12 @@
         <v>36</v>
       </c>
       <c r="U196" s="8" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="197" spans="1:21" s="9" customFormat="1">
       <c r="A197" s="9" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>343</v>
@@ -12887,7 +12937,7 @@
     </row>
     <row r="198" spans="1:21" s="4" customFormat="1" ht="357">
       <c r="A198" s="4" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>345</v>
@@ -12899,28 +12949,28 @@
         <v>21</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H198" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="K198" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
@@ -12934,7 +12984,7 @@
     </row>
     <row r="199" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A199" s="4" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>346</v>
@@ -12946,19 +12996,19 @@
         <v>21</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H199" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="J199" s="5" t="s">
         <v>68</v>
@@ -12967,7 +13017,7 @@
         <v>36</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="M199" s="5" t="s">
         <v>35</v>
@@ -12976,7 +13026,7 @@
         <v>36</v>
       </c>
       <c r="O199" s="5" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
@@ -12987,7 +13037,7 @@
     </row>
     <row r="200" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A200" s="4" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>347</v>
@@ -12999,19 +13049,19 @@
         <v>21</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="H200" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="J200" s="5" t="s">
         <v>68</v>
@@ -13020,7 +13070,7 @@
         <v>36</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="M200" s="5" t="s">
         <v>35</v>
@@ -13029,16 +13079,16 @@
         <v>36</v>
       </c>
       <c r="O200" s="8" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="P200" s="5" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="Q200" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R200" s="8" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="S200" s="5"/>
       <c r="T200" s="5"/>
@@ -13046,7 +13096,7 @@
     </row>
     <row r="201" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A201" s="4" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>348</v>
@@ -13058,19 +13108,19 @@
         <v>21</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G201" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I201" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="H201" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I201" s="5" t="s">
-        <v>967</v>
       </c>
       <c r="J201" s="5" t="s">
         <v>349</v>
@@ -13079,7 +13129,7 @@
         <v>36</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="M201" s="5"/>
       <c r="N201" s="5"/>
@@ -13093,7 +13143,7 @@
     </row>
     <row r="202" spans="1:21" s="4" customFormat="1">
       <c r="A202" s="4" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>350</v>
@@ -13105,19 +13155,19 @@
         <v>21</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G202" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I202" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="H202" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I202" s="5" t="s">
-        <v>967</v>
       </c>
       <c r="J202" s="5" t="s">
         <v>273</v>
@@ -13126,7 +13176,7 @@
         <v>34</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="M202" s="5"/>
       <c r="N202" s="5"/>
@@ -13140,7 +13190,7 @@
     </row>
     <row r="203" spans="1:21" s="4" customFormat="1" ht="63">
       <c r="A203" s="4" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>351</v>
@@ -13152,19 +13202,19 @@
         <v>21</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G203" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I203" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="H203" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I203" s="5" t="s">
-        <v>967</v>
       </c>
       <c r="J203" s="5" t="s">
         <v>35</v>
@@ -13173,7 +13223,7 @@
         <v>36</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="M203" s="5"/>
       <c r="N203" s="5"/>
@@ -13187,7 +13237,7 @@
     </row>
     <row r="204" spans="1:21" s="4" customFormat="1" ht="126">
       <c r="A204" s="4" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>352</v>
@@ -13199,7 +13249,7 @@
         <v>21</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>30</v>
@@ -13211,7 +13261,7 @@
         <v>36</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -13228,7 +13278,7 @@
     </row>
     <row r="205" spans="1:21" s="4" customFormat="1" ht="409.6">
       <c r="A205" s="4" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>353</v>
@@ -13240,19 +13290,19 @@
         <v>21</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G205" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I205" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="H205" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I205" s="5" t="s">
-        <v>967</v>
       </c>
       <c r="J205" s="5" t="s">
         <v>354</v>
@@ -13261,7 +13311,7 @@
         <v>36</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="M205" s="5"/>
       <c r="N205" s="5"/>
@@ -13275,7 +13325,7 @@
     </row>
     <row r="206" spans="1:21" s="4" customFormat="1">
       <c r="A206" s="4" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>355</v>
@@ -13287,7 +13337,7 @@
         <v>21</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>30</v>
@@ -13299,7 +13349,7 @@
         <v>36</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="J206" s="5" t="s">
         <v>357</v>
@@ -13308,7 +13358,7 @@
         <v>36</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="M206" s="5" t="s">
         <v>273</v>
@@ -13317,7 +13367,7 @@
         <v>34</v>
       </c>
       <c r="O206" s="5" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="P206" s="5"/>
       <c r="Q206" s="5"/>
@@ -13328,7 +13378,7 @@
     </row>
     <row r="207" spans="1:21">
       <c r="A207" s="3" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>358</v>
@@ -13340,7 +13390,7 @@
         <v>21</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>30</v>
@@ -13371,7 +13421,7 @@
     </row>
     <row r="208" spans="1:21">
       <c r="A208" s="3" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>360</v>
@@ -13383,7 +13433,7 @@
         <v>21</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>30</v>
@@ -13414,7 +13464,7 @@
     </row>
     <row r="209" spans="1:21">
       <c r="A209" s="3" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>362</v>
@@ -13426,7 +13476,7 @@
         <v>21</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>30</v>
@@ -13455,64 +13505,68 @@
       <c r="T209" s="6"/>
       <c r="U209" s="6"/>
     </row>
-    <row r="210" spans="1:21">
-      <c r="A210" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B210" s="6" t="s">
+    <row r="210" spans="1:21" s="4" customFormat="1" ht="409.6">
+      <c r="A210" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C210" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F210" s="6" t="s">
+      <c r="C210" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F210" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G210" s="6" t="s">
+      <c r="G210" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H210" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I210" s="6"/>
-      <c r="J210" s="6" t="s">
+      <c r="H210" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I210" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J210" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K210" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L210" s="6"/>
-      <c r="M210" s="6"/>
-      <c r="N210" s="6"/>
-      <c r="O210" s="6"/>
-      <c r="P210" s="6"/>
-      <c r="Q210" s="6"/>
-      <c r="R210" s="6"/>
-      <c r="S210" s="6"/>
-      <c r="T210" s="6"/>
-      <c r="U210" s="6"/>
+      <c r="K210" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L210" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M210" s="5"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5"/>
     </row>
     <row r="211" spans="1:21">
       <c r="A211" s="3" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="B211" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C211" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E211" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="C211" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>58</v>
@@ -13551,10 +13605,10 @@
     </row>
     <row r="212" spans="1:21" s="4" customFormat="1" ht="189">
       <c r="A212" s="4" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C212" s="5" t="b">
         <v>1</v>
@@ -13563,19 +13617,19 @@
         <v>21</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I212" s="8" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -13592,10 +13646,10 @@
     </row>
     <row r="213" spans="1:21">
       <c r="A213" s="3" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C213" s="6" t="b">
         <v>1</v>
@@ -13604,13 +13658,13 @@
         <v>21</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>36</v>
@@ -13624,7 +13678,7 @@
       </c>
       <c r="L213" s="6"/>
       <c r="M213" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N213" s="6" t="s">
         <v>58</v>
@@ -13639,10 +13693,10 @@
     </row>
     <row r="214" spans="1:21">
       <c r="A214" s="3" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C214" s="6" t="b">
         <v>1</v>
@@ -13651,13 +13705,13 @@
         <v>21</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>36</v>
@@ -13686,10 +13740,10 @@
     </row>
     <row r="215" spans="1:21">
       <c r="A215" s="3" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C215" s="6" t="b">
         <v>1</v>
@@ -13698,13 +13752,13 @@
         <v>21</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>36</v>
@@ -13718,7 +13772,7 @@
       </c>
       <c r="L215" s="6"/>
       <c r="M215" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N215" s="6" t="s">
         <v>36</v>
@@ -13733,10 +13787,10 @@
     </row>
     <row r="216" spans="1:21">
       <c r="A216" s="3" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C216" s="6" t="b">
         <v>1</v>
@@ -13745,7 +13799,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>30</v>
@@ -13784,10 +13838,10 @@
     </row>
     <row r="217" spans="1:21" s="4" customFormat="1" ht="231">
       <c r="A217" s="4" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C217" s="5" t="b">
         <v>1</v>
@@ -13796,19 +13850,19 @@
         <v>21</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I217" s="8" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="J217" s="5" t="s">
         <v>71</v>
@@ -13817,7 +13871,7 @@
         <v>36</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="M217" s="5" t="s">
         <v>35</v>
@@ -13826,7 +13880,7 @@
         <v>36</v>
       </c>
       <c r="O217" s="8" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="P217" s="5"/>
       <c r="Q217" s="5"/>
@@ -13837,10 +13891,10 @@
     </row>
     <row r="218" spans="1:21" s="4" customFormat="1">
       <c r="A218" s="4" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C218" s="5" t="b">
         <v>1</v>
@@ -13849,19 +13903,19 @@
         <v>21</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="J218" s="5" t="s">
         <v>35</v>
@@ -13870,7 +13924,7 @@
         <v>36</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="M218" s="5"/>
       <c r="N218" s="5"/>
@@ -13884,25 +13938,25 @@
     </row>
     <row r="219" spans="1:21">
       <c r="A219" s="3" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B219" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C219" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E219" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="C219" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E219" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>36</v>
@@ -13923,19 +13977,19 @@
     </row>
     <row r="220" spans="1:21" s="4" customFormat="1">
       <c r="A220" s="4" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B220" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C220" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E220" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="C220" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>30</v>
@@ -13947,7 +14001,7 @@
         <v>36</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="J220" s="5" t="s">
         <v>35</v>
@@ -13956,7 +14010,7 @@
         <v>36</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="M220" s="5"/>
       <c r="N220" s="5"/>
@@ -13970,10 +14024,10 @@
     </row>
     <row r="221" spans="1:21" s="4" customFormat="1">
       <c r="A221" s="4" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C221" s="5" t="b">
         <v>1</v>
@@ -13982,19 +14036,19 @@
         <v>21</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="J221" s="5" t="s">
         <v>35</v>
@@ -14003,7 +14057,7 @@
         <v>36</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="M221" s="5"/>
       <c r="N221" s="5"/>
@@ -14017,19 +14071,19 @@
     </row>
     <row r="222" spans="1:21">
       <c r="A222" s="3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B222" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C222" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E222" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="C222" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>58</v>
@@ -14042,7 +14096,7 @@
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K222" s="6" t="s">
         <v>34</v>
@@ -14060,10 +14114,10 @@
     </row>
     <row r="223" spans="1:21">
       <c r="A223" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C223" s="6" t="b">
         <v>1</v>
@@ -14072,7 +14126,7 @@
         <v>21</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>30</v>
@@ -14099,10 +14153,10 @@
     </row>
     <row r="224" spans="1:21">
       <c r="A224" s="3" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C224" s="6" t="b">
         <v>1</v>
@@ -14111,13 +14165,13 @@
         <v>21</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>36</v>
@@ -14138,10 +14192,10 @@
     </row>
     <row r="225" spans="1:21" s="4" customFormat="1" ht="336">
       <c r="A225" s="4" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C225" s="5" t="b">
         <v>1</v>
@@ -14150,7 +14204,7 @@
         <v>21</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>30</v>
@@ -14162,7 +14216,7 @@
         <v>36</v>
       </c>
       <c r="I225" s="8" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
@@ -14179,10 +14233,10 @@
     </row>
     <row r="226" spans="1:21">
       <c r="A226" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C226" s="6" t="b">
         <v>1</v>
@@ -14191,7 +14245,7 @@
         <v>21</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>30</v>
@@ -14200,11 +14254,11 @@
         <v>31</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K226" s="6" t="s">
         <v>36</v>
@@ -14222,10 +14276,10 @@
     </row>
     <row r="227" spans="1:21">
       <c r="A227" s="3" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C227" s="6" t="b">
         <v>1</v>
@@ -14234,7 +14288,7 @@
         <v>21</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>30</v>
@@ -14243,7 +14297,7 @@
         <v>31</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6" t="s">
@@ -14265,10 +14319,10 @@
     </row>
     <row r="228" spans="1:21">
       <c r="A228" s="3" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C228" s="6" t="b">
         <v>1</v>
@@ -14277,13 +14331,13 @@
         <v>21</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>36</v>
@@ -14308,10 +14362,10 @@
     </row>
     <row r="229" spans="1:21">
       <c r="A229" s="3" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C229" s="6" t="b">
         <v>1</v>
@@ -14320,13 +14374,13 @@
         <v>21</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>36</v>
@@ -14347,10 +14401,10 @@
     </row>
     <row r="230" spans="1:21">
       <c r="A230" s="3" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C230" s="6" t="b">
         <v>1</v>
@@ -14359,13 +14413,13 @@
         <v>21</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>36</v>
@@ -14386,10 +14440,10 @@
     </row>
     <row r="231" spans="1:21">
       <c r="A231" s="3" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C231" s="6" t="b">
         <v>1</v>
@@ -14398,7 +14452,7 @@
         <v>21</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>30</v>
@@ -14437,10 +14491,10 @@
     </row>
     <row r="232" spans="1:21">
       <c r="A232" s="3" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C232" s="6" t="b">
         <v>1</v>
@@ -14449,13 +14503,13 @@
         <v>21</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H232" s="6" t="s">
         <v>36</v>
@@ -14476,10 +14530,10 @@
     </row>
     <row r="233" spans="1:21" s="4" customFormat="1" ht="126">
       <c r="A233" s="4" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C233" s="5" t="b">
         <v>1</v>
@@ -14488,7 +14542,7 @@
         <v>21</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>58</v>
@@ -14500,7 +14554,7 @@
         <v>36</v>
       </c>
       <c r="I233" s="8" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="J233" s="5" t="s">
         <v>35</v>
@@ -14509,7 +14563,7 @@
         <v>36</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="M233" s="5"/>
       <c r="N233" s="5"/>
@@ -14523,19 +14577,19 @@
     </row>
     <row r="234" spans="1:21">
       <c r="A234" s="3" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B234" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C234" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E234" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="C234" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>58</v>
@@ -14570,10 +14624,10 @@
     </row>
     <row r="235" spans="1:21" s="4" customFormat="1">
       <c r="A235" s="4" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C235" s="5" t="b">
         <v>1</v>
@@ -14582,7 +14636,7 @@
         <v>21</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>58</v>
@@ -14591,10 +14645,10 @@
         <v>24</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
@@ -14611,10 +14665,10 @@
     </row>
     <row r="236" spans="1:21" s="4" customFormat="1">
       <c r="A236" s="4" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C236" s="5" t="b">
         <v>1</v>
@@ -14623,28 +14677,28 @@
         <v>21</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G236" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="J236" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H236" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I236" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="J236" s="5" t="s">
-        <v>413</v>
-      </c>
       <c r="K236" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M236" s="5"/>
       <c r="N236" s="5"/>
@@ -14658,10 +14712,10 @@
     </row>
     <row r="237" spans="1:21" s="4" customFormat="1">
       <c r="A237" s="4" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C237" s="5" t="b">
         <v>1</v>
@@ -14670,28 +14724,28 @@
         <v>21</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G237" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I237" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="J237" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H237" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I237" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="J237" s="5" t="s">
-        <v>413</v>
-      </c>
       <c r="K237" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="M237" s="5"/>
       <c r="N237" s="5"/>
@@ -14705,10 +14759,10 @@
     </row>
     <row r="238" spans="1:21" s="9" customFormat="1">
       <c r="A238" s="9" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C238" s="10" t="b">
         <v>1</v>
@@ -14740,10 +14794,10 @@
     </row>
     <row r="239" spans="1:21" s="4" customFormat="1">
       <c r="A239" s="4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C239" s="5" t="b">
         <v>1</v>
@@ -14752,7 +14806,7 @@
         <v>21</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>58</v>
@@ -14764,7 +14818,7 @@
         <v>36</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
@@ -14781,10 +14835,10 @@
     </row>
     <row r="240" spans="1:21" s="4" customFormat="1">
       <c r="A240" s="4" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C240" s="5" t="b">
         <v>1</v>
@@ -14793,7 +14847,7 @@
         <v>21</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>27</v>
@@ -14805,7 +14859,7 @@
         <v>28</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
@@ -14822,10 +14876,10 @@
     </row>
     <row r="241" spans="1:21" s="9" customFormat="1">
       <c r="A241" s="9" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C241" s="10" t="b">
         <v>1</v>
@@ -14865,10 +14919,10 @@
     </row>
     <row r="242" spans="1:21" s="9" customFormat="1">
       <c r="A242" s="9" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C242" s="10" t="b">
         <v>1</v>
@@ -14908,10 +14962,10 @@
     </row>
     <row r="243" spans="1:21" s="9" customFormat="1">
       <c r="A243" s="9" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C243" s="10" t="b">
         <v>1</v>
@@ -14951,10 +15005,10 @@
     </row>
     <row r="244" spans="1:21" s="9" customFormat="1">
       <c r="A244" s="9" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C244" s="10" t="b">
         <v>1</v>
@@ -14994,10 +15048,10 @@
     </row>
     <row r="245" spans="1:21" s="9" customFormat="1">
       <c r="A245" s="9" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C245" s="10" t="b">
         <v>1</v>
@@ -15037,10 +15091,10 @@
     </row>
     <row r="246" spans="1:21" s="4" customFormat="1" ht="168">
       <c r="A246" s="4" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C246" s="5" t="b">
         <v>1</v>
@@ -15049,7 +15103,7 @@
         <v>21</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>30</v>
@@ -15058,10 +15112,10 @@
         <v>43</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="J246" s="5" t="s">
         <v>128</v>
@@ -15070,7 +15124,7 @@
         <v>36</v>
       </c>
       <c r="L246" s="8" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="M246" s="5"/>
       <c r="N246" s="5"/>
@@ -15084,10 +15138,10 @@
     </row>
     <row r="247" spans="1:21" s="4" customFormat="1" ht="168">
       <c r="A247" s="4" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>1</v>
@@ -15096,7 +15150,7 @@
         <v>21</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>30</v>
@@ -15105,10 +15159,10 @@
         <v>43</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="J247" s="5" t="s">
         <v>128</v>
@@ -15117,25 +15171,25 @@
         <v>36</v>
       </c>
       <c r="L247" s="8" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="O247" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="Q247" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="R247" s="5" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="S247" s="5"/>
       <c r="T247" s="5"/>
@@ -15143,10 +15197,10 @@
     </row>
     <row r="248" spans="1:21" s="4" customFormat="1">
       <c r="A248" s="4" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>1</v>
@@ -15155,7 +15209,7 @@
         <v>21</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>27</v>
@@ -15167,7 +15221,7 @@
         <v>28</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
@@ -15182,55 +15236,59 @@
       <c r="T248" s="5"/>
       <c r="U248" s="5"/>
     </row>
-    <row r="249" spans="1:21">
-      <c r="A249" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="B249" s="6" t="s">
+    <row r="249" spans="1:21" s="4" customFormat="1" ht="168">
+      <c r="A249" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C249" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G249" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C249" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="F249" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G249" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="H249" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I249" s="6"/>
-      <c r="J249" s="6" t="s">
+      <c r="H249" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J249" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K249" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L249" s="6"/>
-      <c r="M249" s="6"/>
-      <c r="N249" s="6"/>
-      <c r="O249" s="6"/>
-      <c r="P249" s="6"/>
-      <c r="Q249" s="6"/>
-      <c r="R249" s="6"/>
-      <c r="S249" s="6"/>
-      <c r="T249" s="6"/>
-      <c r="U249" s="6"/>
+      <c r="K249" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L249" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M249" s="5"/>
+      <c r="N249" s="5"/>
+      <c r="O249" s="5"/>
+      <c r="P249" s="5"/>
+      <c r="Q249" s="5"/>
+      <c r="R249" s="5"/>
+      <c r="S249" s="5"/>
+      <c r="T249" s="5"/>
+      <c r="U249" s="5"/>
     </row>
     <row r="250" spans="1:21" s="4" customFormat="1">
       <c r="A250" s="4" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>1</v>
@@ -15239,7 +15297,7 @@
         <v>21</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>27</v>
@@ -15251,7 +15309,7 @@
         <v>28</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="J250" s="5"/>
       <c r="K250" s="5"/>
@@ -15266,51 +15324,51 @@
       <c r="T250" s="5"/>
       <c r="U250" s="5"/>
     </row>
-    <row r="251" spans="1:21">
-      <c r="A251" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="B251" s="6" t="s">
+    <row r="251" spans="1:21" s="4" customFormat="1">
+      <c r="A251" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C251" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G251" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C251" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G251" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="H251" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I251" s="6"/>
-      <c r="J251" s="6"/>
-      <c r="K251" s="6"/>
-      <c r="L251" s="6"/>
-      <c r="M251" s="6"/>
-      <c r="N251" s="6"/>
-      <c r="O251" s="6"/>
-      <c r="P251" s="6"/>
-      <c r="Q251" s="6"/>
-      <c r="R251" s="6"/>
-      <c r="S251" s="6"/>
-      <c r="T251" s="6"/>
-      <c r="U251" s="6"/>
+      <c r="H251" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="5"/>
+      <c r="M251" s="5"/>
+      <c r="N251" s="5"/>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="5"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5"/>
     </row>
     <row r="252" spans="1:21" s="9" customFormat="1">
       <c r="A252" s="9" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C252" s="10" t="b">
         <v>1</v>
@@ -15344,129 +15402,129 @@
       <c r="T252" s="10"/>
       <c r="U252" s="10"/>
     </row>
-    <row r="253" spans="1:21">
-      <c r="A253" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B253" s="6" t="s">
+    <row r="253" spans="1:21" s="4" customFormat="1">
+      <c r="A253" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C253" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G253" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C253" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="F253" s="6" t="s">
+      <c r="H253" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5"/>
+      <c r="K253" s="5"/>
+      <c r="L253" s="5"/>
+      <c r="M253" s="5"/>
+      <c r="N253" s="5"/>
+      <c r="O253" s="5"/>
+      <c r="P253" s="5"/>
+      <c r="Q253" s="5"/>
+      <c r="R253" s="5"/>
+      <c r="S253" s="5"/>
+      <c r="T253" s="5"/>
+      <c r="U253" s="5"/>
+    </row>
+    <row r="254" spans="1:21" s="4" customFormat="1">
+      <c r="A254" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C254" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F254" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G253" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="H253" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I253" s="6"/>
-      <c r="J253" s="6"/>
-      <c r="K253" s="6"/>
-      <c r="L253" s="6"/>
-      <c r="M253" s="6"/>
-      <c r="N253" s="6"/>
-      <c r="O253" s="6"/>
-      <c r="P253" s="6"/>
-      <c r="Q253" s="6"/>
-      <c r="R253" s="6"/>
-      <c r="S253" s="6"/>
-      <c r="T253" s="6"/>
-      <c r="U253" s="6"/>
-    </row>
-    <row r="254" spans="1:21">
-      <c r="A254" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="B254" s="6" t="s">
+      <c r="G254" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C254" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="F254" s="6" t="s">
+      <c r="H254" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="5"/>
+      <c r="P254" s="5"/>
+      <c r="Q254" s="5"/>
+      <c r="R254" s="5"/>
+      <c r="S254" s="5"/>
+      <c r="T254" s="5"/>
+      <c r="U254" s="5"/>
+    </row>
+    <row r="255" spans="1:21" s="4" customFormat="1">
+      <c r="A255" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C255" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F255" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G254" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H254" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I254" s="6"/>
-      <c r="J254" s="6"/>
-      <c r="K254" s="6"/>
-      <c r="L254" s="6"/>
-      <c r="M254" s="6"/>
-      <c r="N254" s="6"/>
-      <c r="O254" s="6"/>
-      <c r="P254" s="6"/>
-      <c r="Q254" s="6"/>
-      <c r="R254" s="6"/>
-      <c r="S254" s="6"/>
-      <c r="T254" s="6"/>
-      <c r="U254" s="6"/>
-    </row>
-    <row r="255" spans="1:21">
-      <c r="A255" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C255" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="F255" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G255" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="H255" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I255" s="6"/>
-      <c r="J255" s="6"/>
-      <c r="K255" s="6"/>
-      <c r="L255" s="6"/>
-      <c r="M255" s="6"/>
-      <c r="N255" s="6"/>
-      <c r="O255" s="6"/>
-      <c r="P255" s="6"/>
-      <c r="Q255" s="6"/>
-      <c r="R255" s="6"/>
-      <c r="S255" s="6"/>
-      <c r="T255" s="6"/>
-      <c r="U255" s="6"/>
+      <c r="G255" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+      <c r="M255" s="5"/>
+      <c r="N255" s="5"/>
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
+      <c r="R255" s="5"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="5"/>
     </row>
     <row r="256" spans="1:21" s="4" customFormat="1">
       <c r="A256" s="4" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>1</v>
@@ -15475,28 +15533,28 @@
         <v>21</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>292</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K256" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M256" s="5"/>
       <c r="N256" s="5"/>
@@ -15510,10 +15568,10 @@
     </row>
     <row r="257" spans="1:21" s="4" customFormat="1">
       <c r="A257" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>1</v>
@@ -15522,19 +15580,19 @@
         <v>21</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
@@ -15551,19 +15609,19 @@
     </row>
     <row r="258" spans="1:21">
       <c r="A258" s="3" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B258" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C258" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E258" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="C258" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>30</v>
@@ -15590,10 +15648,10 @@
     </row>
     <row r="259" spans="1:21">
       <c r="A259" s="3" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C259" s="6" t="b">
         <v>1</v>
@@ -15602,7 +15660,7 @@
         <v>21</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F259" s="6" t="s">
         <v>58</v>
@@ -15615,7 +15673,7 @@
       </c>
       <c r="I259" s="6"/>
       <c r="J259" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K259" s="6" t="s">
         <v>36</v>
@@ -15633,10 +15691,10 @@
     </row>
     <row r="260" spans="1:21">
       <c r="A260" s="3" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C260" s="6" t="b">
         <v>1</v>
@@ -15645,7 +15703,7 @@
         <v>21</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F260" s="6" t="s">
         <v>58</v>
@@ -15658,7 +15716,7 @@
       </c>
       <c r="I260" s="6"/>
       <c r="J260" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K260" s="6" t="s">
         <v>36</v>
@@ -15676,10 +15734,10 @@
     </row>
     <row r="261" spans="1:21">
       <c r="A261" s="3" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C261" s="6" t="b">
         <v>1</v>
@@ -15688,7 +15746,7 @@
         <v>21</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F261" s="6" t="s">
         <v>58</v>
@@ -15701,7 +15759,7 @@
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K261" s="6" t="s">
         <v>36</v>
@@ -15719,10 +15777,10 @@
     </row>
     <row r="262" spans="1:21">
       <c r="A262" s="3" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C262" s="6" t="b">
         <v>1</v>
@@ -15731,7 +15789,7 @@
         <v>21</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>58</v>
@@ -15744,7 +15802,7 @@
       </c>
       <c r="I262" s="6"/>
       <c r="J262" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K262" s="6" t="s">
         <v>36</v>
@@ -15762,10 +15820,10 @@
     </row>
     <row r="263" spans="1:21">
       <c r="A263" s="3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C263" s="6" t="b">
         <v>1</v>
@@ -15774,7 +15832,7 @@
         <v>21</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>58</v>
@@ -15787,7 +15845,7 @@
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K263" s="6" t="s">
         <v>36</v>
